--- a/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
+++ b/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\fuels\BFPIaE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS India 2.1 - Input Data Revisions_17Mar2020\BFPIaE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FFF84C-E993-42F2-8D2B-DA67E0F9B089}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A5B6D4-A7D3-4826-A736-B860CEC6737C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="684" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="533">
   <si>
     <t>Source:</t>
   </si>
@@ -3024,8 +3024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3972,7 +3972,7 @@
   <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4579,7 +4579,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
+      <selection pane="bottomRight" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11309,7 +11309,7 @@
   <dimension ref="A1:AI23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17248,7 +17248,7 @@
   </sheetPr>
   <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21:AI21"/>
     </sheetView>
   </sheetViews>
@@ -20034,8 +20034,8 @@
   </sheetPr>
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20897,7 +20897,7 @@
   <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21653,7 +21653,7 @@
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21681,9 +21681,8 @@
       <c r="F1" s="81" t="s">
         <v>453</v>
       </c>
-      <c r="M1" s="83" t="str">
-        <f>preferences.energyunits</f>
-        <v>TWh</v>
+      <c r="M1" s="83" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -22993,7 +22992,7 @@
   <dimension ref="A1:AN20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23024,9 +23023,8 @@
       <c r="G1" s="81" t="s">
         <v>459</v>
       </c>
-      <c r="N1" s="83" t="str">
-        <f>preferences.energyunits</f>
-        <v>TWh</v>
+      <c r="N1" s="83" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
@@ -24095,8 +24093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AC3A71-26E4-4EC3-9044-E977DE08E1B5}">
   <dimension ref="A1:AI30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24951,7 +24949,7 @@
   <dimension ref="A1:AQ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26653,8 +26651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505808A6-D540-4CDE-A083-4B90EB1443D9}">
   <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
+++ b/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5730" tabRatio="684" firstSheet="8" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5730" tabRatio="684"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="572">
   <si>
     <t>Source:</t>
   </si>
@@ -1820,6 +1820,18 @@
   </si>
   <si>
     <t>Avg. heat content (Kcal/Kg)</t>
+  </si>
+  <si>
+    <t>Jet fuel</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>imports</t>
+  </si>
+  <si>
+    <t>exports</t>
   </si>
 </sst>
 </file>
@@ -2520,14 +2532,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Body: normal cell" xfId="7"/>
@@ -3226,7 +3238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
@@ -13939,44 +13951,44 @@
     </row>
     <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="93" t="s">
+      <c r="B78" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="C78" s="93"/>
-      <c r="D78" s="93"/>
-      <c r="E78" s="93"/>
-      <c r="F78" s="93"/>
-      <c r="G78" s="93"/>
-      <c r="H78" s="93"/>
-      <c r="I78" s="93"/>
-      <c r="J78" s="93"/>
-      <c r="K78" s="93"/>
-      <c r="L78" s="93"/>
-      <c r="M78" s="93"/>
-      <c r="N78" s="93"/>
-      <c r="O78" s="93"/>
-      <c r="P78" s="93"/>
-      <c r="Q78" s="93"/>
-      <c r="R78" s="93"/>
-      <c r="S78" s="93"/>
-      <c r="T78" s="93"/>
-      <c r="U78" s="93"/>
-      <c r="V78" s="93"/>
-      <c r="W78" s="93"/>
-      <c r="X78" s="93"/>
-      <c r="Y78" s="93"/>
-      <c r="Z78" s="93"/>
-      <c r="AA78" s="93"/>
-      <c r="AB78" s="93"/>
-      <c r="AC78" s="93"/>
-      <c r="AD78" s="93"/>
-      <c r="AE78" s="93"/>
-      <c r="AF78" s="93"/>
-      <c r="AG78" s="93"/>
-      <c r="AH78" s="93"/>
-      <c r="AI78" s="93"/>
-      <c r="AJ78" s="93"/>
-      <c r="AK78" s="93"/>
+      <c r="C78" s="96"/>
+      <c r="D78" s="96"/>
+      <c r="E78" s="96"/>
+      <c r="F78" s="96"/>
+      <c r="G78" s="96"/>
+      <c r="H78" s="96"/>
+      <c r="I78" s="96"/>
+      <c r="J78" s="96"/>
+      <c r="K78" s="96"/>
+      <c r="L78" s="96"/>
+      <c r="M78" s="96"/>
+      <c r="N78" s="96"/>
+      <c r="O78" s="96"/>
+      <c r="P78" s="96"/>
+      <c r="Q78" s="96"/>
+      <c r="R78" s="96"/>
+      <c r="S78" s="96"/>
+      <c r="T78" s="96"/>
+      <c r="U78" s="96"/>
+      <c r="V78" s="96"/>
+      <c r="W78" s="96"/>
+      <c r="X78" s="96"/>
+      <c r="Y78" s="96"/>
+      <c r="Z78" s="96"/>
+      <c r="AA78" s="96"/>
+      <c r="AB78" s="96"/>
+      <c r="AC78" s="96"/>
+      <c r="AD78" s="96"/>
+      <c r="AE78" s="96"/>
+      <c r="AF78" s="96"/>
+      <c r="AG78" s="96"/>
+      <c r="AH78" s="96"/>
+      <c r="AI78" s="96"/>
+      <c r="AJ78" s="96"/>
+      <c r="AK78" s="96"/>
     </row>
     <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="11" t="s">
@@ -16885,8 +16897,8 @@
   </sheetPr>
   <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18693,140 +18705,140 @@
         <v>30</v>
       </c>
       <c r="B14" s="12">
-        <f>'Petroleum Products'!C13</f>
-        <v>13366862384605.563</v>
+        <f>D14</f>
+        <v>0</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
-        <v>13366862384605.563</v>
+        <f>D14</f>
+        <v>0</v>
       </c>
       <c r="D14">
-        <f>IF(('BAU Total Primary Fuel Use'!B14-('BFPIaE-production'!D14-'BFPIaE-exports'!D14))&gt;0,('BAU Total Primary Fuel Use'!B14-('BFPIaE-production'!D14-'BFPIaE-exports'!D14)),0)</f>
+        <f>'Petroleum Products'!B31</f>
         <v>0</v>
       </c>
       <c r="E14">
-        <f>IF(('BAU Total Primary Fuel Use'!C14-('BFPIaE-production'!E14-'BFPIaE-exports'!E14))&gt;0,('BAU Total Primary Fuel Use'!C14-('BFPIaE-production'!E14-'BFPIaE-exports'!E14)),0)</f>
+        <f>'Petroleum Products'!C31</f>
         <v>0</v>
       </c>
       <c r="F14">
-        <f>IF(('BAU Total Primary Fuel Use'!D14-('BFPIaE-production'!F14-'BFPIaE-exports'!F14))&gt;0,('BAU Total Primary Fuel Use'!D14-('BFPIaE-production'!F14-'BFPIaE-exports'!F14)),0)</f>
+        <f>'Petroleum Products'!D31</f>
         <v>0</v>
       </c>
       <c r="G14">
-        <f>IF(('BAU Total Primary Fuel Use'!E14-('BFPIaE-production'!G14-'BFPIaE-exports'!G14))&gt;0,('BAU Total Primary Fuel Use'!E14-('BFPIaE-production'!G14-'BFPIaE-exports'!G14)),0)</f>
+        <f>'Petroleum Products'!E31</f>
         <v>0</v>
       </c>
       <c r="H14">
-        <f>IF(('BAU Total Primary Fuel Use'!F14-('BFPIaE-production'!H14-'BFPIaE-exports'!H14))&gt;0,('BAU Total Primary Fuel Use'!F14-('BFPIaE-production'!H14-'BFPIaE-exports'!H14)),0)</f>
+        <f>'Petroleum Products'!F31</f>
         <v>0</v>
       </c>
       <c r="I14">
-        <f>IF(('BAU Total Primary Fuel Use'!G14-('BFPIaE-production'!I14-'BFPIaE-exports'!I14))&gt;0,('BAU Total Primary Fuel Use'!G14-('BFPIaE-production'!I14-'BFPIaE-exports'!I14)),0)</f>
+        <f>'Petroleum Products'!G31</f>
         <v>0</v>
       </c>
       <c r="J14">
-        <f>IF(('BAU Total Primary Fuel Use'!H14-('BFPIaE-production'!J14-'BFPIaE-exports'!J14))&gt;0,('BAU Total Primary Fuel Use'!H14-('BFPIaE-production'!J14-'BFPIaE-exports'!J14)),0)</f>
+        <f>'Petroleum Products'!H31</f>
         <v>0</v>
       </c>
       <c r="K14">
-        <f>IF(('BAU Total Primary Fuel Use'!I14-('BFPIaE-production'!K14-'BFPIaE-exports'!K14))&gt;0,('BAU Total Primary Fuel Use'!I14-('BFPIaE-production'!K14-'BFPIaE-exports'!K14)),0)</f>
+        <f>'Petroleum Products'!I31</f>
         <v>0</v>
       </c>
       <c r="L14">
-        <f>IF(('BAU Total Primary Fuel Use'!J14-('BFPIaE-production'!L14-'BFPIaE-exports'!L14))&gt;0,('BAU Total Primary Fuel Use'!J14-('BFPIaE-production'!L14-'BFPIaE-exports'!L14)),0)</f>
+        <f>'Petroleum Products'!J31</f>
         <v>0</v>
       </c>
       <c r="M14">
-        <f>IF(('BAU Total Primary Fuel Use'!K14-('BFPIaE-production'!M14-'BFPIaE-exports'!M14))&gt;0,('BAU Total Primary Fuel Use'!K14-('BFPIaE-production'!M14-'BFPIaE-exports'!M14)),0)</f>
+        <f>'Petroleum Products'!K31</f>
         <v>0</v>
       </c>
       <c r="N14">
-        <f>IF(('BAU Total Primary Fuel Use'!L14-('BFPIaE-production'!N14-'BFPIaE-exports'!N14))&gt;0,('BAU Total Primary Fuel Use'!L14-('BFPIaE-production'!N14-'BFPIaE-exports'!N14)),0)</f>
+        <f>'Petroleum Products'!L31</f>
         <v>0</v>
       </c>
       <c r="O14">
-        <f>IF(('BAU Total Primary Fuel Use'!M14-('BFPIaE-production'!O14-'BFPIaE-exports'!O14))&gt;0,('BAU Total Primary Fuel Use'!M14-('BFPIaE-production'!O14-'BFPIaE-exports'!O14)),0)</f>
+        <f>'Petroleum Products'!M31</f>
         <v>0</v>
       </c>
       <c r="P14">
-        <f>IF(('BAU Total Primary Fuel Use'!N14-('BFPIaE-production'!P14-'BFPIaE-exports'!P14))&gt;0,('BAU Total Primary Fuel Use'!N14-('BFPIaE-production'!P14-'BFPIaE-exports'!P14)),0)</f>
+        <f>'Petroleum Products'!N31</f>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f>IF(('BAU Total Primary Fuel Use'!O14-('BFPIaE-production'!Q14-'BFPIaE-exports'!Q14))&gt;0,('BAU Total Primary Fuel Use'!O14-('BFPIaE-production'!Q14-'BFPIaE-exports'!Q14)),0)</f>
-        <v>3718384425045.3125</v>
+        <f>'Petroleum Products'!O31</f>
+        <v>0</v>
       </c>
       <c r="R14">
-        <f>IF(('BAU Total Primary Fuel Use'!P14-('BFPIaE-production'!R14-'BFPIaE-exports'!R14))&gt;0,('BAU Total Primary Fuel Use'!P14-('BFPIaE-production'!R14-'BFPIaE-exports'!R14)),0)</f>
-        <v>23839384425045.313</v>
+        <f>'Petroleum Products'!P31</f>
+        <v>0</v>
       </c>
       <c r="S14">
-        <f>IF(('BAU Total Primary Fuel Use'!Q14-('BFPIaE-production'!S14-'BFPIaE-exports'!S14))&gt;0,('BAU Total Primary Fuel Use'!Q14-('BFPIaE-production'!S14-'BFPIaE-exports'!S14)),0)</f>
-        <v>43779384425045.313</v>
+        <f>'Petroleum Products'!Q31</f>
+        <v>0</v>
       </c>
       <c r="T14">
-        <f>IF(('BAU Total Primary Fuel Use'!R14-('BFPIaE-production'!T14-'BFPIaE-exports'!T14))&gt;0,('BAU Total Primary Fuel Use'!R14-('BFPIaE-production'!T14-'BFPIaE-exports'!T14)),0)</f>
-        <v>63691384425045.313</v>
+        <f>'Petroleum Products'!R31</f>
+        <v>0</v>
       </c>
       <c r="U14">
-        <f>IF(('BAU Total Primary Fuel Use'!S14-('BFPIaE-production'!U14-'BFPIaE-exports'!U14))&gt;0,('BAU Total Primary Fuel Use'!S14-('BFPIaE-production'!U14-'BFPIaE-exports'!U14)),0)</f>
-        <v>99967384425045.313</v>
+        <f>'Petroleum Products'!S31</f>
+        <v>0</v>
       </c>
       <c r="V14">
-        <f>IF(('BAU Total Primary Fuel Use'!T14-('BFPIaE-production'!V14-'BFPIaE-exports'!V14))&gt;0,('BAU Total Primary Fuel Use'!T14-('BFPIaE-production'!V14-'BFPIaE-exports'!V14)),0)</f>
-        <v>135929384425045.31</v>
+        <f>'Petroleum Products'!T31</f>
+        <v>0</v>
       </c>
       <c r="W14">
-        <f>IF(('BAU Total Primary Fuel Use'!U14-('BFPIaE-production'!W14-'BFPIaE-exports'!W14))&gt;0,('BAU Total Primary Fuel Use'!U14-('BFPIaE-production'!W14-'BFPIaE-exports'!W14)),0)</f>
-        <v>171422384425045.31</v>
+        <f>'Petroleum Products'!U31</f>
+        <v>0</v>
       </c>
       <c r="X14">
-        <f>IF(('BAU Total Primary Fuel Use'!V14-('BFPIaE-production'!X14-'BFPIaE-exports'!X14))&gt;0,('BAU Total Primary Fuel Use'!V14-('BFPIaE-production'!X14-'BFPIaE-exports'!X14)),0)</f>
-        <v>206497384425045.31</v>
+        <f>'Petroleum Products'!V31</f>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <f>IF(('BAU Total Primary Fuel Use'!W14-('BFPIaE-production'!Y14-'BFPIaE-exports'!Y14))&gt;0,('BAU Total Primary Fuel Use'!W14-('BFPIaE-production'!Y14-'BFPIaE-exports'!Y14)),0)</f>
-        <v>241161384425045.31</v>
+        <f>'Petroleum Products'!W31</f>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <f>IF(('BAU Total Primary Fuel Use'!X14-('BFPIaE-production'!Z14-'BFPIaE-exports'!Z14))&gt;0,('BAU Total Primary Fuel Use'!X14-('BFPIaE-production'!Z14-'BFPIaE-exports'!Z14)),0)</f>
-        <v>286042384425045.31</v>
+        <f>'Petroleum Products'!X31</f>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <f>IF(('BAU Total Primary Fuel Use'!Y14-('BFPIaE-production'!AA14-'BFPIaE-exports'!AA14))&gt;0,('BAU Total Primary Fuel Use'!Y14-('BFPIaE-production'!AA14-'BFPIaE-exports'!AA14)),0)</f>
-        <v>330609384425045.31</v>
+        <f>'Petroleum Products'!Y31</f>
+        <v>663774429781.5</v>
       </c>
       <c r="AB14">
-        <f>IF(('BAU Total Primary Fuel Use'!Z14-('BFPIaE-production'!AB14-'BFPIaE-exports'!AB14))&gt;0,('BAU Total Primary Fuel Use'!Z14-('BFPIaE-production'!AB14-'BFPIaE-exports'!AB14)),0)</f>
-        <v>374820384425045.31</v>
+        <f>'Petroleum Products'!Z31</f>
+        <v>44874774429781.5</v>
       </c>
       <c r="AC14">
-        <f>IF(('BAU Total Primary Fuel Use'!AA14-('BFPIaE-production'!AC14-'BFPIaE-exports'!AC14))&gt;0,('BAU Total Primary Fuel Use'!AA14-('BFPIaE-production'!AC14-'BFPIaE-exports'!AC14)),0)</f>
-        <v>418845384425045.31</v>
+        <f>'Petroleum Products'!AA31</f>
+        <v>88899774429781.5</v>
       </c>
       <c r="AD14">
-        <f>IF(('BAU Total Primary Fuel Use'!AB14-('BFPIaE-production'!AD14-'BFPIaE-exports'!AD14))&gt;0,('BAU Total Primary Fuel Use'!AB14-('BFPIaE-production'!AD14-'BFPIaE-exports'!AD14)),0)</f>
-        <v>462618384425045.31</v>
+        <f>'Petroleum Products'!AB31</f>
+        <v>132672774429781.5</v>
       </c>
       <c r="AE14">
-        <f>IF(('BAU Total Primary Fuel Use'!AC14-('BFPIaE-production'!AE14-'BFPIaE-exports'!AE14))&gt;0,('BAU Total Primary Fuel Use'!AC14-('BFPIaE-production'!AE14-'BFPIaE-exports'!AE14)),0)</f>
-        <v>515397384425045.31</v>
+        <f>'Petroleum Products'!AC31</f>
+        <v>185451774429781.5</v>
       </c>
       <c r="AF14">
-        <f>IF(('BAU Total Primary Fuel Use'!AD14-('BFPIaE-production'!AF14-'BFPIaE-exports'!AF14))&gt;0,('BAU Total Primary Fuel Use'!AD14-('BFPIaE-production'!AF14-'BFPIaE-exports'!AF14)),0)</f>
-        <v>568080384425045.25</v>
+        <f>'Petroleum Products'!AD31</f>
+        <v>238134774429781.5</v>
       </c>
       <c r="AG14">
-        <f>IF(('BAU Total Primary Fuel Use'!AE14-('BFPIaE-production'!AG14-'BFPIaE-exports'!AG14))&gt;0,('BAU Total Primary Fuel Use'!AE14-('BFPIaE-production'!AG14-'BFPIaE-exports'!AG14)),0)</f>
-        <v>620738384425045.25</v>
+        <f>'Petroleum Products'!AE31</f>
+        <v>290792774429781.5</v>
       </c>
       <c r="AH14">
-        <f>IF(('BAU Total Primary Fuel Use'!AF14-('BFPIaE-production'!AH14-'BFPIaE-exports'!AH14))&gt;0,('BAU Total Primary Fuel Use'!AF14-('BFPIaE-production'!AH14-'BFPIaE-exports'!AH14)),0)</f>
-        <v>673231384425045.25</v>
+        <f>'Petroleum Products'!AF31</f>
+        <v>343285774429781.5</v>
       </c>
       <c r="AI14">
-        <f>IF(('BAU Total Primary Fuel Use'!AG14-('BFPIaE-production'!AI14-'BFPIaE-exports'!AI14))&gt;0,('BAU Total Primary Fuel Use'!AG14-('BFPIaE-production'!AI14-'BFPIaE-exports'!AI14)),0)</f>
-        <v>725311384425045.25</v>
+        <f>'Petroleum Products'!AG31</f>
+        <v>395365774429781.5</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.45">
@@ -19969,8 +19981,8 @@
   </sheetPr>
   <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AE27" sqref="AE27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -21610,141 +21622,141 @@
       <c r="A14" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="12">
-        <f>'Petroleum Products'!D13</f>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="C14">
-        <f>B14</f>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ref="D14:AI14" si="7">C14</f>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="AD14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="AE14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="AF14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="AG14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="AH14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
-      </c>
-      <c r="AI14">
-        <f t="shared" si="7"/>
-        <v>329945609995263.81</v>
+      <c r="B14" s="31">
+        <f>C14</f>
+        <v>417312225570218.5</v>
+      </c>
+      <c r="C14" s="31">
+        <f>D14</f>
+        <v>417312225570218.5</v>
+      </c>
+      <c r="D14" s="31">
+        <f>'Petroleum Products'!B32</f>
+        <v>417312225570218.5</v>
+      </c>
+      <c r="E14" s="31">
+        <f>'Petroleum Products'!C32</f>
+        <v>479955225570218.5</v>
+      </c>
+      <c r="F14" s="31">
+        <f>'Petroleum Products'!D32</f>
+        <v>482175225570218.5</v>
+      </c>
+      <c r="G14" s="31">
+        <f>'Petroleum Products'!E32</f>
+        <v>492471225570218.5</v>
+      </c>
+      <c r="H14" s="31">
+        <f>'Petroleum Products'!F32</f>
+        <v>476330225570218.5</v>
+      </c>
+      <c r="I14" s="31">
+        <f>'Petroleum Products'!G32</f>
+        <v>462978225570218.5</v>
+      </c>
+      <c r="J14" s="31">
+        <f>'Petroleum Products'!H32</f>
+        <v>451019225570218.5</v>
+      </c>
+      <c r="K14" s="31">
+        <f>'Petroleum Products'!I32</f>
+        <v>433034225570218.5</v>
+      </c>
+      <c r="L14" s="31">
+        <f>'Petroleum Products'!J32</f>
+        <v>415810225570218.5</v>
+      </c>
+      <c r="M14" s="31">
+        <f>'Petroleum Products'!K32</f>
+        <v>399214225570218.5</v>
+      </c>
+      <c r="N14" s="31">
+        <f>'Petroleum Products'!L32</f>
+        <v>383130225570218.5</v>
+      </c>
+      <c r="O14" s="31">
+        <f>'Petroleum Products'!M32</f>
+        <v>367121225570218.5</v>
+      </c>
+      <c r="P14" s="31">
+        <f>'Petroleum Products'!N32</f>
+        <v>346554225570218.5</v>
+      </c>
+      <c r="Q14" s="31">
+        <f>'Petroleum Products'!O32</f>
+        <v>326227225570218.5</v>
+      </c>
+      <c r="R14" s="31">
+        <f>'Petroleum Products'!P32</f>
+        <v>306106225570218.5</v>
+      </c>
+      <c r="S14" s="31">
+        <f>'Petroleum Products'!Q32</f>
+        <v>286166225570218.5</v>
+      </c>
+      <c r="T14" s="31">
+        <f>'Petroleum Products'!R32</f>
+        <v>266254225570218.5</v>
+      </c>
+      <c r="U14" s="31">
+        <f>'Petroleum Products'!S32</f>
+        <v>229978225570218.5</v>
+      </c>
+      <c r="V14" s="31">
+        <f>'Petroleum Products'!T32</f>
+        <v>194016225570218.5</v>
+      </c>
+      <c r="W14" s="31">
+        <f>'Petroleum Products'!U32</f>
+        <v>158523225570218.5</v>
+      </c>
+      <c r="X14" s="31">
+        <f>'Petroleum Products'!V32</f>
+        <v>123448225570218.5</v>
+      </c>
+      <c r="Y14" s="31">
+        <f>'Petroleum Products'!W32</f>
+        <v>88784225570218.5</v>
+      </c>
+      <c r="Z14" s="31">
+        <f>'Petroleum Products'!X32</f>
+        <v>43903225570218.5</v>
+      </c>
+      <c r="AA14" s="31">
+        <f>'Petroleum Products'!Y32</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="31">
+        <f>'Petroleum Products'!Z32</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="31">
+        <f>'Petroleum Products'!AA32</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="31">
+        <f>'Petroleum Products'!AB32</f>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="31">
+        <f>'Petroleum Products'!AC32</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="31">
+        <f>'Petroleum Products'!AD32</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="31">
+        <f>'Petroleum Products'!AE32</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="31">
+        <f>'Petroleum Products'!AF32</f>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="31">
+        <f>'Petroleum Products'!AG32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.45">
@@ -21974,131 +21986,131 @@
         <v>58666666666.666664</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:AI17" si="8">C17</f>
+        <f t="shared" ref="D17:AI17" si="7">C17</f>
         <v>58666666666.666664</v>
       </c>
       <c r="E17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="F17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="G17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="H17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="I17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="J17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="K17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="L17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="M17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="N17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="O17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="P17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="R17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="S17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="T17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="U17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="V17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="W17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="X17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58666666666.666664</v>
       </c>
     </row>
@@ -22115,131 +22127,131 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18:AI18" si="9">C18</f>
+        <f t="shared" ref="D18:AI18" si="8">C18</f>
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -22256,131 +22268,131 @@
         <v>105596954960000</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:AI19" si="10">C19</f>
+        <f t="shared" ref="D19:AI19" si="9">C19</f>
         <v>105596954960000</v>
       </c>
       <c r="E19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="F19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="G19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="H19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="I19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="J19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="K19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="L19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="M19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="N19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="O19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="P19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="R19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="S19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="T19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="U19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="V19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="W19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="X19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="AC19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="AD19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="AE19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="AG19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="AH19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>105596954960000</v>
       </c>
     </row>
@@ -22397,131 +22409,131 @@
         <v>16087533489000</v>
       </c>
       <c r="D20" s="31">
-        <f t="shared" ref="D20:AI20" si="11">C20</f>
+        <f t="shared" ref="D20:AI20" si="10">C20</f>
         <v>16087533489000</v>
       </c>
       <c r="E20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="F20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="G20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="H20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="I20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="J20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="K20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="L20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="M20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="N20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="O20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="P20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="Q20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="R20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="S20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="T20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="U20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="V20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="W20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="X20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="Y20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="Z20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="AA20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="AB20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="AC20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="AD20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="AE20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="AF20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="AG20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="AH20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
       <c r="AI20" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16087533489000</v>
       </c>
     </row>
@@ -23630,7 +23642,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="94"/>
+      <c r="A1" s="93"/>
       <c r="B1" s="95" t="s">
         <v>559</v>
       </c>
@@ -23640,22 +23652,22 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93" t="s">
         <v>561</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="93" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="93" t="s">
         <v>563</v>
       </c>
-      <c r="B3" s="94">
+      <c r="B3" s="93">
         <v>942.63</v>
       </c>
-      <c r="C3" s="94">
+      <c r="C3" s="93">
         <v>14262</v>
       </c>
     </row>
@@ -23686,7 +23698,7 @@
       <c r="A9" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="B9" s="96">
+      <c r="B9" s="94">
         <f>(C3*B6)/(B3*B7)</f>
         <v>3616.0720537220332</v>
       </c>
@@ -23708,8 +23720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27441,10 +27453,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27453,6 +27465,7 @@
     <col min="2" max="2" width="16.86328125" customWidth="1"/>
     <col min="3" max="3" width="15.59765625" customWidth="1"/>
     <col min="4" max="4" width="22.73046875" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.1328125" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
@@ -27818,7 +27831,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A17" s="55" t="s">
         <v>290</v>
       </c>
@@ -27835,7 +27848,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>267</v>
       </c>
@@ -27864,7 +27877,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A19" s="55" t="s">
         <v>268</v>
       </c>
@@ -27896,7 +27909,7 @@
         <v>6.7451599347432651E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>269</v>
       </c>
@@ -27928,7 +27941,7 @@
         <v>0.13833916247672218</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>169</v>
       </c>
@@ -27960,7 +27973,7 @@
         <v>4.4274552734519634E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A22" s="53" t="s">
         <v>285</v>
       </c>
@@ -27980,7 +27993,7 @@
         <v>0.25979518811534769</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A23" s="53" t="s">
         <v>286</v>
       </c>
@@ -28000,7 +28013,7 @@
         <v>0.55084593673866733</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.45">
       <c r="I24" t="s">
         <v>10</v>
       </c>
@@ -28016,7 +28029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.45">
       <c r="I25" t="s">
         <v>523</v>
       </c>
@@ -28032,6 +28045,510 @@
         <f>SUM(D5,D13,D21,L6,L13)</f>
         <v>2385048485823980</v>
       </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <v>2019</v>
+      </c>
+      <c r="C29">
+        <v>2020</v>
+      </c>
+      <c r="D29">
+        <v>2021</v>
+      </c>
+      <c r="E29">
+        <v>2022</v>
+      </c>
+      <c r="F29">
+        <v>2023</v>
+      </c>
+      <c r="G29">
+        <v>2024</v>
+      </c>
+      <c r="H29">
+        <v>2025</v>
+      </c>
+      <c r="I29">
+        <v>2026</v>
+      </c>
+      <c r="J29">
+        <v>2027</v>
+      </c>
+      <c r="K29">
+        <v>2028</v>
+      </c>
+      <c r="L29">
+        <v>2029</v>
+      </c>
+      <c r="M29">
+        <v>2030</v>
+      </c>
+      <c r="N29">
+        <v>2031</v>
+      </c>
+      <c r="O29">
+        <v>2032</v>
+      </c>
+      <c r="P29">
+        <v>2033</v>
+      </c>
+      <c r="Q29">
+        <v>2034</v>
+      </c>
+      <c r="R29">
+        <v>2035</v>
+      </c>
+      <c r="S29">
+        <v>2036</v>
+      </c>
+      <c r="T29">
+        <v>2037</v>
+      </c>
+      <c r="U29">
+        <v>2038</v>
+      </c>
+      <c r="V29">
+        <v>2039</v>
+      </c>
+      <c r="W29">
+        <v>2040</v>
+      </c>
+      <c r="X29">
+        <v>2041</v>
+      </c>
+      <c r="Y29">
+        <v>2042</v>
+      </c>
+      <c r="Z29">
+        <v>2043</v>
+      </c>
+      <c r="AA29">
+        <v>2044</v>
+      </c>
+      <c r="AB29">
+        <v>2045</v>
+      </c>
+      <c r="AC29">
+        <v>2046</v>
+      </c>
+      <c r="AD29">
+        <v>2047</v>
+      </c>
+      <c r="AE29">
+        <v>2048</v>
+      </c>
+      <c r="AF29">
+        <v>2049</v>
+      </c>
+      <c r="AG29">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B30">
+        <f>$B$13</f>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:AG30" si="6">$B$13</f>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="6"/>
+        <v>670364225570218.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>570</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="31">
+        <f>'BAU Total Primary Fuel Use'!Y14-'Petroleum Products'!Y30</f>
+        <v>663774429781.5</v>
+      </c>
+      <c r="Z31" s="31">
+        <f>'BAU Total Primary Fuel Use'!Z14-'Petroleum Products'!Z30</f>
+        <v>44874774429781.5</v>
+      </c>
+      <c r="AA31" s="31">
+        <f>'BAU Total Primary Fuel Use'!AA14-'Petroleum Products'!AA30</f>
+        <v>88899774429781.5</v>
+      </c>
+      <c r="AB31" s="31">
+        <f>'BAU Total Primary Fuel Use'!AB14-'Petroleum Products'!AB30</f>
+        <v>132672774429781.5</v>
+      </c>
+      <c r="AC31" s="31">
+        <f>'BAU Total Primary Fuel Use'!AC14-'Petroleum Products'!AC30</f>
+        <v>185451774429781.5</v>
+      </c>
+      <c r="AD31" s="31">
+        <f>'BAU Total Primary Fuel Use'!AD14-'Petroleum Products'!AD30</f>
+        <v>238134774429781.5</v>
+      </c>
+      <c r="AE31" s="31">
+        <f>'BAU Total Primary Fuel Use'!AE14-'Petroleum Products'!AE30</f>
+        <v>290792774429781.5</v>
+      </c>
+      <c r="AF31" s="31">
+        <f>'BAU Total Primary Fuel Use'!AF14-'Petroleum Products'!AF30</f>
+        <v>343285774429781.5</v>
+      </c>
+      <c r="AG31" s="31">
+        <f>'BAU Total Primary Fuel Use'!AG14-'Petroleum Products'!AG30</f>
+        <v>395365774429781.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>571</v>
+      </c>
+      <c r="B32" s="31">
+        <f>B30-'BAU Total Primary Fuel Use'!B14</f>
+        <v>417312225570218.5</v>
+      </c>
+      <c r="C32" s="31">
+        <f>C30-'BAU Total Primary Fuel Use'!C14</f>
+        <v>479955225570218.5</v>
+      </c>
+      <c r="D32" s="31">
+        <f>D30-'BAU Total Primary Fuel Use'!D14</f>
+        <v>482175225570218.5</v>
+      </c>
+      <c r="E32" s="31">
+        <f>E30-'BAU Total Primary Fuel Use'!E14</f>
+        <v>492471225570218.5</v>
+      </c>
+      <c r="F32" s="31">
+        <f>F30-'BAU Total Primary Fuel Use'!F14</f>
+        <v>476330225570218.5</v>
+      </c>
+      <c r="G32" s="31">
+        <f>G30-'BAU Total Primary Fuel Use'!G14</f>
+        <v>462978225570218.5</v>
+      </c>
+      <c r="H32" s="31">
+        <f>H30-'BAU Total Primary Fuel Use'!H14</f>
+        <v>451019225570218.5</v>
+      </c>
+      <c r="I32" s="31">
+        <f>I30-'BAU Total Primary Fuel Use'!I14</f>
+        <v>433034225570218.5</v>
+      </c>
+      <c r="J32" s="31">
+        <f>J30-'BAU Total Primary Fuel Use'!J14</f>
+        <v>415810225570218.5</v>
+      </c>
+      <c r="K32" s="31">
+        <f>K30-'BAU Total Primary Fuel Use'!K14</f>
+        <v>399214225570218.5</v>
+      </c>
+      <c r="L32" s="31">
+        <f>L30-'BAU Total Primary Fuel Use'!L14</f>
+        <v>383130225570218.5</v>
+      </c>
+      <c r="M32" s="31">
+        <f>M30-'BAU Total Primary Fuel Use'!M14</f>
+        <v>367121225570218.5</v>
+      </c>
+      <c r="N32" s="31">
+        <f>N30-'BAU Total Primary Fuel Use'!N14</f>
+        <v>346554225570218.5</v>
+      </c>
+      <c r="O32" s="31">
+        <f>O30-'BAU Total Primary Fuel Use'!O14</f>
+        <v>326227225570218.5</v>
+      </c>
+      <c r="P32" s="31">
+        <f>P30-'BAU Total Primary Fuel Use'!P14</f>
+        <v>306106225570218.5</v>
+      </c>
+      <c r="Q32" s="31">
+        <f>Q30-'BAU Total Primary Fuel Use'!Q14</f>
+        <v>286166225570218.5</v>
+      </c>
+      <c r="R32" s="31">
+        <f>R30-'BAU Total Primary Fuel Use'!R14</f>
+        <v>266254225570218.5</v>
+      </c>
+      <c r="S32" s="31">
+        <f>S30-'BAU Total Primary Fuel Use'!S14</f>
+        <v>229978225570218.5</v>
+      </c>
+      <c r="T32" s="31">
+        <f>T30-'BAU Total Primary Fuel Use'!T14</f>
+        <v>194016225570218.5</v>
+      </c>
+      <c r="U32" s="31">
+        <f>U30-'BAU Total Primary Fuel Use'!U14</f>
+        <v>158523225570218.5</v>
+      </c>
+      <c r="V32" s="31">
+        <f>V30-'BAU Total Primary Fuel Use'!V14</f>
+        <v>123448225570218.5</v>
+      </c>
+      <c r="W32" s="31">
+        <f>W30-'BAU Total Primary Fuel Use'!W14</f>
+        <v>88784225570218.5</v>
+      </c>
+      <c r="X32" s="31">
+        <f>X30-'BAU Total Primary Fuel Use'!X14</f>
+        <v>43903225570218.5</v>
+      </c>
+      <c r="Y32" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
+++ b/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\fuels\BFPIaE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chrome Downloads\Internship\eps-india-3.1.3.4\InputData - Low GDP\fuels\BFPIaE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68F2803-1F94-4261-8891-12524B0ED7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5730" tabRatio="684"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="684" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -38,7 +39,7 @@
     <definedName name="preferences.energyunits">[2]Preferences!$C$3</definedName>
     <definedName name="Preferences.PowerUnits">[2]Preferences!$C$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -46,6 +47,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1837,15 +1839,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="#,##0_);\(#,##0\);&quot;-&quot;_);@"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="#,##0_);\(#,##0\);&quot;-&quot;_);@"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -2348,7 +2350,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
@@ -2416,10 +2418,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2431,7 +2433,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="13" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="13" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="13" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2451,12 +2453,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2480,7 +2482,7 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="8" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="11" fillId="8" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2519,14 +2521,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2542,26 +2544,26 @@
     </xf>
   </cellXfs>
   <cellStyles count="20">
-    <cellStyle name="Body: normal cell" xfId="7"/>
-    <cellStyle name="Body: normal cell 2" xfId="14"/>
+    <cellStyle name="Body: normal cell" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="10"/>
-    <cellStyle name="Footnotes: all except top row" xfId="16"/>
-    <cellStyle name="Footnotes: top row" xfId="8"/>
-    <cellStyle name="Footnotes: top row 2" xfId="15"/>
-    <cellStyle name="Header: bottom row" xfId="4"/>
-    <cellStyle name="Header: bottom row 2" xfId="11"/>
-    <cellStyle name="Header: top rows" xfId="17"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Footnotes: all except top row" xfId="16" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Header: top rows" xfId="17" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Parent row" xfId="6"/>
-    <cellStyle name="Parent row 2" xfId="13"/>
-    <cellStyle name="Section Break" xfId="18"/>
-    <cellStyle name="Section Break: parent row" xfId="19"/>
-    <cellStyle name="Table title" xfId="5"/>
-    <cellStyle name="Table title 2" xfId="12"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Parent row 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Section Break" xfId="18" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Section Break: parent row" xfId="19" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Table title" xfId="5" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Table title 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3025,6 +3027,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3060,6 +3079,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3235,35 +3271,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A111" workbookViewId="0">
       <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="76.265625" customWidth="1"/>
-    <col min="4" max="4" width="78.86328125" customWidth="1"/>
+    <col min="2" max="2" width="76.21875" customWidth="1"/>
+    <col min="4" max="4" width="78.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3274,13 +3310,13 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>247</v>
       </c>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>2018</v>
       </c>
@@ -3288,7 +3324,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>248</v>
       </c>
@@ -3296,7 +3332,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>249</v>
       </c>
@@ -3304,7 +3340,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>284</v>
       </c>
@@ -3312,10 +3348,10 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D11" s="48"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>517</v>
       </c>
@@ -3323,7 +3359,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>441</v>
       </c>
@@ -3331,7 +3367,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>2015</v>
       </c>
@@ -3339,7 +3375,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>440</v>
       </c>
@@ -3347,7 +3383,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>442</v>
       </c>
@@ -3355,7 +3391,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>518</v>
       </c>
@@ -3363,10 +3399,10 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D18" s="16"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>299</v>
       </c>
@@ -3374,7 +3410,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>287</v>
       </c>
@@ -3382,7 +3418,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>2018</v>
       </c>
@@ -3390,7 +3426,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>288</v>
       </c>
@@ -3398,7 +3434,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="48" t="s">
         <v>289</v>
       </c>
@@ -3406,7 +3442,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>286</v>
       </c>
@@ -3414,7 +3450,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>333</v>
       </c>
@@ -3422,7 +3458,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>334</v>
       </c>
@@ -3430,7 +3466,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>2019</v>
       </c>
@@ -3438,7 +3474,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>335</v>
       </c>
@@ -3446,7 +3482,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>312</v>
       </c>
@@ -3454,7 +3490,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="57" t="s">
         <v>309</v>
       </c>
@@ -3462,7 +3498,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>339</v>
       </c>
@@ -3470,7 +3506,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>341</v>
       </c>
@@ -3478,7 +3514,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>2019</v>
       </c>
@@ -3486,7 +3522,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>338</v>
       </c>
@@ -3494,7 +3530,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>340</v>
       </c>
@@ -3502,7 +3538,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>507</v>
       </c>
@@ -3510,7 +3546,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>441</v>
       </c>
@@ -3518,7 +3554,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
         <v>2015</v>
       </c>
@@ -3526,7 +3562,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>440</v>
       </c>
@@ -3534,7 +3570,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>442</v>
       </c>
@@ -3542,7 +3578,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>506</v>
       </c>
@@ -3550,7 +3586,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>519</v>
       </c>
@@ -3558,7 +3594,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>372</v>
       </c>
@@ -3566,7 +3602,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
         <v>2014</v>
       </c>
@@ -3574,7 +3610,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>373</v>
       </c>
@@ -3582,7 +3618,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
         <v>374</v>
       </c>
@@ -3590,7 +3626,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>375</v>
       </c>
@@ -3598,17 +3634,17 @@
         <v>472</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D53" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>377</v>
       </c>
@@ -3616,7 +3652,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="3">
         <v>2016</v>
       </c>
@@ -3624,7 +3660,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>376</v>
       </c>
@@ -3632,7 +3668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>378</v>
       </c>
@@ -3640,17 +3676,17 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>434</v>
       </c>
@@ -3658,7 +3694,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="3">
         <v>2017</v>
       </c>
@@ -3666,7 +3702,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>435</v>
       </c>
@@ -3674,7 +3710,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
         <v>436</v>
       </c>
@@ -3682,7 +3718,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>437</v>
       </c>
@@ -3690,165 +3726,165 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="47" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="16" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="16" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="48" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="16" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="16" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="16"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="4" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B97" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
@@ -3859,7 +3895,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
         <v>532</v>
       </c>
@@ -3867,7 +3903,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>182</v>
       </c>
@@ -3878,7 +3914,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>177</v>
       </c>
@@ -3886,7 +3922,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>178</v>
       </c>
@@ -3894,7 +3930,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>179</v>
       </c>
@@ -3905,7 +3941,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>180</v>
       </c>
@@ -3913,7 +3949,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>181</v>
       </c>
@@ -3921,17 +3957,17 @@
         <v>405</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D110" s="61" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>194</v>
       </c>
@@ -3939,7 +3975,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>191</v>
       </c>
@@ -3947,7 +3983,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>192</v>
       </c>
@@ -3955,7 +3991,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>193</v>
       </c>
@@ -3963,12 +3999,12 @@
         <v>388</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D116" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>187</v>
       </c>
@@ -3976,7 +4012,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>188</v>
       </c>
@@ -3984,12 +4020,12 @@
         <v>391</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>190</v>
       </c>
@@ -3997,7 +4033,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>184</v>
       </c>
@@ -4005,7 +4041,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -4013,7 +4049,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -4021,7 +4057,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -4029,7 +4065,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -4037,7 +4073,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>185</v>
       </c>
@@ -4045,7 +4081,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -4053,7 +4089,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>186</v>
       </c>
@@ -4061,135 +4097,135 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D130" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D131" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D132" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D134" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D135" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D136" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D137" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D139" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D141" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D142" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D143" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D144" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D145" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D146" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D148" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D149" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D151" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D152" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D153" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D155" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D156" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D158" t="s">
         <v>531</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D64" r:id="rId1"/>
-    <hyperlink ref="D10" r:id="rId2"/>
-    <hyperlink ref="D16" r:id="rId3"/>
-    <hyperlink ref="B9" r:id="rId4"/>
-    <hyperlink ref="B23" r:id="rId5"/>
-    <hyperlink ref="B50" r:id="rId6"/>
-    <hyperlink ref="B71" r:id="rId7"/>
-    <hyperlink ref="B78" r:id="rId8"/>
-    <hyperlink ref="B99" r:id="rId9"/>
-    <hyperlink ref="B43" r:id="rId10"/>
-    <hyperlink ref="B86" r:id="rId11"/>
-    <hyperlink ref="B16" r:id="rId12"/>
+    <hyperlink ref="D64" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D16" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B23" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B50" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B71" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B78" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B99" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B43" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B86" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
@@ -4197,22 +4233,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AQ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" customWidth="1"/>
-    <col min="9" max="9" width="18.86328125" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>357</v>
       </c>
@@ -4356,7 +4392,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" s="62"/>
       <c r="B2" s="64">
         <v>2013</v>
@@ -4513,7 +4549,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>231</v>
       </c>
@@ -4672,7 +4708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="I4" t="s">
         <v>363</v>
       </c>
@@ -4813,7 +4849,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>414</v>
       </c>
@@ -4957,7 +4993,7 @@
         <v>222.36</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>342</v>
       </c>
@@ -5116,7 +5152,7 @@
         <v>106.82</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>343</v>
       </c>
@@ -5266,7 +5302,7 @@
         <v>222360000</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>344</v>
       </c>
@@ -5416,7 +5452,7 @@
         <v>106820000</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>356</v>
       </c>
@@ -5567,7 +5603,7 @@
         <v>2817371387933999.5</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" s="53" t="s">
         <v>355</v>
       </c>
@@ -5711,7 +5747,7 @@
         <v>1588548260249999.8</v>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:43" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="53" t="s">
         <v>358</v>
       </c>
@@ -5855,31 +5891,31 @@
         <v>1826053731607589.5</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" s="53" t="s">
         <v>412</v>
       </c>
       <c r="I12" s="76"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" s="53" t="s">
         <v>413</v>
       </c>
       <c r="I13" s="76"/>
     </row>
-    <row r="14" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K14" s="53"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="K15" s="53"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="53"/>
       <c r="J28" s="53" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="53" t="s">
         <v>355</v>
       </c>
@@ -5887,7 +5923,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="53" t="s">
         <v>354</v>
       </c>
@@ -5900,22 +5936,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.265625" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="10.265625" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>429</v>
       </c>
@@ -5947,7 +5983,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>2011</v>
       </c>
@@ -5985,7 +6021,7 @@
         <v>231.942989425446</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>428</v>
       </c>
@@ -6033,7 +6069,7 @@
         <v>6.9976002944891966E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>123</v>
       </c>
@@ -6078,7 +6114,7 @@
         <v>1.3995200588978393E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>104</v>
       </c>
@@ -6095,7 +6131,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
         <v>415</v>
       </c>
@@ -6103,35 +6139,35 @@
         <v>423</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="60" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="60" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="53" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="53" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="53"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>418</v>
       </c>
@@ -6271,7 +6307,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>231</v>
       </c>
@@ -6412,7 +6448,7 @@
         <v>383.38393615751733</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>267</v>
       </c>
@@ -6553,7 +6589,7 @@
         <v>383383936.15751731</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="80" t="s">
         <v>169</v>
       </c>
@@ -6701,27 +6737,27 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AI12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="12" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.3984375" customWidth="1"/>
+    <col min="27" max="27" width="12.44140625" customWidth="1"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>482</v>
       </c>
@@ -6747,7 +6783,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="87" t="s">
         <v>479</v>
       </c>
@@ -6773,7 +6809,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="87" t="s">
         <v>480</v>
       </c>
@@ -6799,7 +6835,7 @@
         <v>1644.0505094400003</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>488</v>
       </c>
@@ -6832,7 +6868,7 @@
         <v>140502600000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>489</v>
       </c>
@@ -6865,17 +6901,17 @@
         <v>652523647196736.13</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="53" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="53" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>449</v>
       </c>
@@ -7015,7 +7051,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>452</v>
       </c>
@@ -7156,7 +7192,7 @@
         <v>140502600000000</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>490</v>
       </c>
@@ -7304,7 +7340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AK85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7315,14 +7351,14 @@
       <selection pane="bottomRight" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.86328125" style="7" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.73046875" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="7"/>
+    <col min="1" max="1" width="20.88671875" style="7" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="18" t="s">
         <v>12</v>
       </c>
@@ -7429,8 +7465,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
@@ -7441,7 +7477,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
@@ -7454,7 +7490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
@@ -7465,7 +7501,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
@@ -7476,7 +7512,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>50</v>
       </c>
@@ -7484,12 +7520,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>21</v>
       </c>
@@ -7599,7 +7635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
         <v>21</v>
       </c>
@@ -7709,17 +7745,17 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>55</v>
       </c>
@@ -7832,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>57</v>
       </c>
@@ -7945,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>59</v>
       </c>
@@ -8058,7 +8094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>61</v>
       </c>
@@ -8171,7 +8207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>63</v>
       </c>
@@ -8284,7 +8320,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>65</v>
       </c>
@@ -8397,7 +8433,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>67</v>
       </c>
@@ -8510,7 +8546,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>69</v>
       </c>
@@ -8623,7 +8659,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>71</v>
       </c>
@@ -8736,7 +8772,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>73</v>
       </c>
@@ -8849,7 +8885,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>75</v>
       </c>
@@ -8962,7 +8998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>77</v>
       </c>
@@ -9075,7 +9111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>79</v>
       </c>
@@ -9188,7 +9224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>81</v>
       </c>
@@ -9301,7 +9337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>83</v>
       </c>
@@ -9414,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>85</v>
       </c>
@@ -9527,7 +9563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>87</v>
       </c>
@@ -9640,7 +9676,7 @@
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>89</v>
       </c>
@@ -9753,7 +9789,7 @@
         <v>-2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>91</v>
       </c>
@@ -9866,7 +9902,7 @@
         <v>-2.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>93</v>
       </c>
@@ -9979,7 +10015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>95</v>
       </c>
@@ -10092,7 +10128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>97</v>
       </c>
@@ -10205,7 +10241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>99</v>
       </c>
@@ -10318,7 +10354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>101</v>
       </c>
@@ -10431,7 +10467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>103</v>
       </c>
@@ -10544,7 +10580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>105</v>
       </c>
@@ -10657,7 +10693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>107</v>
       </c>
@@ -10770,7 +10806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>109</v>
       </c>
@@ -10883,7 +10919,7 @@
         <v>1.9699999999999999E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>111</v>
       </c>
@@ -10996,7 +11032,7 @@
         <v>-4.8299999999999998E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>113</v>
       </c>
@@ -11109,7 +11145,7 @@
         <v>-3.1150000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>115</v>
       </c>
@@ -11222,12 +11258,12 @@
         <v>-1.013E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="25" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>118</v>
       </c>
@@ -11340,7 +11376,7 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>120</v>
       </c>
@@ -11453,7 +11489,7 @@
         <v>-3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>122</v>
       </c>
@@ -11566,7 +11602,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>124</v>
       </c>
@@ -11679,12 +11715,12 @@
         <v>-2.7700000000000001E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="21" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>127</v>
       </c>
@@ -11797,7 +11833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>129</v>
       </c>
@@ -11910,7 +11946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>131</v>
       </c>
@@ -12023,7 +12059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>133</v>
       </c>
@@ -12136,7 +12172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>135</v>
       </c>
@@ -12249,7 +12285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>137</v>
       </c>
@@ -12362,7 +12398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>139</v>
       </c>
@@ -12475,12 +12511,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>142</v>
       </c>
@@ -12593,7 +12629,7 @@
         <v>-1.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>143</v>
       </c>
@@ -12706,7 +12742,7 @@
         <v>-1.0139999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>145</v>
       </c>
@@ -12819,7 +12855,7 @@
         <v>-2.1699999999999999E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>147</v>
       </c>
@@ -12932,7 +12968,7 @@
         <v>2.8499999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>148</v>
       </c>
@@ -13045,7 +13081,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>150</v>
       </c>
@@ -13158,7 +13194,7 @@
         <v>-5.5000000000000002E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>152</v>
       </c>
@@ -13271,7 +13307,7 @@
         <v>-9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>154</v>
       </c>
@@ -13384,7 +13420,7 @@
         <v>2.5799999999999998E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>156</v>
       </c>
@@ -13497,7 +13533,7 @@
         <v>5.7700000000000004E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>157</v>
       </c>
@@ -13610,7 +13646,7 @@
         <v>-1.2830000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>158</v>
       </c>
@@ -13723,7 +13759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>160</v>
       </c>
@@ -13836,7 +13872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>162</v>
       </c>
@@ -13949,8 +13985,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="96" t="s">
         <v>164</v>
       </c>
@@ -13990,37 +14026,37 @@
       <c r="AJ78" s="96"/>
       <c r="AK78" s="96"/>
     </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="11" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="11" t="s">
         <v>26</v>
       </c>
@@ -14035,7 +14071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -14045,13 +14081,13 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.265625" customWidth="1"/>
+    <col min="1" max="1" width="36.21875" customWidth="1"/>
     <col min="2" max="35" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>198</v>
       </c>
@@ -14158,7 +14194,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
@@ -14265,7 +14301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>34</v>
       </c>
@@ -14406,7 +14442,7 @@
         <v>1.7078846857670062E+16</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
@@ -14547,7 +14583,7 @@
         <v>4185211567.4053259</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>35</v>
       </c>
@@ -14688,7 +14724,7 @@
         <v>140502600000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>36</v>
       </c>
@@ -14795,7 +14831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
@@ -14902,7 +14938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>38</v>
       </c>
@@ -15009,7 +15045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>28</v>
       </c>
@@ -15150,7 +15186,7 @@
         <v>4857595486255192</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>29</v>
       </c>
@@ -15291,7 +15327,7 @@
         <v>1668106715464803.3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>39</v>
       </c>
@@ -15432,7 +15468,7 @@
         <v>4801883515538662</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>40</v>
       </c>
@@ -15573,7 +15609,7 @@
         <v>782993152491217.38</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>41</v>
       </c>
@@ -15714,7 +15750,7 @@
         <v>195748288122804.34</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>30</v>
       </c>
@@ -15855,7 +15891,7 @@
         <v>670364225570218.5</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>49</v>
       </c>
@@ -15962,7 +15998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>43</v>
       </c>
@@ -16069,7 +16105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>44</v>
       </c>
@@ -16210,7 +16246,7 @@
         <v>1013351831414501.4</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>31</v>
       </c>
@@ -16351,7 +16387,7 @@
         <v>2140824427537546.8</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>45</v>
       </c>
@@ -16492,7 +16528,7 @@
         <v>401963368680000</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>32</v>
       </c>
@@ -16633,7 +16669,7 @@
         <v>554773438980000</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
@@ -16774,7 +16810,7 @@
         <v>1826053731607589.5</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
@@ -16881,7 +16917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
     </row>
   </sheetData>
@@ -16891,7 +16927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -16901,14 +16937,14 @@
       <selection activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.265625" customWidth="1"/>
+    <col min="1" max="1" width="36.21875" customWidth="1"/>
     <col min="2" max="2" width="12" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="35" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>198</v>
       </c>
@@ -17015,7 +17051,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
@@ -17155,7 +17191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>34</v>
       </c>
@@ -17165,7 +17201,7 @@
       </c>
       <c r="C3" s="12">
         <f>'Coal &amp; Lignite'!H15</f>
-        <v>3958374171740037</v>
+        <v>3816293137197443.5</v>
       </c>
       <c r="D3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!B3-('Coal &amp; Lignite'!I14-'BFPIaE-exports'!D3)&gt;0,'BAU Total Primary Fuel Use'!B3-('Coal &amp; Lignite'!I14-'BFPIaE-exports'!D3),0)</f>
@@ -17296,7 +17332,7 @@
         <v>1.5612810298214286E+16</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
@@ -17306,138 +17342,138 @@
       </c>
       <c r="C4" s="12">
         <f>'Natural Gas'!C15</f>
-        <v>993855703.87776399</v>
+        <v>978485825.88333893</v>
       </c>
       <c r="D4" s="12">
         <f>'Natural Gas'!D15</f>
-        <v>1045715247.7432708</v>
+        <v>1013621583.0460061</v>
       </c>
       <c r="E4" s="12">
         <f>'Natural Gas'!E15</f>
-        <v>1100280830.6036186</v>
+        <v>1050019005.323014</v>
       </c>
       <c r="F4" s="12">
         <f>'Natural Gas'!F15</f>
-        <v>1157693653.9907875</v>
+        <v>1087723396.9568009</v>
       </c>
       <c r="G4" s="12">
         <f>'Natural Gas'!G15</f>
-        <v>1218102287.3544676</v>
+        <v>1126781688.9878826</v>
       </c>
       <c r="H4" s="12">
         <f>'Natural Gas'!H15</f>
-        <v>1247755023.3735068</v>
+        <v>1138906138.2336495</v>
       </c>
       <c r="I4" s="12">
         <f>'Natural Gas'!I15</f>
-        <v>1278129607.4364607</v>
+        <v>1151161049.5475791</v>
       </c>
       <c r="J4" s="12">
         <f>'Natural Gas'!J15</f>
-        <v>1309243611.7699921</v>
+        <v>1163547826.7337439</v>
       </c>
       <c r="K4" s="12">
         <f>'Natural Gas'!K15</f>
-        <v>1341115036.3682873</v>
+        <v>1176067888.7014952</v>
       </c>
       <c r="L4" s="12">
         <f>'Natural Gas'!L15</f>
-        <v>1373762319.4063666</v>
+        <v>1188722669.6279988</v>
       </c>
       <c r="M4" s="12">
         <f>'Natural Gas'!M15</f>
-        <v>1412029317.9276049</v>
+        <v>1205496447.1504569</v>
       </c>
       <c r="N4" s="12">
         <f>'Natural Gas'!N15</f>
-        <v>1451362267.3452525</v>
+        <v>1222506915.3826673</v>
       </c>
       <c r="O4" s="12">
         <f>'Natural Gas'!O15</f>
-        <v>1491790860.3803866</v>
+        <v>1239757414.2098768</v>
       </c>
       <c r="P4" s="12">
         <f>'Natural Gas'!P15</f>
-        <v>1533345616.863183</v>
+        <v>1257251330.6456439</v>
       </c>
       <c r="Q4" s="12">
         <f>'Natural Gas'!Q15</f>
-        <v>1576057906.7725513</v>
+        <v>1274992099.4968545</v>
       </c>
       <c r="R4" s="12">
         <f>'Natural Gas'!R15</f>
-        <v>1605166392.5616479</v>
+        <v>1274379003.3355594</v>
       </c>
       <c r="S4" s="12">
         <f>'Natural Gas'!S15</f>
-        <v>1634812488.0041039</v>
+        <v>1273766201.9893482</v>
       </c>
       <c r="T4" s="12">
         <f>'Natural Gas'!T15</f>
-        <v>1665006122.3054943</v>
+        <v>1273153695.3164556</v>
       </c>
       <c r="U4" s="12">
         <f>'Natural Gas'!U15</f>
-        <v>1695757408.0556078</v>
+        <v>1272541483.175184</v>
       </c>
       <c r="V4" s="12">
         <f>'Natural Gas'!V15</f>
-        <v>1727076644.615401</v>
+        <v>1271929565.4239042</v>
       </c>
       <c r="W4" s="12">
         <f>'Natural Gas'!W15</f>
-        <v>1751421992.9585621</v>
+        <v>1260606340.2859473</v>
       </c>
       <c r="X4" s="12">
         <f>'Natural Gas'!X15</f>
-        <v>1776110520.0412412</v>
+        <v>1249383919.0218921</v>
       </c>
       <c r="Y4" s="12">
         <f>'Natural Gas'!Y15</f>
-        <v>1801147063.4055259</v>
+        <v>1238261404.2353811</v>
       </c>
       <c r="Z4" s="12">
         <f>'Natural Gas'!Z15</f>
-        <v>1826536528.784831</v>
+        <v>1227237906.5190377</v>
       </c>
       <c r="AA4" s="12">
         <f>'Natural Gas'!AA15</f>
-        <v>1852283891.065141</v>
+        <v>1216312544.3833454</v>
       </c>
       <c r="AB4" s="12">
         <f>'Natural Gas'!AB15</f>
-        <v>1835922871.4717398</v>
+        <v>1167620883.0635505</v>
       </c>
       <c r="AC4" s="12">
         <f>'Natural Gas'!AC15</f>
-        <v>1819706366.962353</v>
+        <v>1120878455.8390791</v>
       </c>
       <c r="AD4" s="12">
         <f>'Natural Gas'!AD15</f>
-        <v>1803633101.0511608</v>
+        <v>1076007230.5899463</v>
       </c>
       <c r="AE4" s="12">
         <f>'Natural Gas'!AE15</f>
-        <v>1787701808.5274019</v>
+        <v>1032932298.9932337</v>
       </c>
       <c r="AF4" s="12">
         <f>'Natural Gas'!AF15</f>
-        <v>1771911235.3557827</v>
+        <v>991581751.47063565</v>
       </c>
       <c r="AG4" s="12">
         <f>'Natural Gas'!AG15</f>
-        <v>1771911235.3557827</v>
+        <v>991581751.47063565</v>
       </c>
       <c r="AH4" s="12">
         <f>'Natural Gas'!AH15</f>
-        <v>1771911235.3557827</v>
+        <v>991581751.47063565</v>
       </c>
       <c r="AI4" s="12">
         <f>'Natural Gas'!AI15</f>
-        <v>1771911235.3557827</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+        <v>991581751.47063565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>35</v>
       </c>
@@ -17578,7 +17614,7 @@
         <v>652523647196736.13</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>36</v>
       </c>
@@ -17718,7 +17754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
@@ -17858,7 +17894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>38</v>
       </c>
@@ -17998,7 +18034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>28</v>
       </c>
@@ -18138,7 +18174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>29</v>
       </c>
@@ -18279,7 +18315,7 @@
         <v>1060257404574062.8</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>39</v>
       </c>
@@ -18420,7 +18456,7 @@
         <v>1.2618610751802188E+16</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>40</v>
       </c>
@@ -18560,7 +18596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>41</v>
       </c>
@@ -18700,7 +18736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>30</v>
       </c>
@@ -18841,7 +18877,7 @@
         <v>395365774429781.5</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>42</v>
       </c>
@@ -18981,7 +19017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>43</v>
       </c>
@@ -19121,7 +19157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>44</v>
       </c>
@@ -19131,7 +19167,7 @@
       </c>
       <c r="C17" s="12">
         <f>'Coal &amp; Lignite'!H19</f>
-        <v>152248395533.52368</v>
+        <v>146783624239.46884</v>
       </c>
       <c r="D17" s="12">
         <f>IF('BAU Total Primary Fuel Use'!B17-('Coal &amp; Lignite'!I18-'BFPIaE-exports'!D17)&gt;0,'BAU Total Primary Fuel Use'!B17-('Coal &amp; Lignite'!I18-'BFPIaE-exports'!D17),0)</f>
@@ -19262,7 +19298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>31</v>
       </c>
@@ -19272,138 +19308,138 @@
       </c>
       <c r="C18" s="12">
         <f>'Crude Oil'!C15</f>
-        <v>1.060960493647856E+16</v>
+        <v>1.0419624093350048E+16</v>
       </c>
       <c r="D18" s="12">
         <f>'Crude Oil'!D15</f>
-        <v>1.1357638569503076E+16</v>
+        <v>1.0954529304017006E+16</v>
       </c>
       <c r="E18" s="12">
         <f>'Crude Oil'!E15</f>
-        <v>1.215841255614924E+16</v>
+        <v>1.1516894582517052E+16</v>
       </c>
       <c r="F18" s="12">
         <f>'Crude Oil'!F15</f>
-        <v>1.3015645372134366E+16</v>
+        <v>1.2108129627821816E+16</v>
       </c>
       <c r="G18" s="12">
         <f>'Crude Oil'!G15</f>
-        <v>1.3933317665510818E+16</v>
+        <v>1.272971650766774E+16</v>
       </c>
       <c r="H18" s="12">
         <f>'Crude Oil'!H15</f>
-        <v>1.4776595965661498E+16</v>
+        <v>1.3279419520009808E+16</v>
       </c>
       <c r="I18" s="12">
         <f>'Crude Oil'!I15</f>
-        <v>1.5670911521157706E+16</v>
+        <v>1.3852860170310736E+16</v>
       </c>
       <c r="J18" s="12">
         <f>'Crude Oil'!J15</f>
-        <v>1.6619353230922536E+16</v>
+        <v>1.445106351290571E+16</v>
       </c>
       <c r="K18" s="12">
         <f>'Crude Oil'!K15</f>
-        <v>1.7625196941560584E+16</v>
+        <v>1.5075098866702148E+16</v>
       </c>
       <c r="L18" s="12">
         <f>'Crude Oil'!L15</f>
-        <v>1.8691916761886684E+16</v>
+        <v>1.5726081726641652E+16</v>
       </c>
       <c r="M18" s="12">
         <f>'Crude Oil'!M15</f>
-        <v>1.96032838091212E+16</v>
+        <v>1.6330171161773342E+16</v>
       </c>
       <c r="N18" s="12">
         <f>'Crude Oil'!N15</f>
-        <v>2.0559086636022708E+16</v>
+        <v>1.6957465617200678E+16</v>
       </c>
       <c r="O18" s="12">
         <f>'Crude Oil'!O15</f>
-        <v>2.1561491810408868E+16</v>
+        <v>1.7608856472470472E+16</v>
       </c>
       <c r="P18" s="12">
         <f>'Crude Oil'!P15</f>
-        <v>2.26127715360543E+16</v>
+        <v>1.828526934788806E+16</v>
       </c>
       <c r="Q18" s="12">
         <f>'Crude Oil'!Q15</f>
-        <v>2.371530880321268E+16</v>
+        <v>1.8987665419815088E+16</v>
       </c>
       <c r="R18" s="12">
         <f>'Crude Oil'!R15</f>
-        <v>2.4545371827070744E+16</v>
+        <v>1.9449462897290252E+16</v>
       </c>
       <c r="S18" s="12">
         <f>'Crude Oil'!S15</f>
-        <v>2.5404488009346168E+16</v>
+        <v>1.9922491713926252E+16</v>
       </c>
       <c r="T18" s="12">
         <f>'Crude Oil'!T15</f>
-        <v>2.6293674243925036E+16</v>
+        <v>2.040702502621592E+16</v>
       </c>
       <c r="U18" s="12">
         <f>'Crude Oil'!U15</f>
-        <v>2.7213983017146432E+16</v>
+        <v>2.0903342634069092E+16</v>
       </c>
       <c r="V18" s="12">
         <f>'Crude Oil'!V15</f>
-        <v>2.8166503653579148E+16</v>
+        <v>2.1411731142386624E+16</v>
       </c>
       <c r="W18" s="12">
         <f>'Crude Oil'!W15</f>
-        <v>2.8938263262377876E+16</v>
+        <v>2.1851849426113728E+16</v>
       </c>
       <c r="X18" s="12">
         <f>'Crude Oil'!X15</f>
-        <v>2.9731169013456052E+16</v>
+        <v>2.2301014344248052E+16</v>
       </c>
       <c r="Y18" s="12">
         <f>'Crude Oil'!Y15</f>
-        <v>3.0545800309166692E+16</v>
+        <v>2.2759411850423256E+16</v>
       </c>
       <c r="Z18" s="12">
         <f>'Crude Oil'!Z15</f>
-        <v>3.1382752427433984E+16</v>
+        <v>2.322723172055124E+16</v>
       </c>
       <c r="AA18" s="12">
         <f>'Crude Oil'!AA15</f>
-        <v>3.2242636956742472E+16</v>
+        <v>2.37046676313891E+16</v>
       </c>
       <c r="AB18" s="12">
         <f>'Crude Oil'!AB15</f>
-        <v>3.2798117427633892E+16</v>
+        <v>2.4030922131765232E+16</v>
       </c>
       <c r="AC18" s="12">
         <f>'Crude Oil'!AC15</f>
-        <v>3.33631677905275E+16</v>
+        <v>2.4361666971372056E+16</v>
       </c>
       <c r="AD18" s="12">
         <f>'Crude Oil'!AD15</f>
-        <v>3.393795291680534E+16</v>
+        <v>2.4696963952104664E+16</v>
       </c>
       <c r="AE18" s="12">
         <f>'Crude Oil'!AE15</f>
-        <v>3.4522640518275716E+16</v>
+        <v>2.50368757264563E+16</v>
       </c>
       <c r="AF18" s="12">
         <f>'Crude Oil'!AF15</f>
-        <v>3.5117401196108456E+16</v>
+        <v>2.5381465809225396E+16</v>
       </c>
       <c r="AG18" s="12">
         <f>'Crude Oil'!AG15</f>
-        <v>3.5117401196108456E+16</v>
+        <v>2.5381465809225396E+16</v>
       </c>
       <c r="AH18" s="12">
         <f>'Crude Oil'!AH15</f>
-        <v>3.5117401196108456E+16</v>
+        <v>2.5381465809225396E+16</v>
       </c>
       <c r="AI18" s="12">
         <f>'Crude Oil'!AI15</f>
-        <v>3.5117401196108456E+16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
+        <v>2.5381465809225396E+16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>45</v>
       </c>
@@ -19544,7 +19580,7 @@
         <v>563509586280000</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>32</v>
       </c>
@@ -19685,7 +19721,7 @@
         <v>7780824094509000</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
@@ -19825,7 +19861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
@@ -19965,7 +20001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
     </row>
   </sheetData>
@@ -19975,7 +20011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -19985,14 +20021,14 @@
       <selection activeCell="AE27" sqref="AE27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.265625" customWidth="1"/>
+    <col min="1" max="1" width="36.21875" customWidth="1"/>
     <col min="2" max="2" width="12" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="35" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>198</v>
       </c>
@@ -20099,7 +20135,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
@@ -20206,7 +20242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>34</v>
       </c>
@@ -20347,7 +20383,7 @@
         <v>15057155884348.047</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
@@ -20488,7 +20524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>35</v>
       </c>
@@ -20628,7 +20664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>36</v>
       </c>
@@ -20735,7 +20771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
@@ -20842,7 +20878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>38</v>
       </c>
@@ -20949,7 +20985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>28</v>
       </c>
@@ -21089,7 +21125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>29</v>
       </c>
@@ -21230,7 +21266,7 @@
         <v>619624120038866</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>39</v>
       </c>
@@ -21371,7 +21407,7 @@
         <v>1313794267340850.5</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>40</v>
       </c>
@@ -21478,7 +21514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>41</v>
       </c>
@@ -21618,7 +21654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>30</v>
       </c>
@@ -21759,7 +21795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>42</v>
       </c>
@@ -21866,7 +21902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>43</v>
       </c>
@@ -21973,7 +22009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>44</v>
       </c>
@@ -22114,7 +22150,7 @@
         <v>58666666666.666664</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>31</v>
       </c>
@@ -22255,7 +22291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>45</v>
       </c>
@@ -22396,7 +22432,7 @@
         <v>105596954960000</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>32</v>
       </c>
@@ -22537,7 +22573,7 @@
         <v>16087533489000</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
@@ -22644,7 +22680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
@@ -22751,7 +22787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
     </row>
   </sheetData>
@@ -22761,7 +22797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -22771,18 +22807,18 @@
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="21.265625" customWidth="1"/>
-    <col min="3" max="3" width="26.59765625" customWidth="1"/>
-    <col min="6" max="6" width="21.1328125" customWidth="1"/>
-    <col min="7" max="7" width="11.73046875" customWidth="1"/>
-    <col min="8" max="8" width="26.73046875" customWidth="1"/>
-    <col min="9" max="9" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="26.77734375" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>199</v>
       </c>
@@ -22795,7 +22831,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>200</v>
       </c>
@@ -22816,7 +22852,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>202</v>
       </c>
@@ -22837,7 +22873,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="38">
         <v>2010</v>
       </c>
@@ -22860,7 +22896,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
         <v>2011</v>
       </c>
@@ -22883,7 +22919,7 @@
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="38">
         <v>2012</v>
       </c>
@@ -22906,7 +22942,7 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="38">
         <v>2013</v>
       </c>
@@ -22929,7 +22965,7 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="38">
         <v>2014</v>
       </c>
@@ -22952,7 +22988,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="38">
         <v>2015</v>
       </c>
@@ -22975,7 +23011,7 @@
         <v>7.37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="38">
         <v>2016</v>
       </c>
@@ -22998,7 +23034,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>2017</v>
       </c>
@@ -23021,7 +23057,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>2018</v>
       </c>
@@ -23035,7 +23071,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>205</v>
       </c>
@@ -23044,7 +23080,7 @@
       </c>
       <c r="C13" s="38"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>2010</v>
       </c>
@@ -23053,7 +23089,7 @@
       </c>
       <c r="C14" s="38"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>2011</v>
       </c>
@@ -23062,7 +23098,7 @@
       </c>
       <c r="C15" s="38"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>2012</v>
       </c>
@@ -23071,7 +23107,7 @@
       </c>
       <c r="C16" s="38"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>2013</v>
       </c>
@@ -23080,7 +23116,7 @@
       </c>
       <c r="C17" s="38"/>
     </row>
-    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
         <v>2014</v>
       </c>
@@ -23089,7 +23125,7 @@
       </c>
       <c r="C18" s="38"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>2015</v>
       </c>
@@ -23098,7 +23134,7 @@
       </c>
       <c r="C19" s="38"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>2016</v>
       </c>
@@ -23107,7 +23143,7 @@
       </c>
       <c r="C20" s="38"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="38">
         <v>2017</v>
       </c>
@@ -23116,7 +23152,7 @@
       </c>
       <c r="C21" s="38"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="38">
         <v>2018</v>
       </c>
@@ -23125,14 +23161,14 @@
       </c>
       <c r="C22" s="38"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>206</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="38" t="s">
         <v>207</v>
       </c>
@@ -23141,7 +23177,7 @@
       </c>
       <c r="C24" s="38"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
         <v>208</v>
       </c>
@@ -23150,7 +23186,7 @@
       </c>
       <c r="C25" s="38"/>
     </row>
-    <row r="26" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
         <v>209</v>
       </c>
@@ -23159,14 +23195,14 @@
       </c>
       <c r="C26" s="38"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>211</v>
       </c>
@@ -23178,7 +23214,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>213</v>
       </c>
@@ -23190,7 +23226,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>214</v>
       </c>
@@ -23202,7 +23238,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" s="43">
         <v>3.9656699999999998</v>
       </c>
@@ -23210,7 +23246,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" s="15">
         <f>B31*B32</f>
         <v>12670.315649999999</v>
@@ -23219,7 +23255,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" s="31">
         <f>B33*1000</f>
         <v>12670315.649999999</v>
@@ -23228,14 +23264,14 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>475</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>5670000</v>
       </c>
@@ -23243,7 +23279,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B38" s="15">
         <f>B37/B24</f>
         <v>35663.225930624649</v>
@@ -23252,14 +23288,14 @@
         <v>218</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>10700</v>
       </c>
@@ -23267,7 +23303,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>8.5299999999999994</v>
       </c>
@@ -23275,7 +23311,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B43" s="31">
         <f>B41*1000/B42</f>
         <v>1254396.248534584</v>
@@ -23284,7 +23320,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B44" s="31">
         <f>B43*B25</f>
         <v>4974521.5709261429</v>
@@ -23293,7 +23329,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B45" s="31">
         <f>B44/B24</f>
         <v>31288.798356385338</v>
@@ -23302,14 +23338,14 @@
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>5.8170000000000002</v>
       </c>
@@ -23317,7 +23353,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B49">
         <f>B48/B24</f>
         <v>3.6587828084381581E-2</v>
@@ -23326,7 +23362,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B50" s="31">
         <f>B49*10^6</f>
         <v>36587.828084381581</v>
@@ -23335,17 +23371,17 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B51" s="31"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B52" s="44"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="38"/>
       <c r="B53" s="38">
         <v>11300</v>
@@ -23354,7 +23390,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="38"/>
       <c r="B54" s="38">
         <f>B53*1000</f>
@@ -23364,7 +23400,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="38"/>
       <c r="B55" s="45">
         <f>B54*B25</f>
@@ -23374,14 +23410,14 @@
         <v>216</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="38"/>
       <c r="B58" s="38">
         <v>36</v>
@@ -23390,7 +23426,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="38"/>
       <c r="B59" s="38">
         <f>B58*10^6</f>
@@ -23400,14 +23436,14 @@
         <v>229</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B62" s="17">
         <f>'Heat content of coal'!B9</f>
         <v>3616.0720537220332</v>
@@ -23416,7 +23452,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B63">
         <f>B25*B62</f>
         <v>14340.148461283854</v>
@@ -23425,7 +23461,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B64">
         <f>B63*1000</f>
         <v>14340148.461283853</v>
@@ -23434,14 +23470,14 @@
         <v>216</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>5.8</v>
       </c>
@@ -23449,7 +23485,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B68">
         <f>B67*10^6</f>
         <v>5800000</v>
@@ -23458,14 +23494,14 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>12.93</v>
       </c>
@@ -23473,7 +23509,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>3.2589999999999999</v>
       </c>
@@ -23481,7 +23517,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>6.2899999999999996E-3</v>
       </c>
@@ -23489,14 +23525,14 @@
         <v>331</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>366</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>3750</v>
       </c>
@@ -23504,7 +23540,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B77" s="43">
         <v>3.9656699999999998</v>
       </c>
@@ -23512,7 +23548,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B78">
         <f>B76*B77</f>
         <v>14871.262499999999</v>
@@ -23521,7 +23557,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B79">
         <f>B78*1000</f>
         <v>14871262.499999998</v>
@@ -23530,14 +23566,14 @@
         <v>216</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B82" s="43">
         <f>1/3</f>
         <v>0.33333333333333331</v>
@@ -23546,7 +23582,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>40</v>
       </c>
@@ -23554,7 +23590,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B84" s="17">
         <f>B82*B83</f>
         <v>13.333333333333332</v>
@@ -23563,7 +23599,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B85">
         <f>B84*10^6</f>
         <v>13333333.333333332</v>
@@ -23572,14 +23608,14 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>483</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B88" s="88">
         <v>1000</v>
       </c>
@@ -23587,7 +23623,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B89" s="88">
         <v>2.2050000000000001</v>
       </c>
@@ -23595,7 +23631,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B90" s="88">
         <f>B88*B89</f>
         <v>2205</v>
@@ -23604,7 +23640,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>180000000</v>
       </c>
@@ -23612,7 +23648,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B92">
         <f>B91*B90</f>
         <v>396900000000</v>
@@ -23627,21 +23663,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.06640625" customWidth="1"/>
-    <col min="2" max="2" width="22.9296875" customWidth="1"/>
-    <col min="3" max="3" width="20.73046875" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="93"/>
       <c r="B1" s="95" t="s">
         <v>559</v>
@@ -23651,7 +23687,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="93"/>
       <c r="B2" s="93" t="s">
         <v>561</v>
@@ -23660,7 +23696,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="93" t="s">
         <v>563</v>
       </c>
@@ -23671,12 +23707,12 @@
         <v>14262</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>565</v>
       </c>
@@ -23685,7 +23721,7 @@
         <v>239000000000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>566</v>
       </c>
@@ -23694,7 +23730,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="85" t="s">
         <v>567</v>
       </c>
@@ -23708,7 +23744,7 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1"/>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -23717,19 +23753,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="65.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>198</v>
       </c>
@@ -23830,7 +23866,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -23931,7 +23967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="85" t="s">
         <v>534</v>
       </c>
@@ -24032,7 +24068,7 @@
         <v>3.26766E+16</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>535</v>
       </c>
@@ -24133,7 +24169,7 @@
         <v>9179250000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>536</v>
       </c>
@@ -24234,7 +24270,7 @@
         <v>1159740000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>537</v>
       </c>
@@ -24335,7 +24371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>538</v>
       </c>
@@ -24436,7 +24472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>539</v>
       </c>
@@ -24537,7 +24573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>540</v>
       </c>
@@ -24638,7 +24674,7 @@
         <v>7468660000000000</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="85" t="s">
         <v>541</v>
       </c>
@@ -24739,7 +24775,7 @@
         <v>2108740000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="85" t="s">
         <v>542</v>
       </c>
@@ -24840,7 +24876,7 @@
         <v>1.61067E+16</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>543</v>
       </c>
@@ -24941,7 +24977,7 @@
         <v>155557000000000</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>544</v>
       </c>
@@ -25042,7 +25078,7 @@
         <v>742314000000000</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="85" t="s">
         <v>545</v>
       </c>
@@ -25143,7 +25179,7 @@
         <v>1065730000000000</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>546</v>
       </c>
@@ -25244,7 +25280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -25345,7 +25381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="85" t="s">
         <v>548</v>
       </c>
@@ -25446,7 +25482,7 @@
         <v>2775440000000</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>549</v>
       </c>
@@ -25547,7 +25583,7 @@
         <v>4.19429E+16</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="85" t="s">
         <v>550</v>
       </c>
@@ -25648,7 +25684,7 @@
         <v>859876000000000</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="85" t="s">
         <v>551</v>
       </c>
@@ -25749,7 +25785,7 @@
         <v>8319510000000000</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>552</v>
       </c>
@@ -25850,7 +25886,7 @@
         <v>94335000000</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>553</v>
       </c>
@@ -25957,20 +25993,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.86328125" customWidth="1"/>
-    <col min="2" max="2" width="14.86328125" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" customWidth="1"/>
-    <col min="6" max="6" width="11.86328125" customWidth="1"/>
-    <col min="8" max="8" width="9.86328125" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
@@ -25978,7 +26014,7 @@
     <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
         <v>270</v>
       </c>
@@ -25992,7 +26028,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
         <v>187</v>
       </c>
@@ -26027,7 +26063,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>231</v>
       </c>
@@ -26062,7 +26098,7 @@
         <v>681.48955457326065</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>267</v>
       </c>
@@ -26105,7 +26141,7 @@
         <v>6.1440264772157069E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>268</v>
       </c>
@@ -26148,7 +26184,7 @@
         <v>1.2288052954431413E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>269</v>
       </c>
@@ -26167,7 +26203,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -26183,57 +26219,57 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1937.2733773918817</v>
+        <v>1806.6116992426014</v>
       </c>
       <c r="H7">
-        <v>2620.2138126523832</v>
+        <v>2270.3357275372027</v>
       </c>
       <c r="I7">
-        <v>3413.1224016218976</v>
+        <v>2760.5313998851602</v>
       </c>
       <c r="J7">
-        <v>4245.1952501803535</v>
+        <v>3290.7358980580298</v>
       </c>
       <c r="K7">
-        <v>4988.1287779434906</v>
+        <v>3690.9045083533988</v>
       </c>
       <c r="L7">
-        <v>5671.5001259904775</v>
+        <v>4070.2373485648559</v>
       </c>
       <c r="M7">
-        <v>6160.0469475287728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+        <v>4350.3368785852408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>447</v>
       </c>
       <c r="H8" s="84">
         <f>(H7-G7)/G7</f>
-        <v>0.35252661974838712</v>
+        <v>0.25668162587954657</v>
       </c>
       <c r="I8" s="84">
         <f t="shared" ref="I8:M8" si="2">(I7-H7)/H7</f>
-        <v>0.30261217048042</v>
+        <v>0.21591329705219772</v>
       </c>
       <c r="J8" s="84">
         <f t="shared" si="2"/>
-        <v>0.24378640747342062</v>
+        <v>0.19206609937308677</v>
       </c>
       <c r="K8" s="84">
         <f t="shared" si="2"/>
-        <v>0.1750057380120677</v>
+        <v>0.12160459626417347</v>
       </c>
       <c r="L8" s="84">
         <f t="shared" si="2"/>
-        <v>0.13699954000159709</v>
+        <v>0.10277503504979234</v>
       </c>
       <c r="M8" s="84">
         <f t="shared" si="2"/>
-        <v>8.6140670137598713E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+        <v>6.8816510201584816E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="53" t="s">
         <v>272</v>
       </c>
@@ -26242,30 +26278,30 @@
       </c>
       <c r="H9" s="84">
         <f>H8/5</f>
-        <v>7.0505323949677429E-2</v>
+        <v>5.1336325175909317E-2</v>
       </c>
       <c r="I9" s="84">
         <f t="shared" ref="I9:M9" si="3">I8/5</f>
-        <v>6.0522434096084002E-2</v>
+        <v>4.3182659410439542E-2</v>
       </c>
       <c r="J9" s="84">
         <f t="shared" si="3"/>
-        <v>4.8757281494684127E-2</v>
+        <v>3.8413219874617356E-2</v>
       </c>
       <c r="K9" s="84">
         <f t="shared" si="3"/>
-        <v>3.5001147602413539E-2</v>
+        <v>2.4320919252834694E-2</v>
       </c>
       <c r="L9" s="84">
         <f t="shared" si="3"/>
-        <v>2.7399908000319419E-2</v>
+        <v>2.0555007009958468E-2</v>
       </c>
       <c r="M9" s="84">
         <f t="shared" si="3"/>
-        <v>1.7228134027519743E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+        <v>1.3763302040316963E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="53" t="s">
         <v>273</v>
       </c>
@@ -26273,7 +26309,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="53" t="s">
         <v>275</v>
       </c>
@@ -26281,7 +26317,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="51" t="s">
         <v>449</v>
       </c>
@@ -26421,7 +26457,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>452</v>
       </c>
@@ -26562,7 +26598,7 @@
         <v>2140824427537546.8</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>461</v>
       </c>
@@ -26572,138 +26608,138 @@
       </c>
       <c r="C15">
         <f>B15*(1+$H$9)</f>
-        <v>1.060960493647856E+16</v>
+        <v>1.0419624093350048E+16</v>
       </c>
       <c r="D15">
         <f t="shared" ref="D15:G15" si="12">C15*(1+$H$9)</f>
-        <v>1.1357638569503076E+16</v>
+        <v>1.0954529304017006E+16</v>
       </c>
       <c r="E15">
         <f t="shared" si="12"/>
-        <v>1.215841255614924E+16</v>
+        <v>1.1516894582517052E+16</v>
       </c>
       <c r="F15">
         <f t="shared" si="12"/>
-        <v>1.3015645372134366E+16</v>
+        <v>1.2108129627821816E+16</v>
       </c>
       <c r="G15">
         <f t="shared" si="12"/>
-        <v>1.3933317665510818E+16</v>
+        <v>1.272971650766774E+16</v>
       </c>
       <c r="H15">
         <f>G15*(1+$I$9)</f>
-        <v>1.4776595965661498E+16</v>
+        <v>1.3279419520009808E+16</v>
       </c>
       <c r="I15">
         <f t="shared" ref="I15:L15" si="13">H15*(1+$I$9)</f>
-        <v>1.5670911521157706E+16</v>
+        <v>1.3852860170310736E+16</v>
       </c>
       <c r="J15">
         <f t="shared" si="13"/>
-        <v>1.6619353230922536E+16</v>
+        <v>1.445106351290571E+16</v>
       </c>
       <c r="K15">
         <f t="shared" si="13"/>
-        <v>1.7625196941560584E+16</v>
+        <v>1.5075098866702148E+16</v>
       </c>
       <c r="L15">
         <f t="shared" si="13"/>
-        <v>1.8691916761886684E+16</v>
+        <v>1.5726081726641652E+16</v>
       </c>
       <c r="M15">
         <f>L15*(1+$J$9)</f>
-        <v>1.96032838091212E+16</v>
+        <v>1.6330171161773342E+16</v>
       </c>
       <c r="N15">
         <f t="shared" ref="N15:Q15" si="14">M15*(1+$J$9)</f>
-        <v>2.0559086636022708E+16</v>
+        <v>1.6957465617200678E+16</v>
       </c>
       <c r="O15">
         <f t="shared" si="14"/>
-        <v>2.1561491810408868E+16</v>
+        <v>1.7608856472470472E+16</v>
       </c>
       <c r="P15">
         <f t="shared" si="14"/>
-        <v>2.26127715360543E+16</v>
+        <v>1.828526934788806E+16</v>
       </c>
       <c r="Q15">
         <f t="shared" si="14"/>
-        <v>2.371530880321268E+16</v>
+        <v>1.8987665419815088E+16</v>
       </c>
       <c r="R15">
         <f>Q15*(1+$K$9)</f>
-        <v>2.4545371827070744E+16</v>
+        <v>1.9449462897290252E+16</v>
       </c>
       <c r="S15">
         <f t="shared" ref="S15:V15" si="15">R15*(1+$K$9)</f>
-        <v>2.5404488009346168E+16</v>
+        <v>1.9922491713926252E+16</v>
       </c>
       <c r="T15">
         <f t="shared" si="15"/>
-        <v>2.6293674243925036E+16</v>
+        <v>2.040702502621592E+16</v>
       </c>
       <c r="U15">
         <f t="shared" si="15"/>
-        <v>2.7213983017146432E+16</v>
+        <v>2.0903342634069092E+16</v>
       </c>
       <c r="V15">
         <f t="shared" si="15"/>
-        <v>2.8166503653579148E+16</v>
+        <v>2.1411731142386624E+16</v>
       </c>
       <c r="W15">
         <f>V15*(1+$L$9)</f>
-        <v>2.8938263262377876E+16</v>
+        <v>2.1851849426113728E+16</v>
       </c>
       <c r="X15">
         <f t="shared" ref="X15:AA15" si="16">W15*(1+$L$9)</f>
-        <v>2.9731169013456052E+16</v>
+        <v>2.2301014344248052E+16</v>
       </c>
       <c r="Y15">
         <f t="shared" si="16"/>
-        <v>3.0545800309166692E+16</v>
+        <v>2.2759411850423256E+16</v>
       </c>
       <c r="Z15">
         <f t="shared" si="16"/>
-        <v>3.1382752427433984E+16</v>
+        <v>2.322723172055124E+16</v>
       </c>
       <c r="AA15">
         <f t="shared" si="16"/>
-        <v>3.2242636956742472E+16</v>
+        <v>2.37046676313891E+16</v>
       </c>
       <c r="AB15">
         <f>AA15*(1+$M$9)</f>
-        <v>3.2798117427633892E+16</v>
+        <v>2.4030922131765232E+16</v>
       </c>
       <c r="AC15">
         <f t="shared" ref="AC15:AF15" si="17">AB15*(1+$M$9)</f>
-        <v>3.33631677905275E+16</v>
+        <v>2.4361666971372056E+16</v>
       </c>
       <c r="AD15">
         <f t="shared" si="17"/>
-        <v>3.393795291680534E+16</v>
+        <v>2.4696963952104664E+16</v>
       </c>
       <c r="AE15">
         <f t="shared" si="17"/>
-        <v>3.4522640518275716E+16</v>
+        <v>2.50368757264563E+16</v>
       </c>
       <c r="AF15">
         <f t="shared" si="17"/>
-        <v>3.5117401196108456E+16</v>
+        <v>2.5381465809225396E+16</v>
       </c>
       <c r="AG15">
         <f>AF15</f>
-        <v>3.5117401196108456E+16</v>
+        <v>2.5381465809225396E+16</v>
       </c>
       <c r="AH15">
         <f t="shared" ref="AH15:AI15" si="18">AG15</f>
-        <v>3.5117401196108456E+16</v>
+        <v>2.5381465809225396E+16</v>
       </c>
       <c r="AI15">
         <f t="shared" si="18"/>
-        <v>3.5117401196108456E+16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+        <v>2.5381465809225396E+16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
     </row>
   </sheetData>
@@ -26713,20 +26749,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="G3" sqref="G3:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.73046875" customWidth="1"/>
-    <col min="2" max="2" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1328125" customWidth="1"/>
-    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.73046875" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
@@ -26735,7 +26771,7 @@
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
         <v>276</v>
       </c>
@@ -26749,7 +26785,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
         <v>187</v>
       </c>
@@ -26784,7 +26820,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>278</v>
       </c>
@@ -26819,7 +26855,7 @@
         <v>1202.5874060242666</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>279</v>
       </c>
@@ -26862,7 +26898,7 @@
         <v>0.23814248422219494</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="55" t="s">
         <v>280</v>
       </c>
@@ -26905,7 +26941,7 @@
         <v>4.762849684443899E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>169</v>
       </c>
@@ -26924,30 +26960,30 @@
         <v>456</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="G7">
-        <v>466.15766709765376</v>
+        <v>445.93097924338804</v>
       </c>
       <c r="H7">
-        <v>587.77856181491325</v>
+        <v>525.99408380528359</v>
       </c>
       <c r="I7">
-        <v>659.32116834347391</v>
+        <v>554.29321501675724</v>
       </c>
       <c r="J7">
-        <v>751.15016167662702</v>
+        <v>593.40070118007202</v>
       </c>
       <c r="K7">
-        <v>820.51577226963036</v>
+        <v>591.97397982177131</v>
       </c>
       <c r="L7">
-        <v>878.34685451847383</v>
+        <v>565.62403548699865</v>
       </c>
       <c r="M7">
-        <v>839.55514940809985</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+        <v>452.40817621855899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="53" t="s">
         <v>272</v>
       </c>
@@ -26956,30 +26992,30 @@
       </c>
       <c r="H8" s="43">
         <f>(H7-G7)/G7</f>
-        <v>0.26090077092260194</v>
+        <v>0.17954147230977041</v>
       </c>
       <c r="I8" s="43">
         <f t="shared" ref="I8:M8" si="2">(I7-H7)/H7</f>
-        <v>0.12171693759577584</v>
+        <v>5.3801234809990058E-2</v>
       </c>
       <c r="J8" s="43">
         <f t="shared" si="2"/>
-        <v>0.13927809046973405</v>
+        <v>7.0553788326874048E-2</v>
       </c>
       <c r="K8" s="43">
         <f t="shared" si="2"/>
-        <v>9.2345863892478924E-2</v>
+        <v>-2.4043135700100244E-3</v>
       </c>
       <c r="L8" s="43">
         <f t="shared" si="2"/>
-        <v>7.048137793729034E-2</v>
+        <v>-4.4511997542030432E-2</v>
       </c>
       <c r="M8" s="43">
         <f t="shared" si="2"/>
-        <v>-4.4164449284264037E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+        <v>-0.20016097648849299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="53" t="s">
         <v>281</v>
       </c>
@@ -26988,30 +27024,30 @@
       </c>
       <c r="H9" s="43">
         <f>H8/5</f>
-        <v>5.2180154184520391E-2</v>
+        <v>3.5908294461954079E-2</v>
       </c>
       <c r="I9" s="43">
         <f t="shared" ref="I9:M9" si="3">I8/5</f>
-        <v>2.4343387519155168E-2</v>
+        <v>1.0760246961998012E-2</v>
       </c>
       <c r="J9" s="43">
         <f t="shared" si="3"/>
-        <v>2.7855618093946811E-2</v>
+        <v>1.4110757665374809E-2</v>
       </c>
       <c r="K9" s="43">
         <f t="shared" si="3"/>
-        <v>1.8469172778495784E-2</v>
+        <v>-4.8086271400200485E-4</v>
       </c>
       <c r="L9" s="43">
         <f t="shared" si="3"/>
-        <v>1.4096275587458068E-2</v>
+        <v>-8.9023995084060864E-3</v>
       </c>
       <c r="M9" s="43">
         <f t="shared" si="3"/>
-        <v>-8.8328898568528075E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+        <v>-4.0032195297698595E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="53" t="s">
         <v>282</v>
       </c>
@@ -27019,12 +27055,12 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="F11" s="53" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="51" t="s">
         <v>449</v>
       </c>
@@ -27164,7 +27200,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>452</v>
       </c>
@@ -27305,7 +27341,7 @@
         <v>4185211567.4053259</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>461</v>
       </c>
@@ -27315,135 +27351,135 @@
       </c>
       <c r="C15">
         <f>B15*(1+$H$9)</f>
-        <v>993855703.87776399</v>
+        <v>978485825.88333893</v>
       </c>
       <c r="D15">
         <f t="shared" ref="D15:G15" si="12">C15*(1+$H$9)</f>
-        <v>1045715247.7432708</v>
+        <v>1013621583.0460061</v>
       </c>
       <c r="E15">
         <f t="shared" si="12"/>
-        <v>1100280830.6036186</v>
+        <v>1050019005.323014</v>
       </c>
       <c r="F15">
         <f t="shared" si="12"/>
-        <v>1157693653.9907875</v>
+        <v>1087723396.9568009</v>
       </c>
       <c r="G15">
         <f t="shared" si="12"/>
-        <v>1218102287.3544676</v>
+        <v>1126781688.9878826</v>
       </c>
       <c r="H15">
         <f>G15*(1+$I$9)</f>
-        <v>1247755023.3735068</v>
+        <v>1138906138.2336495</v>
       </c>
       <c r="I15">
         <f t="shared" ref="I15:L15" si="13">H15*(1+$I$9)</f>
-        <v>1278129607.4364607</v>
+        <v>1151161049.5475791</v>
       </c>
       <c r="J15">
         <f t="shared" si="13"/>
-        <v>1309243611.7699921</v>
+        <v>1163547826.7337439</v>
       </c>
       <c r="K15">
         <f t="shared" si="13"/>
-        <v>1341115036.3682873</v>
+        <v>1176067888.7014952</v>
       </c>
       <c r="L15">
         <f t="shared" si="13"/>
-        <v>1373762319.4063666</v>
+        <v>1188722669.6279988</v>
       </c>
       <c r="M15">
         <f>L15*(1+$J$9)</f>
-        <v>1412029317.9276049</v>
+        <v>1205496447.1504569</v>
       </c>
       <c r="N15">
         <f t="shared" ref="N15:Q15" si="14">M15*(1+$J$9)</f>
-        <v>1451362267.3452525</v>
+        <v>1222506915.3826673</v>
       </c>
       <c r="O15">
         <f t="shared" si="14"/>
-        <v>1491790860.3803866</v>
+        <v>1239757414.2098768</v>
       </c>
       <c r="P15">
         <f t="shared" si="14"/>
-        <v>1533345616.863183</v>
+        <v>1257251330.6456439</v>
       </c>
       <c r="Q15">
         <f t="shared" si="14"/>
-        <v>1576057906.7725513</v>
+        <v>1274992099.4968545</v>
       </c>
       <c r="R15">
         <f>Q15*(1+$K$9)</f>
-        <v>1605166392.5616479</v>
+        <v>1274379003.3355594</v>
       </c>
       <c r="S15">
         <f t="shared" ref="S15:V15" si="15">R15*(1+$K$9)</f>
-        <v>1634812488.0041039</v>
+        <v>1273766201.9893482</v>
       </c>
       <c r="T15">
         <f t="shared" si="15"/>
-        <v>1665006122.3054943</v>
+        <v>1273153695.3164556</v>
       </c>
       <c r="U15">
         <f t="shared" si="15"/>
-        <v>1695757408.0556078</v>
+        <v>1272541483.175184</v>
       </c>
       <c r="V15">
         <f t="shared" si="15"/>
-        <v>1727076644.615401</v>
+        <v>1271929565.4239042</v>
       </c>
       <c r="W15">
         <f>V15*(1+$L$9)</f>
-        <v>1751421992.9585621</v>
+        <v>1260606340.2859473</v>
       </c>
       <c r="X15">
         <f t="shared" ref="X15:AA15" si="16">W15*(1+$L$9)</f>
-        <v>1776110520.0412412</v>
+        <v>1249383919.0218921</v>
       </c>
       <c r="Y15">
         <f t="shared" si="16"/>
-        <v>1801147063.4055259</v>
+        <v>1238261404.2353811</v>
       </c>
       <c r="Z15">
         <f t="shared" si="16"/>
-        <v>1826536528.784831</v>
+        <v>1227237906.5190377</v>
       </c>
       <c r="AA15">
         <f t="shared" si="16"/>
-        <v>1852283891.065141</v>
+        <v>1216312544.3833454</v>
       </c>
       <c r="AB15">
         <f>AA15*(1+$M$9)</f>
-        <v>1835922871.4717398</v>
+        <v>1167620883.0635505</v>
       </c>
       <c r="AC15">
         <f t="shared" ref="AC15:AF15" si="17">AB15*(1+$M$9)</f>
-        <v>1819706366.962353</v>
+        <v>1120878455.8390791</v>
       </c>
       <c r="AD15">
         <f t="shared" si="17"/>
-        <v>1803633101.0511608</v>
+        <v>1076007230.5899463</v>
       </c>
       <c r="AE15">
         <f t="shared" si="17"/>
-        <v>1787701808.5274019</v>
+        <v>1032932298.9932337</v>
       </c>
       <c r="AF15">
         <f t="shared" si="17"/>
-        <v>1771911235.3557827</v>
+        <v>991581751.47063565</v>
       </c>
       <c r="AG15">
         <f>AF15</f>
-        <v>1771911235.3557827</v>
+        <v>991581751.47063565</v>
       </c>
       <c r="AH15">
         <f t="shared" ref="AH15:AI15" si="18">AG15</f>
-        <v>1771911235.3557827</v>
+        <v>991581751.47063565</v>
       </c>
       <c r="AI15">
         <f t="shared" si="18"/>
-        <v>1771911235.3557827</v>
+        <v>991581751.47063565</v>
       </c>
     </row>
   </sheetData>
@@ -27452,27 +27488,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" customWidth="1"/>
-    <col min="2" max="2" width="16.86328125" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" customWidth="1"/>
-    <col min="4" max="4" width="22.73046875" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1328125" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
         <v>300</v>
       </c>
@@ -27486,7 +27522,7 @@
       <c r="K1" s="51"/>
       <c r="L1" s="54"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
         <v>187</v>
       </c>
@@ -27512,7 +27548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="55" t="s">
         <v>290</v>
       </c>
@@ -27538,7 +27574,7 @@
         <v>14035</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>267</v>
       </c>
@@ -27570,7 +27606,7 @@
         <v>14035000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="55" t="s">
         <v>169</v>
       </c>
@@ -27602,7 +27638,7 @@
         <v>19803385000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D6">
         <v>0</v>
       </c>
@@ -27622,7 +27658,7 @@
         <v>619624120038866</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
         <v>301</v>
       </c>
@@ -27638,7 +27674,7 @@
       <c r="K8" s="51"/>
       <c r="L8" s="54"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="52" t="s">
         <v>187</v>
       </c>
@@ -27666,7 +27702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="55" t="s">
         <v>290</v>
       </c>
@@ -27694,7 +27730,7 @@
         <v>29676</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>267</v>
       </c>
@@ -27728,7 +27764,7 @@
         <v>29676000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="55" t="s">
         <v>332</v>
       </c>
@@ -27761,7 +27797,7 @@
         <v>35907960000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -27795,11 +27831,11 @@
         <v>1313794267340850.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
         <v>302</v>
       </c>
@@ -27812,7 +27848,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="52" t="s">
         <v>187</v>
       </c>
@@ -27831,7 +27867,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="55" t="s">
         <v>290</v>
       </c>
@@ -27848,7 +27884,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>267</v>
       </c>
@@ -27877,7 +27913,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="55" t="s">
         <v>268</v>
       </c>
@@ -27909,7 +27945,7 @@
         <v>6.7451599347432651E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>269</v>
       </c>
@@ -27941,7 +27977,7 @@
         <v>0.13833916247672218</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>169</v>
       </c>
@@ -27973,7 +28009,7 @@
         <v>4.4274552734519634E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="53" t="s">
         <v>285</v>
       </c>
@@ -27993,7 +28029,7 @@
         <v>0.25979518811534769</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="53" t="s">
         <v>286</v>
       </c>
@@ -28013,7 +28049,7 @@
         <v>0.55084593673866733</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
         <v>10</v>
       </c>
@@ -28029,7 +28065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
         <v>523</v>
       </c>
@@ -28046,12 +28082,12 @@
         <v>2385048485823980</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>2019</v>
       </c>
@@ -28149,7 +28185,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>569</v>
       </c>
@@ -28282,7 +28318,7 @@
         <v>670364225570218.5</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>570</v>
       </c>
@@ -28392,7 +28428,7 @@
         <v>395365774429781.5</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>571</v>
       </c>
@@ -28516,7 +28552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
       <c r="D34" s="31"/>
@@ -28557,32 +28593,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AN20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="11.1328125" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.1328125" customWidth="1"/>
-    <col min="6" max="6" width="21.59765625" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.86328125" customWidth="1"/>
-    <col min="18" max="18" width="9.3984375" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" customWidth="1"/>
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
         <v>291</v>
       </c>
@@ -28596,7 +28632,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
         <v>187</v>
       </c>
@@ -28631,7 +28667,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>296</v>
       </c>
@@ -28667,7 +28703,7 @@
         <v>5380.05</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>267</v>
       </c>
@@ -28711,7 +28747,7 @@
         <v>-2.6913372582001712E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="55" t="s">
         <v>169</v>
       </c>
@@ -28755,7 +28791,7 @@
         <v>-5.3826745164003422E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D6">
         <v>0</v>
       </c>
@@ -28766,30 +28802,30 @@
       <c r="J6" s="56"/>
       <c r="K6" s="56"/>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H7">
-        <v>1075.4762345933309</v>
+        <v>876.28625387650709</v>
       </c>
       <c r="I7">
-        <v>1602.1646944849763</v>
+        <v>1132.7566268697301</v>
       </c>
       <c r="J7">
-        <v>2139.2195786710681</v>
+        <v>1348.9801264516409</v>
       </c>
       <c r="K7">
-        <v>2801.5113646318014</v>
+        <v>1632.1478019750093</v>
       </c>
       <c r="L7">
-        <v>4453.5601338359456</v>
+        <v>2122.672138171396</v>
       </c>
       <c r="M7">
-        <v>6258.043550293507</v>
+        <v>2755.5542138460569</v>
       </c>
       <c r="N7">
-        <v>7765.1919130140896</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
+        <v>3300.298451450094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" s="53" t="s">
         <v>292</v>
       </c>
@@ -28798,30 +28834,30 @@
       </c>
       <c r="I8" s="84">
         <f>(I7-H7)/H7</f>
-        <v>0.48972580048763398</v>
+        <v>0.29267875863469467</v>
       </c>
       <c r="J8" s="84">
         <f t="shared" ref="J8:N8" si="3">(J7-I7)/I7</f>
-        <v>0.33520579128647621</v>
+        <v>0.19088257305492423</v>
       </c>
       <c r="K8" s="84">
         <f t="shared" si="3"/>
-        <v>0.30959504698071433</v>
+        <v>0.20991241454995563</v>
       </c>
       <c r="L8" s="84">
         <f t="shared" si="3"/>
-        <v>0.58969911386430185</v>
+        <v>0.30053916416320814</v>
       </c>
       <c r="M8" s="84">
         <f t="shared" si="3"/>
-        <v>0.40517773696328685</v>
+        <v>0.29815347565633266</v>
       </c>
       <c r="N8" s="84">
         <f t="shared" si="3"/>
-        <v>0.24083379263953766</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
+        <v>0.19768953732313324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="53" t="s">
         <v>294</v>
       </c>
@@ -28830,30 +28866,30 @@
       </c>
       <c r="I9" s="84">
         <f>I8/5</f>
-        <v>9.7945160097526796E-2</v>
+        <v>5.8535751726938937E-2</v>
       </c>
       <c r="J9" s="84">
         <f t="shared" ref="J9:N9" si="4">J8/5</f>
-        <v>6.7041158257295244E-2</v>
+        <v>3.8176514610984848E-2</v>
       </c>
       <c r="K9" s="84">
         <f t="shared" si="4"/>
-        <v>6.1919009396142866E-2</v>
+        <v>4.1982482909991126E-2</v>
       </c>
       <c r="L9" s="84">
         <f t="shared" si="4"/>
-        <v>0.11793982277286037</v>
+        <v>6.0107832832641629E-2</v>
       </c>
       <c r="M9" s="84">
         <f t="shared" si="4"/>
-        <v>8.1035547392657364E-2</v>
+        <v>5.963069513126653E-2</v>
       </c>
       <c r="N9" s="84">
         <f t="shared" si="4"/>
-        <v>4.8166758527907534E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
+        <v>3.9537907464626647E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="53" t="s">
         <v>295</v>
       </c>
@@ -28861,7 +28897,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
         <v>293</v>
       </c>
@@ -28872,7 +28908,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="52" t="s">
         <v>187</v>
       </c>
@@ -28886,7 +28922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>296</v>
       </c>
@@ -29038,7 +29074,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>267</v>
       </c>
@@ -29194,7 +29230,7 @@
         <v>1.7078846857670062E+16</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="55" t="s">
         <v>169</v>
       </c>
@@ -29219,148 +29255,148 @@
       </c>
       <c r="H15">
         <f>G15*(1+$I$9)</f>
-        <v>3958374171740037</v>
+        <v>3816293137197443.5</v>
       </c>
       <c r="I15">
         <f t="shared" ref="I15:L15" si="14">H15*(1+$I$9)</f>
-        <v>4346077763717029.5</v>
+        <v>4039682724793654</v>
       </c>
       <c r="J15">
         <f t="shared" si="14"/>
-        <v>4771755046080595</v>
+        <v>4276148589827779.5</v>
       </c>
       <c r="K15">
         <f t="shared" si="14"/>
-        <v>5239125358015140</v>
+        <v>4526456162029438</v>
       </c>
       <c r="L15">
         <f t="shared" si="14"/>
-        <v>5752272329976945</v>
+        <v>4791415676132866</v>
       </c>
       <c r="M15">
         <f>L15*(1+$J$9)</f>
-        <v>6137911329589989</v>
+        <v>4974335226700055</v>
       </c>
       <c r="N15">
         <f t="shared" ref="N15:P15" si="15">M15*(1+$J$9)</f>
-        <v>6549404014406276</v>
+        <v>5164238008162107</v>
       </c>
       <c r="O15">
         <f t="shared" si="15"/>
-        <v>6988483645427051</v>
+        <v>5361390615935311</v>
       </c>
       <c r="P15">
         <f t="shared" si="15"/>
-        <v>7456999683478645</v>
+        <v>5566069823119763</v>
       </c>
       <c r="Q15">
         <f>P15*(1+$J$9)</f>
-        <v>7956925579383337</v>
+        <v>5778562969047857</v>
       </c>
       <c r="R15">
         <f>Q15*(1+$K$9)</f>
-        <v>8449610529097583</v>
+        <v>6021161390140216</v>
       </c>
       <c r="S15">
         <f t="shared" ref="S15:V15" si="16">R15*(1+$K$9)</f>
-        <v>8972802042842523</v>
+        <v>6273944695300076</v>
       </c>
       <c r="T15">
         <f t="shared" si="16"/>
-        <v>9528389056843018</v>
+        <v>6537340471248741</v>
       </c>
       <c r="U15">
         <f t="shared" si="16"/>
-        <v>1.0118377468383786E+16</v>
+        <v>6811794255859734</v>
       </c>
       <c r="V15">
         <f t="shared" si="16"/>
-        <v>1.0744897377922362E+16</v>
+        <v>7097770291792741</v>
       </c>
       <c r="W15">
         <f>V15*(1+$L$9)</f>
-        <v>1.2012148670387096E+16</v>
+        <v>7524401881976309</v>
       </c>
       <c r="X15">
         <f t="shared" ref="X15:AA15" si="17">W15*(1+$L$9)</f>
-        <v>1.34288593556938E+16</v>
+        <v>7976677372463755</v>
       </c>
       <c r="Y15">
         <f t="shared" si="17"/>
-        <v>1.5012656648145994E+16</v>
+        <v>8456138162527722</v>
       </c>
       <c r="Z15">
         <f t="shared" si="17"/>
-        <v>1.6783246712578136E+16</v>
+        <v>8964418301610660</v>
       </c>
       <c r="AA15">
         <f t="shared" si="17"/>
-        <v>1.8762659855412792E+16</v>
+        <v>9503250058325746</v>
       </c>
       <c r="AB15">
         <f>AA15*(1+$M$9)</f>
-        <v>2.0283102267338404E+16</v>
+        <v>1.006993546530996E+16</v>
       </c>
       <c r="AC15">
         <f t="shared" ref="AC15:AF15" si="18">AB15*(1+$M$9)</f>
-        <v>2.192675456239342E+16</v>
+        <v>1.0670412717033388E+16</v>
       </c>
       <c r="AD15">
         <f t="shared" si="18"/>
-        <v>2.370360112090142E+16</v>
+        <v>1.1306696844687596E+16</v>
       </c>
       <c r="AE15">
         <f t="shared" si="18"/>
-        <v>2.5624435412910872E+16</v>
+        <v>1.1980923037174816E+16</v>
       </c>
       <c r="AF15">
         <f t="shared" si="18"/>
-        <v>2.77009255632239E+16</v>
+        <v>1.2695353806195756E+16</v>
       </c>
       <c r="AG15">
         <f>AF15*(1+$N$9)</f>
-        <v>2.9035189355827248E+16</v>
+        <v>1.319730153021582E+16</v>
       </c>
       <c r="AH15">
         <f t="shared" ref="AH15:AK15" si="19">AG15*(1+$N$9)</f>
-        <v>3.0433720310341448E+16</v>
+        <v>1.371909521690027E+16</v>
       </c>
       <c r="AI15">
         <f t="shared" si="19"/>
-        <v>3.189961396763554E+16</v>
+        <v>1.4261519534084476E+16</v>
       </c>
       <c r="AJ15">
         <f t="shared" si="19"/>
-        <v>3.3436114970748108E+16</v>
+        <v>1.4825390173728074E+16</v>
       </c>
       <c r="AK15">
         <f t="shared" si="19"/>
-        <v>3.5046624246655484E+16</v>
+        <v>1.541155507854392E+16</v>
       </c>
       <c r="AL15">
         <f>AK15</f>
-        <v>3.5046624246655484E+16</v>
+        <v>1.541155507854392E+16</v>
       </c>
       <c r="AM15">
         <f t="shared" ref="AM15:AN15" si="20">AL15</f>
-        <v>3.5046624246655484E+16</v>
+        <v>1.541155507854392E+16</v>
       </c>
       <c r="AN15">
         <f t="shared" si="20"/>
-        <v>3.5046624246655484E+16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.45">
+        <v>1.541155507854392E+16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F17" s="51" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="53" t="s">
         <v>292</v>
       </c>
@@ -29504,7 +29540,7 @@
         <v>1013351831414501.4</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="53" t="s">
         <v>297</v>
       </c>
@@ -29517,138 +29553,138 @@
       </c>
       <c r="H19">
         <f>G19*(1+$I$9)</f>
-        <v>152248395533.52368</v>
+        <v>146783624239.46884</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19:L19" si="28">H19*(1+$I$9)</f>
-        <v>167160389008.64624</v>
+        <v>155375714025.53067</v>
       </c>
       <c r="J19">
         <f t="shared" si="28"/>
-        <v>183532940072.06296</v>
+        <v>164470748246.125</v>
       </c>
       <c r="K19">
         <f t="shared" si="28"/>
-        <v>201509103270.59094</v>
+        <v>174098167131.80405</v>
       </c>
       <c r="L19">
         <f t="shared" si="28"/>
-        <v>221245944651.53802</v>
+        <v>184289134219.14645</v>
       </c>
       <c r="M19">
         <f>L19*(1+$J$9)</f>
-        <v>236078529040.70654</v>
+        <v>191324651044.30945</v>
       </c>
       <c r="N19">
         <f t="shared" ref="N19:Q19" si="29">M19*(1+$J$9)</f>
-        <v>251905507067.27402</v>
+        <v>198628759380.34412</v>
       </c>
       <c r="O19">
         <f t="shared" si="29"/>
-        <v>268793544032.45532</v>
+        <v>206211713114.98962</v>
       </c>
       <c r="P19">
         <f t="shared" si="29"/>
-        <v>286813774556.47443</v>
+        <v>214084157593.68027</v>
       </c>
       <c r="Q19">
         <f t="shared" si="29"/>
-        <v>306042102206.88721</v>
+        <v>222257144564.0358</v>
       </c>
       <c r="R19">
         <f>Q19*(1+$K$9)</f>
-        <v>324991926009.05078</v>
+        <v>231588051337.31885</v>
       </c>
       <c r="S19">
         <f t="shared" ref="S19:V19" si="30">R19*(1+$K$9)</f>
-        <v>345115104129.27576</v>
+        <v>241310692744.74597</v>
       </c>
       <c r="T19">
         <f t="shared" si="30"/>
-        <v>366484289504.60718</v>
+        <v>251441514778.90039</v>
       </c>
       <c r="U19">
         <f t="shared" si="30"/>
-        <v>389176633669.98169</v>
+        <v>261997653875.96783</v>
       </c>
       <c r="V19">
         <f t="shared" si="30"/>
-        <v>413274065306.95251</v>
+        <v>272996965902.27341</v>
       </c>
       <c r="W19">
         <f>V19*(1+$L$9)</f>
-        <v>462015535325.87396</v>
+        <v>289406221892.54565</v>
       </c>
       <c r="X19">
         <f t="shared" ref="X19:AA19" si="31">W19*(1+$L$9)</f>
-        <v>516505565680.51569</v>
+        <v>306801802698.78918</v>
       </c>
       <c r="Y19">
         <f t="shared" si="31"/>
-        <v>577422140558.07166</v>
+        <v>325242994168.16113</v>
       </c>
       <c r="Z19">
         <f t="shared" si="31"/>
-        <v>645523205480.61621</v>
+        <v>344792645691.60883</v>
       </c>
       <c r="AA19">
         <f t="shared" si="31"/>
-        <v>721656097930.7688</v>
+        <v>365517384400.76428</v>
       </c>
       <c r="AB19">
         <f>AA19*(1+$M$9)</f>
-        <v>780135894855.83777</v>
+        <v>387313440115.14423</v>
       </c>
       <c r="AC19">
         <f t="shared" ref="AC19:AF19" si="32">AB19*(1+$M$9)</f>
-        <v>843354634136.14124</v>
+        <v>410409209782.89246</v>
       </c>
       <c r="AD19">
         <f t="shared" si="32"/>
-        <v>911696338559.4978</v>
+        <v>434882196250.52014</v>
       </c>
       <c r="AE19">
         <f t="shared" si="32"/>
-        <v>985576150410.54822</v>
+        <v>460814523913.15057</v>
       </c>
       <c r="AF19">
         <f t="shared" si="32"/>
-        <v>1065442853256.2151</v>
+        <v>488293214300.67542</v>
       </c>
       <c r="AG19">
         <f>AF19*(1+$N$9)</f>
-        <v>1116761781894.292</v>
+        <v>507599306223.30066</v>
       </c>
       <c r="AH19">
         <f t="shared" ref="AH19:AK19" si="33">AG19*(1+$N$9)</f>
-        <v>1170552576975.99</v>
+        <v>527668720621.86621</v>
       </c>
       <c r="AI19">
         <f t="shared" si="33"/>
-        <v>1226934300295.4124</v>
+        <v>548531637669.7915</v>
       </c>
       <c r="AJ19">
         <f t="shared" si="33"/>
-        <v>1286031748467.3486</v>
+        <v>570219430801.3999</v>
       </c>
       <c r="AK19">
         <f t="shared" si="33"/>
-        <v>1347975729154.998</v>
+        <v>592764713890.95776</v>
       </c>
       <c r="AL19">
         <f>AK19</f>
-        <v>1347975729154.998</v>
+        <v>592764713890.95776</v>
       </c>
       <c r="AM19">
         <f t="shared" ref="AM19:AN19" si="34">AL19</f>
-        <v>1347975729154.998</v>
+        <v>592764713890.95776</v>
       </c>
       <c r="AN19">
         <f t="shared" si="34"/>
-        <v>1347975729154.998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.45">
+        <v>592764713890.95776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" s="53" t="s">
         <v>298</v>
       </c>
@@ -29660,21 +29696,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AI30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.59765625" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.86328125" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
@@ -29683,7 +29719,7 @@
     <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
         <v>305</v>
       </c>
@@ -29696,7 +29732,7 @@
       <c r="H1" s="51"/>
       <c r="I1" s="51"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
         <v>187</v>
       </c>
@@ -29719,7 +29755,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>306</v>
       </c>
@@ -29742,7 +29778,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>326</v>
       </c>
@@ -29760,7 +29796,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="55" t="s">
         <v>324</v>
       </c>
@@ -29778,7 +29814,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>169</v>
       </c>
@@ -29793,7 +29829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G7" t="s">
         <v>319</v>
       </c>
@@ -29804,7 +29840,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="53" t="s">
         <v>310</v>
       </c>
@@ -29818,12 +29854,12 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="53" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="53"/>
       <c r="G10" t="s">
         <v>322</v>
@@ -29836,7 +29872,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="53"/>
       <c r="I11">
         <f>Biofuels!I10*'Conversion Factors'!B73</f>
@@ -29846,7 +29882,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I12">
         <f>I11*'Conversion Factors'!B72</f>
         <v>44278077.600000001</v>
@@ -29855,7 +29891,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I13" s="90">
         <f>I12*10^6</f>
         <v>44278077600000</v>
@@ -29864,7 +29900,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
         <v>323</v>
       </c>
@@ -29876,7 +29912,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I15">
         <f>I14*'Conversion Factors'!B73</f>
         <v>3396600</v>
@@ -29885,7 +29921,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I16">
         <f>I15*'Conversion Factors'!B72</f>
         <v>11069519.4</v>
@@ -29894,7 +29930,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="I17" s="90">
         <f>I16*10^6</f>
         <v>11069519400000</v>
@@ -29903,12 +29939,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="G18" s="53" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>2017</v>
       </c>
@@ -29934,7 +29970,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="81" t="s">
         <v>503</v>
       </c>
@@ -29960,7 +29996,7 @@
         <v>10.494265886000001</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="81" t="s">
         <v>504</v>
       </c>
@@ -29986,7 +30022,7 @@
         <v>141.81257947309263</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>505</v>
       </c>
@@ -30019,7 +30055,7 @@
         <v>152.30684535909262</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>447</v>
       </c>
@@ -30048,7 +30084,7 @@
         <v>0.3243911567795128</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>448</v>
       </c>
@@ -30077,17 +30113,17 @@
         <v>6.4878231355902566E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="53" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="53" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="51" t="s">
         <v>449</v>
       </c>
@@ -30227,7 +30263,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>508</v>
       </c>
@@ -30368,7 +30404,7 @@
         <v>782993152491217.38</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>509</v>
       </c>

--- a/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
+++ b/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\fuels\BFPIaE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\fuels\BFPIaE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E4B700C-506C-42DD-A0E0-4E5E693C88C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5730" tabRatio="684"/>
+    <workbookView xWindow="-28920" yWindow="855" windowWidth="29040" windowHeight="15840" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -38,7 +39,7 @@
     <definedName name="preferences.energyunits">[2]Preferences!$C$3</definedName>
     <definedName name="Preferences.PowerUnits">[2]Preferences!$C$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -46,6 +47,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1837,7 +1839,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -2542,26 +2544,26 @@
     </xf>
   </cellXfs>
   <cellStyles count="20">
-    <cellStyle name="Body: normal cell" xfId="7"/>
-    <cellStyle name="Body: normal cell 2" xfId="14"/>
+    <cellStyle name="Body: normal cell" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="10"/>
-    <cellStyle name="Footnotes: all except top row" xfId="16"/>
-    <cellStyle name="Footnotes: top row" xfId="8"/>
-    <cellStyle name="Footnotes: top row 2" xfId="15"/>
-    <cellStyle name="Header: bottom row" xfId="4"/>
-    <cellStyle name="Header: bottom row 2" xfId="11"/>
-    <cellStyle name="Header: top rows" xfId="17"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Footnotes: all except top row" xfId="16" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Header: top rows" xfId="17" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Parent row" xfId="6"/>
-    <cellStyle name="Parent row 2" xfId="13"/>
-    <cellStyle name="Section Break" xfId="18"/>
-    <cellStyle name="Section Break: parent row" xfId="19"/>
-    <cellStyle name="Table title" xfId="5"/>
-    <cellStyle name="Table title 2" xfId="12"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Parent row 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Section Break" xfId="18" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Section Break: parent row" xfId="19" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Table title" xfId="5" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Table title 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3025,6 +3027,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3060,6 +3079,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3235,35 +3271,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E158"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="76.265625" customWidth="1"/>
-    <col min="4" max="4" width="78.86328125" customWidth="1"/>
+    <col min="2" max="2" width="76.26953125" customWidth="1"/>
+    <col min="4" max="4" width="78.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3274,13 +3310,13 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>247</v>
       </c>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>2018</v>
       </c>
@@ -3288,7 +3324,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>248</v>
       </c>
@@ -3296,7 +3332,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>249</v>
       </c>
@@ -3304,7 +3340,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>284</v>
       </c>
@@ -3312,10 +3348,10 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D11" s="48"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>517</v>
       </c>
@@ -3323,7 +3359,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>441</v>
       </c>
@@ -3331,7 +3367,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <v>2015</v>
       </c>
@@ -3339,7 +3375,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>440</v>
       </c>
@@ -3347,7 +3383,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>442</v>
       </c>
@@ -3355,7 +3391,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>518</v>
       </c>
@@ -3363,10 +3399,10 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D18" s="16"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>299</v>
       </c>
@@ -3374,7 +3410,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="16" t="s">
         <v>287</v>
       </c>
@@ -3382,7 +3418,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <v>2018</v>
       </c>
@@ -3390,7 +3426,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="16" t="s">
         <v>288</v>
       </c>
@@ -3398,7 +3434,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="48" t="s">
         <v>289</v>
       </c>
@@ -3406,7 +3442,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="16" t="s">
         <v>286</v>
       </c>
@@ -3414,7 +3450,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
         <v>333</v>
       </c>
@@ -3422,7 +3458,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>334</v>
       </c>
@@ -3430,7 +3466,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <v>2019</v>
       </c>
@@ -3438,7 +3474,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>335</v>
       </c>
@@ -3446,7 +3482,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
         <v>312</v>
       </c>
@@ -3454,7 +3490,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="57" t="s">
         <v>309</v>
       </c>
@@ -3462,7 +3498,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
         <v>339</v>
       </c>
@@ -3470,7 +3506,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>341</v>
       </c>
@@ -3478,7 +3514,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" s="3">
         <v>2019</v>
       </c>
@@ -3486,7 +3522,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>338</v>
       </c>
@@ -3494,7 +3530,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
         <v>340</v>
       </c>
@@ -3502,7 +3538,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="2" t="s">
         <v>507</v>
       </c>
@@ -3510,7 +3546,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>441</v>
       </c>
@@ -3518,7 +3554,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="3">
         <v>2015</v>
       </c>
@@ -3526,7 +3562,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>440</v>
       </c>
@@ -3534,7 +3570,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>442</v>
       </c>
@@ -3542,7 +3578,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>506</v>
       </c>
@@ -3550,7 +3586,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46" s="2" t="s">
         <v>519</v>
       </c>
@@ -3558,7 +3594,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>372</v>
       </c>
@@ -3566,7 +3602,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" s="3">
         <v>2014</v>
       </c>
@@ -3574,7 +3610,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>373</v>
       </c>
@@ -3582,7 +3618,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="4" t="s">
         <v>374</v>
       </c>
@@ -3590,7 +3626,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>375</v>
       </c>
@@ -3598,17 +3634,17 @@
         <v>472</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D53" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>377</v>
       </c>
@@ -3616,7 +3652,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
         <v>2016</v>
       </c>
@@ -3624,7 +3660,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>376</v>
       </c>
@@ -3632,7 +3668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57" s="4" t="s">
         <v>378</v>
       </c>
@@ -3640,17 +3676,17 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D58" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B59" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>434</v>
       </c>
@@ -3658,7 +3694,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B61" s="3">
         <v>2017</v>
       </c>
@@ -3666,7 +3702,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>435</v>
       </c>
@@ -3674,7 +3710,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B63" s="4" t="s">
         <v>436</v>
       </c>
@@ -3682,7 +3718,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>437</v>
       </c>
@@ -3690,165 +3726,165 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="4" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="47" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="16" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="16" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="48" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="16" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="16" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="16"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="4" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="4" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B97" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B99" s="4" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
@@ -3859,7 +3895,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D103" t="s">
         <v>532</v>
       </c>
@@ -3867,7 +3903,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>182</v>
       </c>
@@ -3878,7 +3914,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>177</v>
       </c>
@@ -3886,7 +3922,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>178</v>
       </c>
@@ -3894,7 +3930,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>179</v>
       </c>
@@ -3905,7 +3941,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>180</v>
       </c>
@@ -3913,7 +3949,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>181</v>
       </c>
@@ -3921,17 +3957,17 @@
         <v>405</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D110" s="61" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>194</v>
       </c>
@@ -3939,7 +3975,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>191</v>
       </c>
@@ -3947,7 +3983,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>192</v>
       </c>
@@ -3955,7 +3991,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>193</v>
       </c>
@@ -3963,12 +3999,12 @@
         <v>388</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D116" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>187</v>
       </c>
@@ -3976,7 +4012,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>188</v>
       </c>
@@ -3984,12 +4020,12 @@
         <v>391</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>190</v>
       </c>
@@ -3997,7 +4033,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>184</v>
       </c>
@@ -4005,7 +4041,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -4013,7 +4049,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -4021,7 +4057,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -4029,7 +4065,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -4037,7 +4073,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>185</v>
       </c>
@@ -4045,7 +4081,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -4053,7 +4089,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>186</v>
       </c>
@@ -4061,135 +4097,135 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D130" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D131" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D132" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D134" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D135" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D136" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D137" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D139" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D140" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D141" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D142" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D143" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D144" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D145" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D146" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D148" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D149" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D151" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D152" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D153" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D155" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D156" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D158" t="s">
         <v>531</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D64" r:id="rId1"/>
-    <hyperlink ref="D10" r:id="rId2"/>
-    <hyperlink ref="D16" r:id="rId3"/>
-    <hyperlink ref="B9" r:id="rId4"/>
-    <hyperlink ref="B23" r:id="rId5"/>
-    <hyperlink ref="B50" r:id="rId6"/>
-    <hyperlink ref="B71" r:id="rId7"/>
-    <hyperlink ref="B78" r:id="rId8"/>
-    <hyperlink ref="B99" r:id="rId9"/>
-    <hyperlink ref="B43" r:id="rId10"/>
-    <hyperlink ref="B86" r:id="rId11"/>
-    <hyperlink ref="B16" r:id="rId12"/>
+    <hyperlink ref="D64" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D16" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B23" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B50" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B71" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B78" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B99" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B43" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B86" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
@@ -4197,22 +4233,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AQ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" customWidth="1"/>
-    <col min="9" max="9" width="18.86328125" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>357</v>
       </c>
@@ -4356,7 +4392,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" s="62"/>
       <c r="B2" s="64">
         <v>2013</v>
@@ -4513,7 +4549,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="63" t="s">
         <v>231</v>
       </c>
@@ -4672,7 +4708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="I4" t="s">
         <v>363</v>
       </c>
@@ -4813,7 +4849,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>414</v>
       </c>
@@ -4957,7 +4993,7 @@
         <v>222.36</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>342</v>
       </c>
@@ -5116,7 +5152,7 @@
         <v>106.82</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>343</v>
       </c>
@@ -5266,7 +5302,7 @@
         <v>222360000</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>344</v>
       </c>
@@ -5416,7 +5452,7 @@
         <v>106820000</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>356</v>
       </c>
@@ -5567,7 +5603,7 @@
         <v>2817371387933999.5</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10" s="53" t="s">
         <v>355</v>
       </c>
@@ -5711,7 +5747,7 @@
         <v>1588548260249999.8</v>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:43" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A11" s="53" t="s">
         <v>358</v>
       </c>
@@ -5855,31 +5891,31 @@
         <v>1826053731607589.5</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12" s="53" t="s">
         <v>412</v>
       </c>
       <c r="I12" s="76"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" s="53" t="s">
         <v>413</v>
       </c>
       <c r="I13" s="76"/>
     </row>
-    <row r="14" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K14" s="53"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="K15" s="53"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="53"/>
       <c r="J28" s="53" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="53" t="s">
         <v>355</v>
       </c>
@@ -5887,7 +5923,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="53" t="s">
         <v>354</v>
       </c>
@@ -5900,22 +5936,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.265625" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="10.265625" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>429</v>
       </c>
@@ -5947,7 +5983,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>2011</v>
       </c>
@@ -5985,7 +6021,7 @@
         <v>231.942989425446</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>428</v>
       </c>
@@ -6033,7 +6069,7 @@
         <v>6.9976002944891966E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>123</v>
       </c>
@@ -6078,7 +6114,7 @@
         <v>1.3995200588978393E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>104</v>
       </c>
@@ -6095,7 +6131,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="60" t="s">
         <v>415</v>
       </c>
@@ -6103,35 +6139,35 @@
         <v>423</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="60" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="60" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" s="60" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" s="53" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" s="53" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" s="53"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>418</v>
       </c>
@@ -6271,7 +6307,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>231</v>
       </c>
@@ -6412,7 +6448,7 @@
         <v>383.38393615751733</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>267</v>
       </c>
@@ -6553,7 +6589,7 @@
         <v>383383936.15751731</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" s="80" t="s">
         <v>169</v>
       </c>
@@ -6701,27 +6737,27 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="12" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.3984375" customWidth="1"/>
+    <col min="27" max="27" width="12.36328125" customWidth="1"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="61" t="s">
         <v>482</v>
       </c>
@@ -6747,7 +6783,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" s="87" t="s">
         <v>479</v>
       </c>
@@ -6773,7 +6809,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" s="87" t="s">
         <v>480</v>
       </c>
@@ -6799,7 +6835,7 @@
         <v>1644.0505094400003</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>488</v>
       </c>
@@ -6832,7 +6868,7 @@
         <v>140502600000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>489</v>
       </c>
@@ -6865,17 +6901,17 @@
         <v>652523647196736.13</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="53" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="53" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>449</v>
       </c>
@@ -7015,7 +7051,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>452</v>
       </c>
@@ -7156,7 +7192,7 @@
         <v>140502600000000</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>490</v>
       </c>
@@ -7304,7 +7340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AK85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7315,14 +7351,14 @@
       <selection pane="bottomRight" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.86328125" style="7" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.73046875" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="7"/>
+    <col min="1" max="1" width="20.81640625" style="7" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7265625" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9.08984375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="18" t="s">
         <v>12</v>
       </c>
@@ -7429,8 +7465,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
@@ -7441,7 +7477,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
@@ -7454,7 +7490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
@@ -7465,7 +7501,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
@@ -7476,7 +7512,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>50</v>
       </c>
@@ -7484,12 +7520,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18" t="s">
         <v>21</v>
       </c>
@@ -7599,7 +7635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>21</v>
       </c>
@@ -7709,17 +7745,17 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>55</v>
       </c>
@@ -7832,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>57</v>
       </c>
@@ -7945,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>59</v>
       </c>
@@ -8058,7 +8094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>61</v>
       </c>
@@ -8171,7 +8207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>63</v>
       </c>
@@ -8284,7 +8320,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>65</v>
       </c>
@@ -8397,7 +8433,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>67</v>
       </c>
@@ -8510,7 +8546,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>69</v>
       </c>
@@ -8623,7 +8659,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>71</v>
       </c>
@@ -8736,7 +8772,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>73</v>
       </c>
@@ -8849,7 +8885,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>75</v>
       </c>
@@ -8962,7 +8998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>77</v>
       </c>
@@ -9075,7 +9111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>79</v>
       </c>
@@ -9188,7 +9224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>81</v>
       </c>
@@ -9301,7 +9337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>83</v>
       </c>
@@ -9414,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>85</v>
       </c>
@@ -9527,7 +9563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>87</v>
       </c>
@@ -9640,7 +9676,7 @@
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>89</v>
       </c>
@@ -9753,7 +9789,7 @@
         <v>-2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>91</v>
       </c>
@@ -9866,7 +9902,7 @@
         <v>-2.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>93</v>
       </c>
@@ -9979,7 +10015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>95</v>
       </c>
@@ -10092,7 +10128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>97</v>
       </c>
@@ -10205,7 +10241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>99</v>
       </c>
@@ -10318,7 +10354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>101</v>
       </c>
@@ -10431,7 +10467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>103</v>
       </c>
@@ -10544,7 +10580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>105</v>
       </c>
@@ -10657,7 +10693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>107</v>
       </c>
@@ -10770,7 +10806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>109</v>
       </c>
@@ -10883,7 +10919,7 @@
         <v>1.9699999999999999E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>111</v>
       </c>
@@ -10996,7 +11032,7 @@
         <v>-4.8299999999999998E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>113</v>
       </c>
@@ -11109,7 +11145,7 @@
         <v>-3.1150000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>115</v>
       </c>
@@ -11222,12 +11258,12 @@
         <v>-1.013E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="25" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>118</v>
       </c>
@@ -11340,7 +11376,7 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>120</v>
       </c>
@@ -11453,7 +11489,7 @@
         <v>-3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>122</v>
       </c>
@@ -11566,7 +11602,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>124</v>
       </c>
@@ -11679,12 +11715,12 @@
         <v>-2.7700000000000001E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="21" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>127</v>
       </c>
@@ -11797,7 +11833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>129</v>
       </c>
@@ -11910,7 +11946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>131</v>
       </c>
@@ -12023,7 +12059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>133</v>
       </c>
@@ -12136,7 +12172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>135</v>
       </c>
@@ -12249,7 +12285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>137</v>
       </c>
@@ -12362,7 +12398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>139</v>
       </c>
@@ -12475,12 +12511,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
         <v>142</v>
       </c>
@@ -12593,7 +12629,7 @@
         <v>-1.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>143</v>
       </c>
@@ -12706,7 +12742,7 @@
         <v>-1.0139999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>145</v>
       </c>
@@ -12819,7 +12855,7 @@
         <v>-2.1699999999999999E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>147</v>
       </c>
@@ -12932,7 +12968,7 @@
         <v>2.8499999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>148</v>
       </c>
@@ -13045,7 +13081,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>150</v>
       </c>
@@ -13158,7 +13194,7 @@
         <v>-5.5000000000000002E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>152</v>
       </c>
@@ -13271,7 +13307,7 @@
         <v>-9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>154</v>
       </c>
@@ -13384,7 +13420,7 @@
         <v>2.5799999999999998E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>156</v>
       </c>
@@ -13497,7 +13533,7 @@
         <v>5.7700000000000004E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
         <v>157</v>
       </c>
@@ -13610,7 +13646,7 @@
         <v>-1.2830000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
         <v>158</v>
       </c>
@@ -13723,7 +13759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
         <v>160</v>
       </c>
@@ -13836,7 +13872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>162</v>
       </c>
@@ -13949,8 +13985,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="96" t="s">
         <v>164</v>
       </c>
@@ -13990,37 +14026,37 @@
       <c r="AJ78" s="96"/>
       <c r="AK78" s="96"/>
     </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="11" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="11" t="s">
         <v>26</v>
       </c>
@@ -14035,7 +14071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -14045,13 +14081,13 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.265625" customWidth="1"/>
+    <col min="1" max="1" width="36.26953125" customWidth="1"/>
     <col min="2" max="35" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>198</v>
       </c>
@@ -14158,7 +14194,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
@@ -14265,7 +14301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>34</v>
       </c>
@@ -14406,148 +14442,148 @@
         <v>1.7078846857670062E+16</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="12">
         <f>'Natural Gas'!B14</f>
-        <v>1175328000</v>
+        <v>1175328000000000</v>
       </c>
       <c r="C4" s="12">
         <f>'Natural Gas'!C14</f>
-        <v>1214506491.7213566</v>
+        <v>1214506491721356.5</v>
       </c>
       <c r="D4" s="12">
         <f>'Natural Gas'!D14</f>
-        <v>1254990962.8914802</v>
+        <v>1254990962891480</v>
       </c>
       <c r="E4" s="12">
         <f>'Natural Gas'!E14</f>
-        <v>1296824947.1495094</v>
+        <v>1296824947149509.3</v>
       </c>
       <c r="F4" s="12">
         <f>'Natural Gas'!F14</f>
-        <v>1340053429.2889171</v>
+        <v>1340053429288916.8</v>
       </c>
       <c r="G4" s="12">
         <f>'Natural Gas'!G14</f>
-        <v>1384722893.6304212</v>
+        <v>1384722893630420.8</v>
       </c>
       <c r="H4" s="12">
         <f>'Natural Gas'!H14</f>
-        <v>1449342887.8482506</v>
+        <v>1449342887848250.3</v>
       </c>
       <c r="I4" s="12">
         <f>'Natural Gas'!I14</f>
-        <v>1516978462.7804024</v>
+        <v>1516978462780402</v>
       </c>
       <c r="J4" s="12">
         <f>'Natural Gas'!J14</f>
-        <v>1587770344.6394777</v>
+        <v>1587770344639477.3</v>
       </c>
       <c r="K4" s="12">
         <f>'Natural Gas'!K14</f>
-        <v>1661865826.8199208</v>
+        <v>1661865826819920.3</v>
       </c>
       <c r="L4" s="12">
         <f>'Natural Gas'!L14</f>
-        <v>1739419076.3645723</v>
+        <v>1739419076364571.8</v>
       </c>
       <c r="M4" s="12">
         <f>'Natural Gas'!M14</f>
-        <v>1816809204.9845138</v>
+        <v>1816809204984513.3</v>
       </c>
       <c r="N4" s="12">
         <f>'Natural Gas'!N14</f>
-        <v>1897642570.5386672</v>
+        <v>1897642570538666.5</v>
       </c>
       <c r="O4" s="12">
         <f>'Natural Gas'!O14</f>
-        <v>1982072369.3170054</v>
+        <v>1982072369317004.8</v>
       </c>
       <c r="P4" s="12">
         <f>'Natural Gas'!P14</f>
-        <v>2070258613.6095941</v>
+        <v>2070258613609593.5</v>
       </c>
       <c r="Q4" s="12">
         <f>'Natural Gas'!Q14</f>
-        <v>2162368434.9636559</v>
+        <v>2162368434963655.5</v>
       </c>
       <c r="R4" s="12">
         <f>'Natural Gas'!R14</f>
-        <v>2254335327.7793608</v>
+        <v>2254335327779360.5</v>
       </c>
       <c r="S4" s="12">
         <f>'Natural Gas'!S14</f>
-        <v>2350213630.5275354</v>
+        <v>2350213630527535</v>
       </c>
       <c r="T4" s="12">
         <f>'Natural Gas'!T14</f>
-        <v>2450169697.9385767</v>
+        <v>2450169697938576</v>
       </c>
       <c r="U4" s="12">
         <f>'Natural Gas'!U14</f>
-        <v>2554376959.9144449</v>
+        <v>2554376959914444</v>
       </c>
       <c r="V4" s="12">
         <f>'Natural Gas'!V14</f>
-        <v>2663016222.4401703</v>
+        <v>2663016222440169</v>
       </c>
       <c r="W4" s="12">
         <f>'Natural Gas'!W14</f>
-        <v>2782500363.6382184</v>
+        <v>2782500363638217</v>
       </c>
       <c r="X4" s="12">
         <f>'Natural Gas'!X14</f>
-        <v>2907345516.1127028</v>
+        <v>2907345516112701.5</v>
       </c>
       <c r="Y4" s="12">
         <f>'Natural Gas'!Y14</f>
-        <v>3037792217.5753059</v>
+        <v>3037792217575304.5</v>
       </c>
       <c r="Z4" s="12">
         <f>'Natural Gas'!Z14</f>
-        <v>3174091798.1773744</v>
+        <v>3174091798177372.5</v>
       </c>
       <c r="AA4" s="12">
         <f>'Natural Gas'!AA14</f>
-        <v>3316506864.7448153</v>
+        <v>3316506864744813</v>
       </c>
       <c r="AB4" s="12">
         <f>'Natural Gas'!AB14</f>
-        <v>3474467101.4868736</v>
+        <v>3474467101486871.5</v>
       </c>
       <c r="AC4" s="12">
         <f>'Natural Gas'!AC14</f>
-        <v>3639950746.866148</v>
+        <v>3639950746866146</v>
       </c>
       <c r="AD4" s="12">
         <f>'Natural Gas'!AD14</f>
-        <v>3813316129.5271754</v>
+        <v>3813316129527173.5</v>
       </c>
       <c r="AE4" s="12">
         <f>'Natural Gas'!AE14</f>
-        <v>3994938644.7692084</v>
+        <v>3994938644769206.5</v>
       </c>
       <c r="AF4" s="12">
         <f>'Natural Gas'!AF14</f>
-        <v>4185211567.4053259</v>
+        <v>4185211567405324</v>
       </c>
       <c r="AG4" s="12">
         <f>'Natural Gas'!AG14</f>
-        <v>4185211567.4053259</v>
+        <v>4185211567405324</v>
       </c>
       <c r="AH4" s="12">
         <f>'Natural Gas'!AH14</f>
-        <v>4185211567.4053259</v>
+        <v>4185211567405324</v>
       </c>
       <c r="AI4" s="12">
         <f>'Natural Gas'!AI14</f>
-        <v>4185211567.4053259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+        <v>4185211567405324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>35</v>
       </c>
@@ -14688,7 +14724,7 @@
         <v>140502600000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>36</v>
       </c>
@@ -14795,7 +14831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
@@ -14902,7 +14938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>38</v>
       </c>
@@ -15009,7 +15045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>28</v>
       </c>
@@ -15150,7 +15186,7 @@
         <v>4857595486255192</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
         <v>29</v>
       </c>
@@ -15291,7 +15327,7 @@
         <v>1668106715464803.3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" s="29" t="s">
         <v>39</v>
       </c>
@@ -15432,7 +15468,7 @@
         <v>4801883515538662</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>40</v>
       </c>
@@ -15573,7 +15609,7 @@
         <v>782993152491217.38</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>41</v>
       </c>
@@ -15714,7 +15750,7 @@
         <v>195748288122804.34</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="29" t="s">
         <v>30</v>
       </c>
@@ -15855,7 +15891,7 @@
         <v>670364225570218.5</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>49</v>
       </c>
@@ -15962,7 +15998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>43</v>
       </c>
@@ -16069,7 +16105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>44</v>
       </c>
@@ -16210,7 +16246,7 @@
         <v>1013351831414501.4</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>31</v>
       </c>
@@ -16351,7 +16387,7 @@
         <v>2140824427537546.8</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
         <v>45</v>
       </c>
@@ -16492,7 +16528,7 @@
         <v>401963368680000</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" s="29" t="s">
         <v>32</v>
       </c>
@@ -16633,7 +16669,7 @@
         <v>554773438980000</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
@@ -16774,7 +16810,7 @@
         <v>1826053731607589.5</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
@@ -16881,7 +16917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
     </row>
   </sheetData>
@@ -16891,7 +16927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -16901,14 +16937,14 @@
       <selection activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.265625" customWidth="1"/>
+    <col min="1" max="1" width="36.26953125" customWidth="1"/>
     <col min="2" max="2" width="12" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="35" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>198</v>
       </c>
@@ -17015,7 +17051,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
@@ -17155,7 +17191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>34</v>
       </c>
@@ -17296,148 +17332,148 @@
         <v>1.5612810298214286E+16</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="12">
         <f>'Natural Gas'!B15</f>
-        <v>944568000</v>
+        <v>944568000000000</v>
       </c>
       <c r="C4" s="12">
         <f>'Natural Gas'!C15</f>
-        <v>993855703.87776399</v>
+        <v>993855703877764</v>
       </c>
       <c r="D4" s="12">
         <f>'Natural Gas'!D15</f>
-        <v>1045715247.7432708</v>
+        <v>1045715247743270.8</v>
       </c>
       <c r="E4" s="12">
         <f>'Natural Gas'!E15</f>
-        <v>1100280830.6036186</v>
+        <v>1100280830603618.5</v>
       </c>
       <c r="F4" s="12">
         <f>'Natural Gas'!F15</f>
-        <v>1157693653.9907875</v>
+        <v>1157693653990787.5</v>
       </c>
       <c r="G4" s="12">
         <f>'Natural Gas'!G15</f>
-        <v>1218102287.3544676</v>
+        <v>1218102287354467.5</v>
       </c>
       <c r="H4" s="12">
         <f>'Natural Gas'!H15</f>
-        <v>1247755023.3735068</v>
+        <v>1247755023373506.8</v>
       </c>
       <c r="I4" s="12">
         <f>'Natural Gas'!I15</f>
-        <v>1278129607.4364607</v>
+        <v>1278129607436460.5</v>
       </c>
       <c r="J4" s="12">
         <f>'Natural Gas'!J15</f>
-        <v>1309243611.7699921</v>
+        <v>1309243611769992</v>
       </c>
       <c r="K4" s="12">
         <f>'Natural Gas'!K15</f>
-        <v>1341115036.3682873</v>
+        <v>1341115036368287.3</v>
       </c>
       <c r="L4" s="12">
         <f>'Natural Gas'!L15</f>
-        <v>1373762319.4063666</v>
+        <v>1373762319406366.5</v>
       </c>
       <c r="M4" s="12">
         <f>'Natural Gas'!M15</f>
-        <v>1412029317.9276049</v>
+        <v>1412029317927605</v>
       </c>
       <c r="N4" s="12">
         <f>'Natural Gas'!N15</f>
-        <v>1451362267.3452525</v>
+        <v>1451362267345252.8</v>
       </c>
       <c r="O4" s="12">
         <f>'Natural Gas'!O15</f>
-        <v>1491790860.3803866</v>
+        <v>1491790860380387</v>
       </c>
       <c r="P4" s="12">
         <f>'Natural Gas'!P15</f>
-        <v>1533345616.863183</v>
+        <v>1533345616863183.5</v>
       </c>
       <c r="Q4" s="12">
         <f>'Natural Gas'!Q15</f>
-        <v>1576057906.7725513</v>
+        <v>1576057906772551.8</v>
       </c>
       <c r="R4" s="12">
         <f>'Natural Gas'!R15</f>
-        <v>1605166392.5616479</v>
+        <v>1605166392561648.5</v>
       </c>
       <c r="S4" s="12">
         <f>'Natural Gas'!S15</f>
-        <v>1634812488.0041039</v>
+        <v>1634812488004104.5</v>
       </c>
       <c r="T4" s="12">
         <f>'Natural Gas'!T15</f>
-        <v>1665006122.3054943</v>
+        <v>1665006122305495</v>
       </c>
       <c r="U4" s="12">
         <f>'Natural Gas'!U15</f>
-        <v>1695757408.0556078</v>
+        <v>1695757408055608.5</v>
       </c>
       <c r="V4" s="12">
         <f>'Natural Gas'!V15</f>
-        <v>1727076644.615401</v>
+        <v>1727076644615401.8</v>
       </c>
       <c r="W4" s="12">
         <f>'Natural Gas'!W15</f>
-        <v>1751421992.9585621</v>
+        <v>1751421992958562.8</v>
       </c>
       <c r="X4" s="12">
         <f>'Natural Gas'!X15</f>
-        <v>1776110520.0412412</v>
+        <v>1776110520041241.8</v>
       </c>
       <c r="Y4" s="12">
         <f>'Natural Gas'!Y15</f>
-        <v>1801147063.4055259</v>
+        <v>1801147063405526.5</v>
       </c>
       <c r="Z4" s="12">
         <f>'Natural Gas'!Z15</f>
-        <v>1826536528.784831</v>
+        <v>1826536528784831.5</v>
       </c>
       <c r="AA4" s="12">
         <f>'Natural Gas'!AA15</f>
-        <v>1852283891.065141</v>
+        <v>1852283891065141.5</v>
       </c>
       <c r="AB4" s="12">
         <f>'Natural Gas'!AB15</f>
-        <v>1835922871.4717398</v>
+        <v>1835922871471740.3</v>
       </c>
       <c r="AC4" s="12">
         <f>'Natural Gas'!AC15</f>
-        <v>1819706366.962353</v>
+        <v>1819706366962353.5</v>
       </c>
       <c r="AD4" s="12">
         <f>'Natural Gas'!AD15</f>
-        <v>1803633101.0511608</v>
+        <v>1803633101051161.3</v>
       </c>
       <c r="AE4" s="12">
         <f>'Natural Gas'!AE15</f>
-        <v>1787701808.5274019</v>
+        <v>1787701808527402.5</v>
       </c>
       <c r="AF4" s="12">
         <f>'Natural Gas'!AF15</f>
-        <v>1771911235.3557827</v>
+        <v>1771911235355783.3</v>
       </c>
       <c r="AG4" s="12">
         <f>'Natural Gas'!AG15</f>
-        <v>1771911235.3557827</v>
+        <v>1771911235355783.3</v>
       </c>
       <c r="AH4" s="12">
         <f>'Natural Gas'!AH15</f>
-        <v>1771911235.3557827</v>
+        <v>1771911235355783.3</v>
       </c>
       <c r="AI4" s="12">
         <f>'Natural Gas'!AI15</f>
-        <v>1771911235.3557827</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+        <v>1771911235355783.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>35</v>
       </c>
@@ -17578,7 +17614,7 @@
         <v>652523647196736.13</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>36</v>
       </c>
@@ -17718,7 +17754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
@@ -17858,7 +17894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>38</v>
       </c>
@@ -17998,7 +18034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>28</v>
       </c>
@@ -18138,7 +18174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
         <v>29</v>
       </c>
@@ -18279,7 +18315,7 @@
         <v>1060257404574062.8</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" s="29" t="s">
         <v>39</v>
       </c>
@@ -18420,7 +18456,7 @@
         <v>1.2618610751802188E+16</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>40</v>
       </c>
@@ -18560,7 +18596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>41</v>
       </c>
@@ -18700,7 +18736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="29" t="s">
         <v>30</v>
       </c>
@@ -18841,7 +18877,7 @@
         <v>395365774429781.5</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>42</v>
       </c>
@@ -18981,7 +19017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>43</v>
       </c>
@@ -19121,7 +19157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>44</v>
       </c>
@@ -19262,7 +19298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>31</v>
       </c>
@@ -19403,7 +19439,7 @@
         <v>3.5117401196108456E+16</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
         <v>45</v>
       </c>
@@ -19544,7 +19580,7 @@
         <v>563509586280000</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" s="29" t="s">
         <v>32</v>
       </c>
@@ -19685,7 +19721,7 @@
         <v>7780824094509000</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
@@ -19825,7 +19861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
@@ -19965,7 +20001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
     </row>
   </sheetData>
@@ -19975,7 +20011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -19985,14 +20021,14 @@
       <selection activeCell="AE27" sqref="AE27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.265625" customWidth="1"/>
+    <col min="1" max="1" width="36.26953125" customWidth="1"/>
     <col min="2" max="2" width="12" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="35" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>198</v>
       </c>
@@ -20099,7 +20135,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
@@ -20206,7 +20242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>34</v>
       </c>
@@ -20347,7 +20383,7 @@
         <v>15057155884348.047</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
@@ -20488,7 +20524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>35</v>
       </c>
@@ -20628,7 +20664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>36</v>
       </c>
@@ -20735,7 +20771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
@@ -20842,7 +20878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>38</v>
       </c>
@@ -20949,7 +20985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>28</v>
       </c>
@@ -21089,7 +21125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
         <v>29</v>
       </c>
@@ -21230,7 +21266,7 @@
         <v>619624120038866</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" s="29" t="s">
         <v>39</v>
       </c>
@@ -21371,7 +21407,7 @@
         <v>1313794267340850.5</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>40</v>
       </c>
@@ -21478,7 +21514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>41</v>
       </c>
@@ -21618,7 +21654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="29" t="s">
         <v>30</v>
       </c>
@@ -21759,7 +21795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>42</v>
       </c>
@@ -21866,7 +21902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>43</v>
       </c>
@@ -21973,7 +22009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>44</v>
       </c>
@@ -22114,7 +22150,7 @@
         <v>58666666666.666664</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>31</v>
       </c>
@@ -22255,7 +22291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
         <v>45</v>
       </c>
@@ -22396,7 +22432,7 @@
         <v>105596954960000</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" s="29" t="s">
         <v>32</v>
       </c>
@@ -22537,7 +22573,7 @@
         <v>16087533489000</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
@@ -22644,7 +22680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
@@ -22751,7 +22787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
     </row>
   </sheetData>
@@ -22761,7 +22797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -22771,18 +22807,18 @@
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="21.265625" customWidth="1"/>
-    <col min="3" max="3" width="26.59765625" customWidth="1"/>
-    <col min="6" max="6" width="21.1328125" customWidth="1"/>
-    <col min="7" max="7" width="11.73046875" customWidth="1"/>
-    <col min="8" max="8" width="26.73046875" customWidth="1"/>
-    <col min="9" max="9" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="26.6328125" customWidth="1"/>
+    <col min="6" max="6" width="21.08984375" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" customWidth="1"/>
+    <col min="9" max="9" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>199</v>
       </c>
@@ -22795,7 +22831,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
         <v>200</v>
       </c>
@@ -22816,7 +22852,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>202</v>
       </c>
@@ -22837,7 +22873,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="38">
         <v>2010</v>
       </c>
@@ -22860,7 +22896,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="38">
         <v>2011</v>
       </c>
@@ -22883,7 +22919,7 @@
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="38">
         <v>2012</v>
       </c>
@@ -22906,7 +22942,7 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="38">
         <v>2013</v>
       </c>
@@ -22929,7 +22965,7 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="38">
         <v>2014</v>
       </c>
@@ -22952,7 +22988,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="38">
         <v>2015</v>
       </c>
@@ -22975,7 +23011,7 @@
         <v>7.37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="38">
         <v>2016</v>
       </c>
@@ -22998,7 +23034,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="38">
         <v>2017</v>
       </c>
@@ -23021,7 +23057,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="38">
         <v>2018</v>
       </c>
@@ -23035,7 +23071,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
         <v>205</v>
       </c>
@@ -23044,7 +23080,7 @@
       </c>
       <c r="C13" s="38"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="38">
         <v>2010</v>
       </c>
@@ -23053,7 +23089,7 @@
       </c>
       <c r="C14" s="38"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="38">
         <v>2011</v>
       </c>
@@ -23062,7 +23098,7 @@
       </c>
       <c r="C15" s="38"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="38">
         <v>2012</v>
       </c>
@@ -23071,7 +23107,7 @@
       </c>
       <c r="C16" s="38"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="38">
         <v>2013</v>
       </c>
@@ -23080,7 +23116,7 @@
       </c>
       <c r="C17" s="38"/>
     </row>
-    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="38">
         <v>2014</v>
       </c>
@@ -23089,7 +23125,7 @@
       </c>
       <c r="C18" s="38"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="38">
         <v>2015</v>
       </c>
@@ -23098,7 +23134,7 @@
       </c>
       <c r="C19" s="38"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="38">
         <v>2016</v>
       </c>
@@ -23107,7 +23143,7 @@
       </c>
       <c r="C20" s="38"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="38">
         <v>2017</v>
       </c>
@@ -23116,7 +23152,7 @@
       </c>
       <c r="C21" s="38"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="38">
         <v>2018</v>
       </c>
@@ -23125,14 +23161,14 @@
       </c>
       <c r="C22" s="38"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>206</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="38" t="s">
         <v>207</v>
       </c>
@@ -23141,7 +23177,7 @@
       </c>
       <c r="C24" s="38"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="38" t="s">
         <v>208</v>
       </c>
@@ -23150,7 +23186,7 @@
       </c>
       <c r="C25" s="38"/>
     </row>
-    <row r="26" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="42" t="s">
         <v>209</v>
       </c>
@@ -23159,14 +23195,14 @@
       </c>
       <c r="C26" s="38"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>211</v>
       </c>
@@ -23178,7 +23214,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>213</v>
       </c>
@@ -23190,7 +23226,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>214</v>
       </c>
@@ -23202,7 +23238,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B32" s="43">
         <v>3.9656699999999998</v>
       </c>
@@ -23210,7 +23246,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B33" s="15">
         <f>B31*B32</f>
         <v>12670.315649999999</v>
@@ -23219,7 +23255,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B34" s="31">
         <f>B33*1000</f>
         <v>12670315.649999999</v>
@@ -23228,14 +23264,14 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>475</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>5670000</v>
       </c>
@@ -23243,7 +23279,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B38" s="15">
         <f>B37/B24</f>
         <v>35663.225930624649</v>
@@ -23252,14 +23288,14 @@
         <v>218</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>10700</v>
       </c>
@@ -23267,7 +23303,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>8.5299999999999994</v>
       </c>
@@ -23275,7 +23311,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B43" s="31">
         <f>B41*1000/B42</f>
         <v>1254396.248534584</v>
@@ -23284,7 +23320,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B44" s="31">
         <f>B43*B25</f>
         <v>4974521.5709261429</v>
@@ -23293,7 +23329,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B45" s="31">
         <f>B44/B24</f>
         <v>31288.798356385338</v>
@@ -23302,14 +23338,14 @@
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>5.8170000000000002</v>
       </c>
@@ -23317,7 +23353,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B49">
         <f>B48/B24</f>
         <v>3.6587828084381581E-2</v>
@@ -23326,7 +23362,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B50" s="31">
         <f>B49*10^6</f>
         <v>36587.828084381581</v>
@@ -23335,17 +23371,17 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B51" s="31"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B52" s="44"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="38"/>
       <c r="B53" s="38">
         <v>11300</v>
@@ -23354,7 +23390,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="38"/>
       <c r="B54" s="38">
         <f>B53*1000</f>
@@ -23364,7 +23400,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="38"/>
       <c r="B55" s="45">
         <f>B54*B25</f>
@@ -23374,14 +23410,14 @@
         <v>216</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="38"/>
       <c r="B58" s="38">
         <v>36</v>
@@ -23390,7 +23426,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="38"/>
       <c r="B59" s="38">
         <f>B58*10^6</f>
@@ -23400,14 +23436,14 @@
         <v>229</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B62" s="17">
         <f>'Heat content of coal'!B9</f>
         <v>3616.0720537220332</v>
@@ -23416,7 +23452,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B63">
         <f>B25*B62</f>
         <v>14340.148461283854</v>
@@ -23425,7 +23461,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B64">
         <f>B63*1000</f>
         <v>14340148.461283853</v>
@@ -23434,14 +23470,14 @@
         <v>216</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>5.8</v>
       </c>
@@ -23449,7 +23485,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B68">
         <f>B67*10^6</f>
         <v>5800000</v>
@@ -23458,14 +23494,14 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>12.93</v>
       </c>
@@ -23473,7 +23509,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>3.2589999999999999</v>
       </c>
@@ -23481,7 +23517,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>6.2899999999999996E-3</v>
       </c>
@@ -23489,14 +23525,14 @@
         <v>331</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>366</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>3750</v>
       </c>
@@ -23504,7 +23540,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B77" s="43">
         <v>3.9656699999999998</v>
       </c>
@@ -23512,7 +23548,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B78">
         <f>B76*B77</f>
         <v>14871.262499999999</v>
@@ -23521,7 +23557,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B79">
         <f>B78*1000</f>
         <v>14871262.499999998</v>
@@ -23530,14 +23566,14 @@
         <v>216</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B82" s="43">
         <f>1/3</f>
         <v>0.33333333333333331</v>
@@ -23546,7 +23582,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>40</v>
       </c>
@@ -23554,7 +23590,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B84" s="17">
         <f>B82*B83</f>
         <v>13.333333333333332</v>
@@ -23563,7 +23599,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B85">
         <f>B84*10^6</f>
         <v>13333333.333333332</v>
@@ -23572,14 +23608,14 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>483</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B88" s="88">
         <v>1000</v>
       </c>
@@ -23587,7 +23623,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B89" s="88">
         <v>2.2050000000000001</v>
       </c>
@@ -23595,7 +23631,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B90" s="88">
         <f>B88*B89</f>
         <v>2205</v>
@@ -23604,7 +23640,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>180000000</v>
       </c>
@@ -23612,7 +23648,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B92">
         <f>B91*B90</f>
         <v>396900000000</v>
@@ -23627,21 +23663,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.06640625" customWidth="1"/>
-    <col min="2" max="2" width="22.9296875" customWidth="1"/>
-    <col min="3" max="3" width="20.73046875" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="93"/>
       <c r="B1" s="95" t="s">
         <v>559</v>
@@ -23651,7 +23687,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="93"/>
       <c r="B2" s="93" t="s">
         <v>561</v>
@@ -23660,7 +23696,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="93" t="s">
         <v>563</v>
       </c>
@@ -23671,12 +23707,12 @@
         <v>14262</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>565</v>
       </c>
@@ -23685,7 +23721,7 @@
         <v>239000000000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>566</v>
       </c>
@@ -23694,7 +23730,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="85" t="s">
         <v>567</v>
       </c>
@@ -23708,7 +23744,7 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1"/>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -23717,19 +23753,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="65.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>198</v>
       </c>
@@ -23830,7 +23866,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>533</v>
       </c>
@@ -23931,7 +23967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="85" t="s">
         <v>534</v>
       </c>
@@ -24032,7 +24068,7 @@
         <v>3.26766E+16</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>535</v>
       </c>
@@ -24133,7 +24169,7 @@
         <v>9179250000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>536</v>
       </c>
@@ -24234,7 +24270,7 @@
         <v>1159740000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>537</v>
       </c>
@@ -24335,7 +24371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>538</v>
       </c>
@@ -24436,7 +24472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>539</v>
       </c>
@@ -24537,7 +24573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>540</v>
       </c>
@@ -24638,7 +24674,7 @@
         <v>7468660000000000</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="85" t="s">
         <v>541</v>
       </c>
@@ -24739,7 +24775,7 @@
         <v>2108740000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="85" t="s">
         <v>542</v>
       </c>
@@ -24840,7 +24876,7 @@
         <v>1.61067E+16</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>543</v>
       </c>
@@ -24941,7 +24977,7 @@
         <v>155557000000000</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>544</v>
       </c>
@@ -25042,7 +25078,7 @@
         <v>742314000000000</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" s="85" t="s">
         <v>545</v>
       </c>
@@ -25143,7 +25179,7 @@
         <v>1065730000000000</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>546</v>
       </c>
@@ -25244,7 +25280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -25345,7 +25381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="85" t="s">
         <v>548</v>
       </c>
@@ -25446,7 +25482,7 @@
         <v>2775440000000</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>549</v>
       </c>
@@ -25547,7 +25583,7 @@
         <v>4.19429E+16</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" s="85" t="s">
         <v>550</v>
       </c>
@@ -25648,7 +25684,7 @@
         <v>859876000000000</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="85" t="s">
         <v>551</v>
       </c>
@@ -25749,7 +25785,7 @@
         <v>8319510000000000</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>552</v>
       </c>
@@ -25850,7 +25886,7 @@
         <v>94335000000</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>553</v>
       </c>
@@ -25957,20 +25993,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.86328125" customWidth="1"/>
-    <col min="2" max="2" width="14.86328125" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" customWidth="1"/>
-    <col min="6" max="6" width="11.86328125" customWidth="1"/>
-    <col min="8" max="8" width="9.86328125" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
@@ -25978,7 +26014,7 @@
     <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
         <v>270</v>
       </c>
@@ -25992,7 +26028,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
         <v>187</v>
       </c>
@@ -26027,7 +26063,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>231</v>
       </c>
@@ -26062,7 +26098,7 @@
         <v>681.48955457326065</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>267</v>
       </c>
@@ -26105,7 +26141,7 @@
         <v>6.1440264772157069E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>268</v>
       </c>
@@ -26148,7 +26184,7 @@
         <v>1.2288052954431413E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>269</v>
       </c>
@@ -26167,7 +26203,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -26204,7 +26240,7 @@
         <v>6160.0469475287728</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="F8" t="s">
         <v>447</v>
       </c>
@@ -26233,7 +26269,7 @@
         <v>8.6140670137598713E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" s="53" t="s">
         <v>272</v>
       </c>
@@ -26265,7 +26301,7 @@
         <v>1.7228134027519743E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" s="53" t="s">
         <v>273</v>
       </c>
@@ -26273,7 +26309,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" s="53" t="s">
         <v>275</v>
       </c>
@@ -26281,7 +26317,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="51" t="s">
         <v>449</v>
       </c>
@@ -26421,7 +26457,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>452</v>
       </c>
@@ -26562,7 +26598,7 @@
         <v>2140824427537546.8</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>461</v>
       </c>
@@ -26703,7 +26739,7 @@
         <v>3.5117401196108456E+16</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="31"/>
     </row>
   </sheetData>
@@ -26713,20 +26749,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.73046875" customWidth="1"/>
-    <col min="2" max="2" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1328125" customWidth="1"/>
-    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.73046875" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
@@ -26735,7 +26771,7 @@
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
         <v>276</v>
       </c>
@@ -26749,7 +26785,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
         <v>187</v>
       </c>
@@ -26784,7 +26820,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>278</v>
       </c>
@@ -26819,17 +26855,17 @@
         <v>1202.5874060242666</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>279</v>
       </c>
       <c r="B4">
-        <f>B3/10^6</f>
-        <v>3.2648000000000003E-2</v>
+        <f>B3*10^6</f>
+        <v>32648000000</v>
       </c>
       <c r="C4">
-        <f>C3/10^6</f>
-        <v>2.6238000000000001E-2</v>
+        <f>C3*10^6</f>
+        <v>26238000000</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -26862,17 +26898,17 @@
         <v>0.23814248422219494</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="55" t="s">
         <v>280</v>
       </c>
       <c r="B5">
-        <f>B4*1000</f>
-        <v>32.648000000000003</v>
+        <f>B4/1000</f>
+        <v>32648000</v>
       </c>
       <c r="C5">
-        <f>C4*1000</f>
-        <v>26.238</v>
+        <f>C4/1000</f>
+        <v>26238000</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -26905,17 +26941,17 @@
         <v>4.762849684443899E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>169</v>
       </c>
       <c r="B6">
         <f>B5*'Conversion Factors'!$B$59</f>
-        <v>1175328000</v>
+        <v>1175328000000000</v>
       </c>
       <c r="C6">
         <f>C5*'Conversion Factors'!$B$59</f>
-        <v>944568000</v>
+        <v>944568000000000</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -26924,7 +26960,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="G7">
         <v>466.15766709765376</v>
       </c>
@@ -26947,7 +26983,7 @@
         <v>839.55514940809985</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="53" t="s">
         <v>272</v>
       </c>
@@ -26979,7 +27015,7 @@
         <v>-4.4164449284264037E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" s="53" t="s">
         <v>281</v>
       </c>
@@ -27011,7 +27047,7 @@
         <v>-8.8328898568528075E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" s="53" t="s">
         <v>282</v>
       </c>
@@ -27019,12 +27055,12 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="F11" s="53" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="51" t="s">
         <v>449</v>
       </c>
@@ -27164,286 +27200,286 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>452</v>
       </c>
       <c r="B14">
         <f>B6</f>
-        <v>1175328000</v>
+        <v>1175328000000000</v>
       </c>
       <c r="C14">
         <f>B14*(1+$H$5)</f>
-        <v>1214506491.7213566</v>
+        <v>1214506491721356.5</v>
       </c>
       <c r="D14">
         <f t="shared" ref="D14:G14" si="5">C14*(1+$H$5)</f>
-        <v>1254990962.8914802</v>
+        <v>1254990962891480</v>
       </c>
       <c r="E14">
         <f t="shared" si="5"/>
-        <v>1296824947.1495094</v>
+        <v>1296824947149509.3</v>
       </c>
       <c r="F14">
         <f t="shared" si="5"/>
-        <v>1340053429.2889171</v>
+        <v>1340053429288916.8</v>
       </c>
       <c r="G14">
         <f t="shared" si="5"/>
-        <v>1384722893.6304212</v>
+        <v>1384722893630420.8</v>
       </c>
       <c r="H14">
         <f>G14*(1+$I$5)</f>
-        <v>1449342887.8482506</v>
+        <v>1449342887848250.3</v>
       </c>
       <c r="I14">
         <f t="shared" ref="I14:L14" si="6">H14*(1+$I$5)</f>
-        <v>1516978462.7804024</v>
+        <v>1516978462780402</v>
       </c>
       <c r="J14">
         <f t="shared" si="6"/>
-        <v>1587770344.6394777</v>
+        <v>1587770344639477.3</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>1661865826.8199208</v>
+        <v>1661865826819920.3</v>
       </c>
       <c r="L14">
         <f t="shared" si="6"/>
-        <v>1739419076.3645723</v>
+        <v>1739419076364571.8</v>
       </c>
       <c r="M14">
         <f>L14*(1+$J$5)</f>
-        <v>1816809204.9845138</v>
+        <v>1816809204984513.3</v>
       </c>
       <c r="N14">
         <f t="shared" ref="N14:Q14" si="7">M14*(1+$J$5)</f>
-        <v>1897642570.5386672</v>
+        <v>1897642570538666.5</v>
       </c>
       <c r="O14">
         <f t="shared" si="7"/>
-        <v>1982072369.3170054</v>
+        <v>1982072369317004.8</v>
       </c>
       <c r="P14">
         <f t="shared" si="7"/>
-        <v>2070258613.6095941</v>
+        <v>2070258613609593.5</v>
       </c>
       <c r="Q14">
         <f t="shared" si="7"/>
-        <v>2162368434.9636559</v>
+        <v>2162368434963655.5</v>
       </c>
       <c r="R14">
         <f>Q14*(1+$K$5)</f>
-        <v>2254335327.7793608</v>
+        <v>2254335327779360.5</v>
       </c>
       <c r="S14">
         <f t="shared" ref="S14:V14" si="8">R14*(1+$K$5)</f>
-        <v>2350213630.5275354</v>
+        <v>2350213630527535</v>
       </c>
       <c r="T14">
         <f t="shared" si="8"/>
-        <v>2450169697.9385767</v>
+        <v>2450169697938576</v>
       </c>
       <c r="U14">
         <f t="shared" si="8"/>
-        <v>2554376959.9144449</v>
+        <v>2554376959914444</v>
       </c>
       <c r="V14">
         <f t="shared" si="8"/>
-        <v>2663016222.4401703</v>
+        <v>2663016222440169</v>
       </c>
       <c r="W14">
         <f>V14*(1+$L$5)</f>
-        <v>2782500363.6382184</v>
+        <v>2782500363638217</v>
       </c>
       <c r="X14">
         <f t="shared" ref="X14:AA14" si="9">W14*(1+$L$5)</f>
-        <v>2907345516.1127028</v>
+        <v>2907345516112701.5</v>
       </c>
       <c r="Y14">
         <f t="shared" si="9"/>
-        <v>3037792217.5753059</v>
+        <v>3037792217575304.5</v>
       </c>
       <c r="Z14">
         <f t="shared" si="9"/>
-        <v>3174091798.1773744</v>
+        <v>3174091798177372.5</v>
       </c>
       <c r="AA14">
         <f t="shared" si="9"/>
-        <v>3316506864.7448153</v>
+        <v>3316506864744813</v>
       </c>
       <c r="AB14">
         <f>AA14*(1+$M$5)</f>
-        <v>3474467101.4868736</v>
+        <v>3474467101486871.5</v>
       </c>
       <c r="AC14">
         <f t="shared" ref="AC14:AF14" si="10">AB14*(1+$M$5)</f>
-        <v>3639950746.866148</v>
+        <v>3639950746866146</v>
       </c>
       <c r="AD14">
         <f t="shared" si="10"/>
-        <v>3813316129.5271754</v>
+        <v>3813316129527173.5</v>
       </c>
       <c r="AE14">
         <f t="shared" si="10"/>
-        <v>3994938644.7692084</v>
+        <v>3994938644769206.5</v>
       </c>
       <c r="AF14">
         <f t="shared" si="10"/>
-        <v>4185211567.4053259</v>
+        <v>4185211567405324</v>
       </c>
       <c r="AG14">
         <f>AF14</f>
-        <v>4185211567.4053259</v>
+        <v>4185211567405324</v>
       </c>
       <c r="AH14">
         <f t="shared" ref="AH14:AI14" si="11">AG14</f>
-        <v>4185211567.4053259</v>
+        <v>4185211567405324</v>
       </c>
       <c r="AI14">
         <f t="shared" si="11"/>
-        <v>4185211567.4053259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+        <v>4185211567405324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>461</v>
       </c>
       <c r="B15">
         <f>C6</f>
-        <v>944568000</v>
+        <v>944568000000000</v>
       </c>
       <c r="C15">
         <f>B15*(1+$H$9)</f>
-        <v>993855703.87776399</v>
+        <v>993855703877764</v>
       </c>
       <c r="D15">
         <f t="shared" ref="D15:G15" si="12">C15*(1+$H$9)</f>
-        <v>1045715247.7432708</v>
+        <v>1045715247743270.8</v>
       </c>
       <c r="E15">
         <f t="shared" si="12"/>
-        <v>1100280830.6036186</v>
+        <v>1100280830603618.5</v>
       </c>
       <c r="F15">
         <f t="shared" si="12"/>
-        <v>1157693653.9907875</v>
+        <v>1157693653990787.5</v>
       </c>
       <c r="G15">
         <f t="shared" si="12"/>
-        <v>1218102287.3544676</v>
+        <v>1218102287354467.5</v>
       </c>
       <c r="H15">
         <f>G15*(1+$I$9)</f>
-        <v>1247755023.3735068</v>
+        <v>1247755023373506.8</v>
       </c>
       <c r="I15">
         <f t="shared" ref="I15:L15" si="13">H15*(1+$I$9)</f>
-        <v>1278129607.4364607</v>
+        <v>1278129607436460.5</v>
       </c>
       <c r="J15">
         <f t="shared" si="13"/>
-        <v>1309243611.7699921</v>
+        <v>1309243611769992</v>
       </c>
       <c r="K15">
         <f t="shared" si="13"/>
-        <v>1341115036.3682873</v>
+        <v>1341115036368287.3</v>
       </c>
       <c r="L15">
         <f t="shared" si="13"/>
-        <v>1373762319.4063666</v>
+        <v>1373762319406366.5</v>
       </c>
       <c r="M15">
         <f>L15*(1+$J$9)</f>
-        <v>1412029317.9276049</v>
+        <v>1412029317927605</v>
       </c>
       <c r="N15">
         <f t="shared" ref="N15:Q15" si="14">M15*(1+$J$9)</f>
-        <v>1451362267.3452525</v>
+        <v>1451362267345252.8</v>
       </c>
       <c r="O15">
         <f t="shared" si="14"/>
-        <v>1491790860.3803866</v>
+        <v>1491790860380387</v>
       </c>
       <c r="P15">
         <f t="shared" si="14"/>
-        <v>1533345616.863183</v>
+        <v>1533345616863183.5</v>
       </c>
       <c r="Q15">
         <f t="shared" si="14"/>
-        <v>1576057906.7725513</v>
+        <v>1576057906772551.8</v>
       </c>
       <c r="R15">
         <f>Q15*(1+$K$9)</f>
-        <v>1605166392.5616479</v>
+        <v>1605166392561648.5</v>
       </c>
       <c r="S15">
         <f t="shared" ref="S15:V15" si="15">R15*(1+$K$9)</f>
-        <v>1634812488.0041039</v>
+        <v>1634812488004104.5</v>
       </c>
       <c r="T15">
         <f t="shared" si="15"/>
-        <v>1665006122.3054943</v>
+        <v>1665006122305495</v>
       </c>
       <c r="U15">
         <f t="shared" si="15"/>
-        <v>1695757408.0556078</v>
+        <v>1695757408055608.5</v>
       </c>
       <c r="V15">
         <f t="shared" si="15"/>
-        <v>1727076644.615401</v>
+        <v>1727076644615401.8</v>
       </c>
       <c r="W15">
         <f>V15*(1+$L$9)</f>
-        <v>1751421992.9585621</v>
+        <v>1751421992958562.8</v>
       </c>
       <c r="X15">
         <f t="shared" ref="X15:AA15" si="16">W15*(1+$L$9)</f>
-        <v>1776110520.0412412</v>
+        <v>1776110520041241.8</v>
       </c>
       <c r="Y15">
         <f t="shared" si="16"/>
-        <v>1801147063.4055259</v>
+        <v>1801147063405526.5</v>
       </c>
       <c r="Z15">
         <f t="shared" si="16"/>
-        <v>1826536528.784831</v>
+        <v>1826536528784831.5</v>
       </c>
       <c r="AA15">
         <f t="shared" si="16"/>
-        <v>1852283891.065141</v>
+        <v>1852283891065141.5</v>
       </c>
       <c r="AB15">
         <f>AA15*(1+$M$9)</f>
-        <v>1835922871.4717398</v>
+        <v>1835922871471740.3</v>
       </c>
       <c r="AC15">
         <f t="shared" ref="AC15:AF15" si="17">AB15*(1+$M$9)</f>
-        <v>1819706366.962353</v>
+        <v>1819706366962353.5</v>
       </c>
       <c r="AD15">
         <f t="shared" si="17"/>
-        <v>1803633101.0511608</v>
+        <v>1803633101051161.3</v>
       </c>
       <c r="AE15">
         <f t="shared" si="17"/>
-        <v>1787701808.5274019</v>
+        <v>1787701808527402.5</v>
       </c>
       <c r="AF15">
         <f t="shared" si="17"/>
-        <v>1771911235.3557827</v>
+        <v>1771911235355783.3</v>
       </c>
       <c r="AG15">
         <f>AF15</f>
-        <v>1771911235.3557827</v>
+        <v>1771911235355783.3</v>
       </c>
       <c r="AH15">
         <f t="shared" ref="AH15:AI15" si="18">AG15</f>
-        <v>1771911235.3557827</v>
+        <v>1771911235355783.3</v>
       </c>
       <c r="AI15">
         <f t="shared" si="18"/>
-        <v>1771911235.3557827</v>
+        <v>1771911235355783.3</v>
       </c>
     </row>
   </sheetData>
@@ -27452,27 +27488,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" customWidth="1"/>
-    <col min="2" max="2" width="16.86328125" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" customWidth="1"/>
-    <col min="4" max="4" width="22.73046875" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.08984375" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
         <v>300</v>
       </c>
@@ -27486,7 +27522,7 @@
       <c r="K1" s="51"/>
       <c r="L1" s="54"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
         <v>187</v>
       </c>
@@ -27512,7 +27548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="55" t="s">
         <v>290</v>
       </c>
@@ -27538,7 +27574,7 @@
         <v>14035</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>267</v>
       </c>
@@ -27570,7 +27606,7 @@
         <v>14035000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="55" t="s">
         <v>169</v>
       </c>
@@ -27602,7 +27638,7 @@
         <v>19803385000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D6">
         <v>0</v>
       </c>
@@ -27622,7 +27658,7 @@
         <v>619624120038866</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="51" t="s">
         <v>301</v>
       </c>
@@ -27638,7 +27674,7 @@
       <c r="K8" s="51"/>
       <c r="L8" s="54"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="52" t="s">
         <v>187</v>
       </c>
@@ -27666,7 +27702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="55" t="s">
         <v>290</v>
       </c>
@@ -27694,7 +27730,7 @@
         <v>29676</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>267</v>
       </c>
@@ -27728,7 +27764,7 @@
         <v>29676000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="55" t="s">
         <v>332</v>
       </c>
@@ -27761,7 +27797,7 @@
         <v>35907960000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -27795,11 +27831,11 @@
         <v>1313794267340850.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="51" t="s">
         <v>302</v>
       </c>
@@ -27812,7 +27848,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="52" t="s">
         <v>187</v>
       </c>
@@ -27831,7 +27867,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="55" t="s">
         <v>290</v>
       </c>
@@ -27848,7 +27884,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>267</v>
       </c>
@@ -27877,7 +27913,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" s="55" t="s">
         <v>268</v>
       </c>
@@ -27909,7 +27945,7 @@
         <v>6.7451599347432651E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>269</v>
       </c>
@@ -27941,7 +27977,7 @@
         <v>0.13833916247672218</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>169</v>
       </c>
@@ -27973,7 +28009,7 @@
         <v>4.4274552734519634E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="53" t="s">
         <v>285</v>
       </c>
@@ -27993,7 +28029,7 @@
         <v>0.25979518811534769</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" s="53" t="s">
         <v>286</v>
       </c>
@@ -28013,7 +28049,7 @@
         <v>0.55084593673866733</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="I24" t="s">
         <v>10</v>
       </c>
@@ -28029,7 +28065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="I25" t="s">
         <v>523</v>
       </c>
@@ -28046,12 +28082,12 @@
         <v>2385048485823980</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>2019</v>
       </c>
@@ -28149,7 +28185,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>569</v>
       </c>
@@ -28282,7 +28318,7 @@
         <v>670364225570218.5</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>570</v>
       </c>
@@ -28392,7 +28428,7 @@
         <v>395365774429781.5</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>571</v>
       </c>
@@ -28516,7 +28552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
       <c r="D34" s="31"/>
@@ -28557,32 +28593,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AN20"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="11.1328125" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.1328125" customWidth="1"/>
-    <col min="6" max="6" width="21.59765625" customWidth="1"/>
+    <col min="5" max="5" width="4.08984375" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.86328125" customWidth="1"/>
-    <col min="18" max="18" width="9.3984375" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" customWidth="1"/>
+    <col min="18" max="18" width="9.36328125" customWidth="1"/>
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
         <v>291</v>
       </c>
@@ -28596,7 +28632,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
         <v>187</v>
       </c>
@@ -28631,7 +28667,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>296</v>
       </c>
@@ -28667,7 +28703,7 @@
         <v>5380.05</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>267</v>
       </c>
@@ -28711,7 +28747,7 @@
         <v>-2.6913372582001712E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="55" t="s">
         <v>169</v>
       </c>
@@ -28755,7 +28791,7 @@
         <v>-5.3826745164003422E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D6">
         <v>0</v>
       </c>
@@ -28766,7 +28802,7 @@
       <c r="J6" s="56"/>
       <c r="K6" s="56"/>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H7">
         <v>1075.4762345933309</v>
       </c>
@@ -28789,7 +28825,7 @@
         <v>7765.1919130140896</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A8" s="53" t="s">
         <v>292</v>
       </c>
@@ -28821,7 +28857,7 @@
         <v>0.24083379263953766</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9" s="53" t="s">
         <v>294</v>
       </c>
@@ -28853,7 +28889,7 @@
         <v>4.8166758527907534E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10" s="53" t="s">
         <v>295</v>
       </c>
@@ -28861,7 +28897,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" s="51" t="s">
         <v>293</v>
       </c>
@@ -28872,7 +28908,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A12" s="52" t="s">
         <v>187</v>
       </c>
@@ -28886,7 +28922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>296</v>
       </c>
@@ -29038,7 +29074,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>267</v>
       </c>
@@ -29194,7 +29230,7 @@
         <v>1.7078846857670062E+16</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15" s="55" t="s">
         <v>169</v>
       </c>
@@ -29350,17 +29386,17 @@
         <v>3.5046624246655484E+16</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="F17" s="51" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18" s="53" t="s">
         <v>292</v>
       </c>
@@ -29504,7 +29540,7 @@
         <v>1013351831414501.4</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" s="53" t="s">
         <v>297</v>
       </c>
@@ -29648,7 +29684,7 @@
         <v>1347975729154.998</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" s="53" t="s">
         <v>298</v>
       </c>
@@ -29660,21 +29696,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AI30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.59765625" customWidth="1"/>
+    <col min="1" max="1" width="37.6328125" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.86328125" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
@@ -29683,7 +29719,7 @@
     <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
         <v>305</v>
       </c>
@@ -29696,7 +29732,7 @@
       <c r="H1" s="51"/>
       <c r="I1" s="51"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
         <v>187</v>
       </c>
@@ -29719,7 +29755,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>306</v>
       </c>
@@ -29742,7 +29778,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>326</v>
       </c>
@@ -29760,7 +29796,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="55" t="s">
         <v>324</v>
       </c>
@@ -29778,7 +29814,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>169</v>
       </c>
@@ -29793,7 +29829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G7" t="s">
         <v>319</v>
       </c>
@@ -29804,7 +29840,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="53" t="s">
         <v>310</v>
       </c>
@@ -29818,12 +29854,12 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="53" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="53"/>
       <c r="G10" t="s">
         <v>322</v>
@@ -29836,7 +29872,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="53"/>
       <c r="I11">
         <f>Biofuels!I10*'Conversion Factors'!B73</f>
@@ -29846,7 +29882,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I12">
         <f>I11*'Conversion Factors'!B72</f>
         <v>44278077.600000001</v>
@@ -29855,7 +29891,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I13" s="90">
         <f>I12*10^6</f>
         <v>44278077600000</v>
@@ -29864,7 +29900,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G14" t="s">
         <v>323</v>
       </c>
@@ -29876,7 +29912,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I15">
         <f>I14*'Conversion Factors'!B73</f>
         <v>3396600</v>
@@ -29885,7 +29921,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I16">
         <f>I15*'Conversion Factors'!B72</f>
         <v>11069519.4</v>
@@ -29894,7 +29930,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="I17" s="90">
         <f>I16*10^6</f>
         <v>11069519400000</v>
@@ -29903,12 +29939,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="G18" s="53" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
         <v>2017</v>
       </c>
@@ -29934,7 +29970,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" s="81" t="s">
         <v>503</v>
       </c>
@@ -29960,7 +29996,7 @@
         <v>10.494265886000001</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" s="81" t="s">
         <v>504</v>
       </c>
@@ -29986,7 +30022,7 @@
         <v>141.81257947309263</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>505</v>
       </c>
@@ -30019,7 +30055,7 @@
         <v>152.30684535909262</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>447</v>
       </c>
@@ -30048,7 +30084,7 @@
         <v>0.3243911567795128</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>448</v>
       </c>
@@ -30077,17 +30113,17 @@
         <v>6.4878231355902566E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A26" s="53" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A27" s="53" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A28" s="51" t="s">
         <v>449</v>
       </c>
@@ -30227,7 +30263,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>508</v>
       </c>
@@ -30368,7 +30404,7 @@
         <v>782993152491217.38</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>509</v>
       </c>

--- a/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
+++ b/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\fuels\BFPIaE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E4B700C-506C-42DD-A0E0-4E5E693C88C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7537B482-C7A8-4E23-8955-A3ACB663A9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="855" windowWidth="29040" windowHeight="15840" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="573">
   <si>
     <t>Source:</t>
   </si>
@@ -1719,69 +1719,6 @@
     <t>Start year values:</t>
   </si>
   <si>
-    <t>BAU Total Primary Fuel Use[electricity] : MostRecentRun</t>
-  </si>
-  <si>
-    <t>BAU Total Primary Fuel Use[hard coal] : MostRecentRun</t>
-  </si>
-  <si>
-    <t>BAU Total Primary Fuel Use[natural gas] : MostRecentRun</t>
-  </si>
-  <si>
-    <t>BAU Total Primary Fuel Use[nuclear] : MostRecentRun</t>
-  </si>
-  <si>
-    <t>BAU Total Primary Fuel Use[hydro] : MostRecentRun</t>
-  </si>
-  <si>
-    <t>BAU Total Primary Fuel Use[wind] : MostRecentRun</t>
-  </si>
-  <si>
-    <t>BAU Total Primary Fuel Use[solar] : MostRecentRun</t>
-  </si>
-  <si>
-    <t>BAU Total Primary Fuel Use[biomass] : MostRecentRun</t>
-  </si>
-  <si>
-    <t>BAU Total Primary Fuel Use[petroleum gasoline] : MostRecentRun</t>
-  </si>
-  <si>
-    <t>BAU Total Primary Fuel Use[petroleum diesel] : MostRecentRun</t>
-  </si>
-  <si>
-    <t>BAU Total Primary Fuel Use[biofuel gasoline] : MostRecentRun</t>
-  </si>
-  <si>
-    <t>BAU Total Primary Fuel Use[biofuel diesel] : MostRecentRun</t>
-  </si>
-  <si>
-    <t>BAU Total Primary Fuel Use[jet fuel or kerosene] : MostRecentRun</t>
-  </si>
-  <si>
-    <t>BAU Total Primary Fuel Use[heat] : MostRecentRun</t>
-  </si>
-  <si>
-    <t>BAU Total Primary Fuel Use[geothermal] : MostRecentRun</t>
-  </si>
-  <si>
-    <t>BAU Total Primary Fuel Use[lignite] : MostRecentRun</t>
-  </si>
-  <si>
-    <t>BAU Total Primary Fuel Use[crude oil] : MostRecentRun</t>
-  </si>
-  <si>
-    <t>BAU Total Primary Fuel Use[heavy or residual fuel oil] : MostRecentRun</t>
-  </si>
-  <si>
-    <t>BAU Total Primary Fuel Use[LPG propane or butane] : MostRecentRun</t>
-  </si>
-  <si>
-    <t>BAU Total Primary Fuel Use[municipal solid waste] : MostRecentRun</t>
-  </si>
-  <si>
-    <t>BAU Total Primary Fuel Use[hydrogen] : MostRecentRun</t>
-  </si>
-  <si>
     <t xml:space="preserve">For refined petroleum products, we make the assumption that production and exports are constant, </t>
   </si>
   <si>
@@ -1834,6 +1771,72 @@
   </si>
   <si>
     <t>exports</t>
+  </si>
+  <si>
+    <t>Time (Time)</t>
+  </si>
+  <si>
+    <t>BAU Total Primary Fuel Use[electricity] : NoSettings</t>
+  </si>
+  <si>
+    <t>BAU Total Primary Fuel Use[hard coal] : NoSettings</t>
+  </si>
+  <si>
+    <t>BAU Total Primary Fuel Use[natural gas] : NoSettings</t>
+  </si>
+  <si>
+    <t>BAU Total Primary Fuel Use[nuclear] : NoSettings</t>
+  </si>
+  <si>
+    <t>BAU Total Primary Fuel Use[hydro] : NoSettings</t>
+  </si>
+  <si>
+    <t>BAU Total Primary Fuel Use[wind] : NoSettings</t>
+  </si>
+  <si>
+    <t>BAU Total Primary Fuel Use[solar] : NoSettings</t>
+  </si>
+  <si>
+    <t>BAU Total Primary Fuel Use[biomass] : NoSettings</t>
+  </si>
+  <si>
+    <t>BAU Total Primary Fuel Use[petroleum gasoline] : NoSettings</t>
+  </si>
+  <si>
+    <t>BAU Total Primary Fuel Use[petroleum diesel] : NoSettings</t>
+  </si>
+  <si>
+    <t>BAU Total Primary Fuel Use[biofuel gasoline] : NoSettings</t>
+  </si>
+  <si>
+    <t>BAU Total Primary Fuel Use[biofuel diesel] : NoSettings</t>
+  </si>
+  <si>
+    <t>BAU Total Primary Fuel Use[jet fuel or kerosene] : NoSettings</t>
+  </si>
+  <si>
+    <t>BAU Total Primary Fuel Use[heat] : NoSettings</t>
+  </si>
+  <si>
+    <t>BAU Total Primary Fuel Use[geothermal] : NoSettings</t>
+  </si>
+  <si>
+    <t>BAU Total Primary Fuel Use[lignite] : NoSettings</t>
+  </si>
+  <si>
+    <t>BAU Total Primary Fuel Use[crude oil] : NoSettings</t>
+  </si>
+  <si>
+    <t>BAU Total Primary Fuel Use[heavy or residual fuel oil] : NoSettings</t>
+  </si>
+  <si>
+    <t>BAU Total Primary Fuel Use[LPG propane or butane] : NoSettings</t>
+  </si>
+  <si>
+    <t>BAU Total Primary Fuel Use[municipal solid waste] : NoSettings</t>
+  </si>
+  <si>
+    <t>BAU Total Primary Fuel Use[hydrogen] : NoSettings</t>
   </si>
 </sst>
 </file>
@@ -3278,28 +3281,28 @@
       <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="76.26953125" customWidth="1"/>
-    <col min="4" max="4" width="78.81640625" customWidth="1"/>
+    <col min="2" max="2" width="76.28515625" customWidth="1"/>
+    <col min="4" max="4" width="78.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3310,13 +3313,13 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>247</v>
       </c>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>2018</v>
       </c>
@@ -3324,7 +3327,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>248</v>
       </c>
@@ -3332,7 +3335,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>249</v>
       </c>
@@ -3340,7 +3343,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>284</v>
       </c>
@@ -3348,10 +3351,10 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" s="48"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>517</v>
       </c>
@@ -3359,7 +3362,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>441</v>
       </c>
@@ -3367,7 +3370,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>2015</v>
       </c>
@@ -3375,7 +3378,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>440</v>
       </c>
@@ -3383,7 +3386,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>442</v>
       </c>
@@ -3391,7 +3394,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>518</v>
       </c>
@@ -3399,10 +3402,10 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D18" s="16"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>299</v>
       </c>
@@ -3410,7 +3413,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>287</v>
       </c>
@@ -3418,7 +3421,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>2018</v>
       </c>
@@ -3426,7 +3429,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>288</v>
       </c>
@@ -3434,7 +3437,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="48" t="s">
         <v>289</v>
       </c>
@@ -3442,7 +3445,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>286</v>
       </c>
@@ -3450,7 +3453,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>333</v>
       </c>
@@ -3458,7 +3461,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>334</v>
       </c>
@@ -3466,7 +3469,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>2019</v>
       </c>
@@ -3474,7 +3477,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>335</v>
       </c>
@@ -3482,7 +3485,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>312</v>
       </c>
@@ -3490,7 +3493,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="57" t="s">
         <v>309</v>
       </c>
@@ -3498,7 +3501,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>339</v>
       </c>
@@ -3506,7 +3509,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>341</v>
       </c>
@@ -3514,7 +3517,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>2019</v>
       </c>
@@ -3522,7 +3525,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>338</v>
       </c>
@@ -3530,7 +3533,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>340</v>
       </c>
@@ -3538,7 +3541,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>507</v>
       </c>
@@ -3546,7 +3549,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>441</v>
       </c>
@@ -3554,7 +3557,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>2015</v>
       </c>
@@ -3562,7 +3565,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>440</v>
       </c>
@@ -3570,7 +3573,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>442</v>
       </c>
@@ -3578,7 +3581,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>506</v>
       </c>
@@ -3586,7 +3589,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>519</v>
       </c>
@@ -3594,7 +3597,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>372</v>
       </c>
@@ -3602,7 +3605,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>2014</v>
       </c>
@@ -3610,7 +3613,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>373</v>
       </c>
@@ -3618,7 +3621,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>374</v>
       </c>
@@ -3626,7 +3629,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>375</v>
       </c>
@@ -3634,17 +3637,17 @@
         <v>472</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D53" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>377</v>
       </c>
@@ -3652,7 +3655,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <v>2016</v>
       </c>
@@ -3660,7 +3663,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>376</v>
       </c>
@@ -3668,7 +3671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
         <v>378</v>
       </c>
@@ -3676,17 +3679,17 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>434</v>
       </c>
@@ -3694,7 +3697,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
         <v>2017</v>
       </c>
@@ -3702,7 +3705,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>435</v>
       </c>
@@ -3710,7 +3713,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>436</v>
       </c>
@@ -3718,7 +3721,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>437</v>
       </c>
@@ -3726,165 +3729,165 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="47" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="16" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="16" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="48" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="16" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="16" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="16"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B97" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B99" s="4" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
@@ -3892,18 +3895,18 @@
         <v>402</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
         <v>532</v>
       </c>
       <c r="E103" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>182</v>
       </c>
@@ -3911,10 +3914,10 @@
         <v>408</v>
       </c>
       <c r="E104" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>177</v>
       </c>
@@ -3922,15 +3925,15 @@
         <v>384</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>178</v>
       </c>
       <c r="E106" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>179</v>
       </c>
@@ -3938,10 +3941,10 @@
         <v>403</v>
       </c>
       <c r="E107" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>180</v>
       </c>
@@ -3949,7 +3952,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>181</v>
       </c>
@@ -3957,17 +3960,17 @@
         <v>405</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D110" s="61" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>194</v>
       </c>
@@ -3975,7 +3978,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>191</v>
       </c>
@@ -3983,7 +3986,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>192</v>
       </c>
@@ -3991,7 +3994,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>193</v>
       </c>
@@ -3999,12 +4002,12 @@
         <v>388</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>187</v>
       </c>
@@ -4012,7 +4015,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>188</v>
       </c>
@@ -4020,12 +4023,12 @@
         <v>391</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>190</v>
       </c>
@@ -4033,7 +4036,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>184</v>
       </c>
@@ -4041,7 +4044,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -4049,7 +4052,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -4057,7 +4060,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -4065,7 +4068,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -4073,7 +4076,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>185</v>
       </c>
@@ -4081,7 +4084,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -4089,7 +4092,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>186</v>
       </c>
@@ -4097,117 +4100,117 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D139" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D141" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
         <v>531</v>
       </c>
@@ -4240,15 +4243,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" customWidth="1"/>
-    <col min="9" max="9" width="18.81640625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>357</v>
       </c>
@@ -4392,7 +4395,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="64">
         <v>2013</v>
@@ -4549,7 +4552,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="63" t="s">
         <v>231</v>
       </c>
@@ -4708,7 +4711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>363</v>
       </c>
@@ -4849,7 +4852,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>414</v>
       </c>
@@ -4993,7 +4996,7 @@
         <v>222.36</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>342</v>
       </c>
@@ -5152,7 +5155,7 @@
         <v>106.82</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>343</v>
       </c>
@@ -5302,7 +5305,7 @@
         <v>222360000</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>344</v>
       </c>
@@ -5452,7 +5455,7 @@
         <v>106820000</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>356</v>
       </c>
@@ -5603,7 +5606,7 @@
         <v>2817371387933999.5</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>355</v>
       </c>
@@ -5747,7 +5750,7 @@
         <v>1588548260249999.8</v>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>358</v>
       </c>
@@ -5891,31 +5894,31 @@
         <v>1826053731607589.5</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
         <v>412</v>
       </c>
       <c r="I12" s="76"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>413</v>
       </c>
       <c r="I13" s="76"/>
     </row>
-    <row r="14" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K14" s="53"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="K15" s="53"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="53"/>
       <c r="J28" s="53" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>355</v>
       </c>
@@ -5923,7 +5926,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>354</v>
       </c>
@@ -5943,15 +5946,15 @@
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>429</v>
       </c>
@@ -5983,7 +5986,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>2011</v>
       </c>
@@ -6021,7 +6024,7 @@
         <v>231.942989425446</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>428</v>
       </c>
@@ -6069,7 +6072,7 @@
         <v>6.9976002944891966E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>123</v>
       </c>
@@ -6114,7 +6117,7 @@
         <v>1.3995200588978393E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>104</v>
       </c>
@@ -6131,7 +6134,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
         <v>415</v>
       </c>
@@ -6139,35 +6142,35 @@
         <v>423</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>418</v>
       </c>
@@ -6307,7 +6310,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>231</v>
       </c>
@@ -6448,7 +6451,7 @@
         <v>383.38393615751733</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>267</v>
       </c>
@@ -6589,7 +6592,7 @@
         <v>383383936.15751731</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="80" t="s">
         <v>169</v>
       </c>
@@ -6744,20 +6747,20 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="12" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.36328125" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" customWidth="1"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>482</v>
       </c>
@@ -6783,7 +6786,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="87" t="s">
         <v>479</v>
       </c>
@@ -6809,7 +6812,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="87" t="s">
         <v>480</v>
       </c>
@@ -6835,7 +6838,7 @@
         <v>1644.0505094400003</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>488</v>
       </c>
@@ -6868,7 +6871,7 @@
         <v>140502600000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>489</v>
       </c>
@@ -6901,17 +6904,17 @@
         <v>652523647196736.13</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>449</v>
       </c>
@@ -7051,7 +7054,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>452</v>
       </c>
@@ -7192,7 +7195,7 @@
         <v>140502600000000</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>490</v>
       </c>
@@ -7351,14 +7354,14 @@
       <selection pane="bottomRight" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" style="7" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7265625" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9.08984375" style="7"/>
+    <col min="1" max="1" width="20.85546875" style="7" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
         <v>12</v>
       </c>
@@ -7465,8 +7468,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
@@ -7477,7 +7480,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
@@ -7490,7 +7493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
@@ -7501,7 +7504,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
@@ -7512,7 +7515,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>50</v>
       </c>
@@ -7520,12 +7523,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
         <v>21</v>
       </c>
@@ -7635,7 +7638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
         <v>21</v>
       </c>
@@ -7745,17 +7748,17 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B14" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>55</v>
       </c>
@@ -7868,7 +7871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>57</v>
       </c>
@@ -7981,7 +7984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>59</v>
       </c>
@@ -8094,7 +8097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>61</v>
       </c>
@@ -8207,7 +8210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>63</v>
       </c>
@@ -8320,7 +8323,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>65</v>
       </c>
@@ -8433,7 +8436,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>67</v>
       </c>
@@ -8546,7 +8549,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>69</v>
       </c>
@@ -8659,7 +8662,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>71</v>
       </c>
@@ -8772,7 +8775,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>73</v>
       </c>
@@ -8885,7 +8888,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>75</v>
       </c>
@@ -8998,7 +9001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>77</v>
       </c>
@@ -9111,7 +9114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>79</v>
       </c>
@@ -9224,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>81</v>
       </c>
@@ -9337,7 +9340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>83</v>
       </c>
@@ -9450,7 +9453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>85</v>
       </c>
@@ -9563,7 +9566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>87</v>
       </c>
@@ -9676,7 +9679,7 @@
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>89</v>
       </c>
@@ -9789,7 +9792,7 @@
         <v>-2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>91</v>
       </c>
@@ -9902,7 +9905,7 @@
         <v>-2.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>93</v>
       </c>
@@ -10015,7 +10018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>95</v>
       </c>
@@ -10128,7 +10131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>97</v>
       </c>
@@ -10241,7 +10244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>99</v>
       </c>
@@ -10354,7 +10357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>101</v>
       </c>
@@ -10467,7 +10470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>103</v>
       </c>
@@ -10580,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>105</v>
       </c>
@@ -10693,7 +10696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>107</v>
       </c>
@@ -10806,7 +10809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>109</v>
       </c>
@@ -10919,7 +10922,7 @@
         <v>1.9699999999999999E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>111</v>
       </c>
@@ -11032,7 +11035,7 @@
         <v>-4.8299999999999998E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>113</v>
       </c>
@@ -11145,7 +11148,7 @@
         <v>-3.1150000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>115</v>
       </c>
@@ -11258,12 +11261,12 @@
         <v>-1.013E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="25" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>118</v>
       </c>
@@ -11376,7 +11379,7 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>120</v>
       </c>
@@ -11489,7 +11492,7 @@
         <v>-3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>122</v>
       </c>
@@ -11602,7 +11605,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>124</v>
       </c>
@@ -11715,12 +11718,12 @@
         <v>-2.7700000000000001E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="21" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>127</v>
       </c>
@@ -11833,7 +11836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>129</v>
       </c>
@@ -11946,7 +11949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>131</v>
       </c>
@@ -12059,7 +12062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>133</v>
       </c>
@@ -12172,7 +12175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>135</v>
       </c>
@@ -12285,7 +12288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>137</v>
       </c>
@@ -12398,7 +12401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>139</v>
       </c>
@@ -12511,12 +12514,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>142</v>
       </c>
@@ -12629,7 +12632,7 @@
         <v>-1.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>143</v>
       </c>
@@ -12742,7 +12745,7 @@
         <v>-1.0139999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>145</v>
       </c>
@@ -12855,7 +12858,7 @@
         <v>-2.1699999999999999E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>147</v>
       </c>
@@ -12968,7 +12971,7 @@
         <v>2.8499999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>148</v>
       </c>
@@ -13081,7 +13084,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>150</v>
       </c>
@@ -13194,7 +13197,7 @@
         <v>-5.5000000000000002E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>152</v>
       </c>
@@ -13307,7 +13310,7 @@
         <v>-9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>154</v>
       </c>
@@ -13420,7 +13423,7 @@
         <v>2.5799999999999998E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>156</v>
       </c>
@@ -13533,7 +13536,7 @@
         <v>5.7700000000000004E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>157</v>
       </c>
@@ -13646,7 +13649,7 @@
         <v>-1.2830000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>158</v>
       </c>
@@ -13759,7 +13762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>160</v>
       </c>
@@ -13872,7 +13875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>162</v>
       </c>
@@ -13985,8 +13988,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="96" t="s">
         <v>164</v>
       </c>
@@ -14026,37 +14029,37 @@
       <c r="AJ78" s="96"/>
       <c r="AK78" s="96"/>
     </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="11" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="11" t="s">
         <v>26</v>
       </c>
@@ -14081,13 +14084,13 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.26953125" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
     <col min="2" max="35" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>198</v>
       </c>
@@ -14194,7 +14197,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
@@ -14301,7 +14304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>34</v>
       </c>
@@ -14442,7 +14445,7 @@
         <v>1.7078846857670062E+16</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
@@ -14583,7 +14586,7 @@
         <v>4185211567405324</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>35</v>
       </c>
@@ -14724,7 +14727,7 @@
         <v>140502600000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>36</v>
       </c>
@@ -14831,7 +14834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
@@ -14938,7 +14941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>38</v>
       </c>
@@ -15045,7 +15048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>28</v>
       </c>
@@ -15186,7 +15189,7 @@
         <v>4857595486255192</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>29</v>
       </c>
@@ -15327,7 +15330,7 @@
         <v>1668106715464803.3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>39</v>
       </c>
@@ -15468,7 +15471,7 @@
         <v>4801883515538662</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>40</v>
       </c>
@@ -15609,7 +15612,7 @@
         <v>782993152491217.38</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>41</v>
       </c>
@@ -15750,7 +15753,7 @@
         <v>195748288122804.34</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>30</v>
       </c>
@@ -15891,7 +15894,7 @@
         <v>670364225570218.5</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>49</v>
       </c>
@@ -15998,7 +16001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>43</v>
       </c>
@@ -16105,7 +16108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>44</v>
       </c>
@@ -16246,7 +16249,7 @@
         <v>1013351831414501.4</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>31</v>
       </c>
@@ -16387,7 +16390,7 @@
         <v>2140824427537546.8</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>45</v>
       </c>
@@ -16528,7 +16531,7 @@
         <v>401963368680000</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>32</v>
       </c>
@@ -16669,7 +16672,7 @@
         <v>554773438980000</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
@@ -16810,7 +16813,7 @@
         <v>1826053731607589.5</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
@@ -16917,7 +16920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
     </row>
   </sheetData>
@@ -16937,14 +16940,14 @@
       <selection activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.26953125" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
     <col min="2" max="2" width="12" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="35" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>198</v>
       </c>
@@ -17051,7 +17054,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
@@ -17191,7 +17194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>34</v>
       </c>
@@ -17205,134 +17208,134 @@
       </c>
       <c r="D3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!B3-('Coal &amp; Lignite'!I14-'BFPIaE-exports'!D3)&gt;0,'BAU Total Primary Fuel Use'!B3-('Coal &amp; Lignite'!I14-'BFPIaE-exports'!D3),0)</f>
-        <v>3412593909392516</v>
+        <v>4465793909392516</v>
       </c>
       <c r="E3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!C3-('Coal &amp; Lignite'!J14-'BFPIaE-exports'!E3)&gt;0,'BAU Total Primary Fuel Use'!C3-('Coal &amp; Lignite'!J14-'BFPIaE-exports'!E3),0)</f>
-        <v>2415487384112816</v>
+        <v>3964787384112816</v>
       </c>
       <c r="F3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!D3-('Coal &amp; Lignite'!K14-'BFPIaE-exports'!F3)&gt;0,'BAU Total Primary Fuel Use'!D3-('Coal &amp; Lignite'!K14-'BFPIaE-exports'!F3),0)</f>
-        <v>3092586093260720</v>
+        <v>4275686093260720</v>
       </c>
       <c r="G3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!E3-('Coal &amp; Lignite'!L14-'BFPIaE-exports'!G3)&gt;0,'BAU Total Primary Fuel Use'!E3-('Coal &amp; Lignite'!L14-'BFPIaE-exports'!G3),0)</f>
-        <v>3411823841771324</v>
+        <v>4311823841771324</v>
       </c>
       <c r="H3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!F3-('Coal &amp; Lignite'!M14-'BFPIaE-exports'!H3)&gt;0,'BAU Total Primary Fuel Use'!F3-('Coal &amp; Lignite'!M14-'BFPIaE-exports'!H3),0)</f>
-        <v>4069672249476054</v>
+        <v>4541372249476054</v>
       </c>
       <c r="I3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!G3-('Coal &amp; Lignite'!N14-'BFPIaE-exports'!I3)&gt;0,'BAU Total Primary Fuel Use'!G3-('Coal &amp; Lignite'!N14-'BFPIaE-exports'!I3),0)</f>
-        <v>4475096258050828</v>
+        <v>4679396258050828</v>
       </c>
       <c r="J3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!H3-('Coal &amp; Lignite'!O14-'BFPIaE-exports'!J3)&gt;0,'BAU Total Primary Fuel Use'!H3-('Coal &amp; Lignite'!O14-'BFPIaE-exports'!J3),0)</f>
-        <v>4769443016461994</v>
+        <v>4740143016461994</v>
       </c>
       <c r="K3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!I3-('Coal &amp; Lignite'!P14-'BFPIaE-exports'!K3)&gt;0,'BAU Total Primary Fuel Use'!I3-('Coal &amp; Lignite'!P14-'BFPIaE-exports'!K3),0)</f>
-        <v>4878344945998478</v>
+        <v>4669644945998478</v>
       </c>
       <c r="L3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!J3-('Coal &amp; Lignite'!Q14-'BFPIaE-exports'!L3)&gt;0,'BAU Total Primary Fuel Use'!J3-('Coal &amp; Lignite'!Q14-'BFPIaE-exports'!L3),0)</f>
-        <v>4798219261296436</v>
+        <v>4563819261296436</v>
       </c>
       <c r="M3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!K3-('Coal &amp; Lignite'!R14-'BFPIaE-exports'!M3)&gt;0,'BAU Total Primary Fuel Use'!K3-('Coal &amp; Lignite'!R14-'BFPIaE-exports'!M3),0)</f>
-        <v>5170082376928524</v>
+        <v>4850882376928524</v>
       </c>
       <c r="N3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!L3-('Coal &amp; Lignite'!S14-'BFPIaE-exports'!N3)&gt;0,'BAU Total Primary Fuel Use'!L3-('Coal &amp; Lignite'!S14-'BFPIaE-exports'!N3),0)</f>
-        <v>5539738427799210</v>
+        <v>5207238427799210</v>
       </c>
       <c r="O3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!M3-('Coal &amp; Lignite'!T14-'BFPIaE-exports'!O3)&gt;0,'BAU Total Primary Fuel Use'!M3-('Coal &amp; Lignite'!T14-'BFPIaE-exports'!O3),0)</f>
-        <v>5888677725318410</v>
+        <v>5622077725318410</v>
       </c>
       <c r="P3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!N3-('Coal &amp; Lignite'!U14-'BFPIaE-exports'!P3)&gt;0,'BAU Total Primary Fuel Use'!N3-('Coal &amp; Lignite'!U14-'BFPIaE-exports'!P3),0)</f>
-        <v>6293988472704298</v>
+        <v>5996988472704298</v>
       </c>
       <c r="Q3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!O3-('Coal &amp; Lignite'!V14-'BFPIaE-exports'!Q3)&gt;0,'BAU Total Primary Fuel Use'!O3-('Coal &amp; Lignite'!V14-'BFPIaE-exports'!Q3),0)</f>
-        <v>6682956724464300</v>
+        <v>6430756724464300</v>
       </c>
       <c r="R3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!P3-('Coal &amp; Lignite'!W14-'BFPIaE-exports'!R3)&gt;0,'BAU Total Primary Fuel Use'!P3-('Coal &amp; Lignite'!W14-'BFPIaE-exports'!R3),0)</f>
-        <v>7370904013209892</v>
+        <v>7131104013209892</v>
       </c>
       <c r="S3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!Q3-('Coal &amp; Lignite'!X14-'BFPIaE-exports'!S3)&gt;0,'BAU Total Primary Fuel Use'!Q3-('Coal &amp; Lignite'!X14-'BFPIaE-exports'!S3),0)</f>
-        <v>7837872299223032</v>
+        <v>7621572299223032</v>
       </c>
       <c r="T3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!R3-('Coal &amp; Lignite'!Y14-'BFPIaE-exports'!T3)&gt;0,'BAU Total Primary Fuel Use'!R3-('Coal &amp; Lignite'!Y14-'BFPIaE-exports'!T3),0)</f>
-        <v>8303956308006054</v>
+        <v>8126556308006054</v>
       </c>
       <c r="U3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!S3-('Coal &amp; Lignite'!Z14-'BFPIaE-exports'!U3)&gt;0,'BAU Total Primary Fuel Use'!S3-('Coal &amp; Lignite'!Z14-'BFPIaE-exports'!U3),0)</f>
-        <v>8766650729348544</v>
+        <v>8590150729348544</v>
       </c>
       <c r="V3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!T3-('Coal &amp; Lignite'!AA14-'BFPIaE-exports'!V3)&gt;0,'BAU Total Primary Fuel Use'!T3-('Coal &amp; Lignite'!AA14-'BFPIaE-exports'!V3),0)</f>
-        <v>9227250217085540</v>
+        <v>9046450217085540</v>
       </c>
       <c r="W3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!U3-('Coal &amp; Lignite'!AB14-'BFPIaE-exports'!W3)&gt;0,'BAU Total Primary Fuel Use'!U3-('Coal &amp; Lignite'!AB14-'BFPIaE-exports'!W3),0)</f>
-        <v>9772652990196808</v>
+        <v>9600052990196808</v>
       </c>
       <c r="X3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!V3-('Coal &amp; Lignite'!AC14-'BFPIaE-exports'!X3)&gt;0,'BAU Total Primary Fuel Use'!V3-('Coal &amp; Lignite'!AC14-'BFPIaE-exports'!X3),0)</f>
-        <v>1.0229553780848592E+16</v>
+        <v>1.0116253780848592E+16</v>
       </c>
       <c r="Y3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!W3-('Coal &amp; Lignite'!AD14-'BFPIaE-exports'!Y3)&gt;0,'BAU Total Primary Fuel Use'!W3-('Coal &amp; Lignite'!AD14-'BFPIaE-exports'!Y3),0)</f>
-        <v>1.0897052589706706E+16</v>
+        <v>1.0631752589706706E+16</v>
       </c>
       <c r="Z3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!X3-('Coal &amp; Lignite'!AE14-'BFPIaE-exports'!Z3)&gt;0,'BAU Total Primary Fuel Use'!X3-('Coal &amp; Lignite'!AE14-'BFPIaE-exports'!Z3),0)</f>
-        <v>1.135434941743674E+16</v>
+        <v>1.115304941743674E+16</v>
       </c>
       <c r="AA3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!Y3-('Coal &amp; Lignite'!AF14-'BFPIaE-exports'!AA3)&gt;0,'BAU Total Primary Fuel Use'!Y3-('Coal &amp; Lignite'!AF14-'BFPIaE-exports'!AA3),0)</f>
-        <v>1.187924426470406E+16</v>
+        <v>1.167684426470406E+16</v>
       </c>
       <c r="AB3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!Z3-('Coal &amp; Lignite'!AG14-'BFPIaE-exports'!AB3)&gt;0,'BAU Total Primary Fuel Use'!Z3-('Coal &amp; Lignite'!AG14-'BFPIaE-exports'!AB3),0)</f>
-        <v>1.2421888741157848E+16</v>
+        <v>1.2214888741157848E+16</v>
       </c>
       <c r="AC3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!AA3-('Coal &amp; Lignite'!AH14-'BFPIaE-exports'!AC3)&gt;0,'BAU Total Primary Fuel Use'!AA3-('Coal &amp; Lignite'!AH14-'BFPIaE-exports'!AC3),0)</f>
-        <v>1.2898924853735012E+16</v>
+        <v>1.2687724853735012E+16</v>
       </c>
       <c r="AD3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!AB3-('Coal &amp; Lignite'!AI14-'BFPIaE-exports'!AD3)&gt;0,'BAU Total Primary Fuel Use'!AB3-('Coal &amp; Lignite'!AI14-'BFPIaE-exports'!AD3),0)</f>
-        <v>1.3410955338792838E+16</v>
+        <v>1.3187655338792838E+16</v>
       </c>
       <c r="AE3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!AC3-('Coal &amp; Lignite'!AJ14-'BFPIaE-exports'!AE3)&gt;0,'BAU Total Primary Fuel Use'!AC3-('Coal &amp; Lignite'!AJ14-'BFPIaE-exports'!AE3),0)</f>
-        <v>1.3910582917959688E+16</v>
+        <v>1.3686482917959688E+16</v>
       </c>
       <c r="AF3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!AD3-('Coal &amp; Lignite'!AK14-'BFPIaE-exports'!AF3)&gt;0,'BAU Total Primary Fuel Use'!AD3-('Coal &amp; Lignite'!AK14-'BFPIaE-exports'!AF3),0)</f>
-        <v>1.4275010298214286E+16</v>
+        <v>1.4147710298214286E+16</v>
       </c>
       <c r="AG3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!AE3-('Coal &amp; Lignite'!AL14-'BFPIaE-exports'!AG3)&gt;0,'BAU Total Primary Fuel Use'!AE3-('Coal &amp; Lignite'!AL14-'BFPIaE-exports'!AG3),0)</f>
-        <v>1.4932010298214286E+16</v>
+        <v>1.4575910298214286E+16</v>
       </c>
       <c r="AH3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!AF3-('Coal &amp; Lignite'!AM14-'BFPIaE-exports'!AH3)&gt;0,'BAU Total Primary Fuel Use'!AF3-('Coal &amp; Lignite'!AM14-'BFPIaE-exports'!AH3),0)</f>
-        <v>1.5212810298214286E+16</v>
+        <v>1.4958410298214286E+16</v>
       </c>
       <c r="AI3" s="12">
         <f>IF('BAU Total Primary Fuel Use'!AG3-('Coal &amp; Lignite'!AN14-'BFPIaE-exports'!AI3)&gt;0,'BAU Total Primary Fuel Use'!AG3-('Coal &amp; Lignite'!AN14-'BFPIaE-exports'!AI3),0)</f>
-        <v>1.5612810298214286E+16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+        <v>1.5353510298214286E+16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
@@ -17473,7 +17476,7 @@
         <v>1771911235355783.3</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>35</v>
       </c>
@@ -17614,7 +17617,7 @@
         <v>652523647196736.13</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>36</v>
       </c>
@@ -17754,7 +17757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
@@ -17894,7 +17897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>38</v>
       </c>
@@ -18034,7 +18037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>28</v>
       </c>
@@ -18174,7 +18177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>29</v>
       </c>
@@ -18188,7 +18191,7 @@
       </c>
       <c r="D10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!B10-('BFPIaE-production'!D10-'BFPIaE-exports'!D10))&gt;0,('BAU Total Primary Fuel Use'!B10-('BFPIaE-production'!D10-'BFPIaE-exports'!D10)),0)</f>
-        <v>140567404574062.75</v>
+        <v>31777404574062.75</v>
       </c>
       <c r="E10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!C10-('BFPIaE-production'!E10-'BFPIaE-exports'!E10))&gt;0,('BAU Total Primary Fuel Use'!C10-('BFPIaE-production'!E10-'BFPIaE-exports'!E10)),0)</f>
@@ -18196,126 +18199,126 @@
       </c>
       <c r="F10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!D10-('BFPIaE-production'!F10-'BFPIaE-exports'!F10))&gt;0,('BAU Total Primary Fuel Use'!D10-('BFPIaE-production'!F10-'BFPIaE-exports'!F10)),0)</f>
-        <v>71497404574062.75</v>
+        <v>61277404574062.75</v>
       </c>
       <c r="G10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!E10-('BFPIaE-production'!G10-'BFPIaE-exports'!G10))&gt;0,('BAU Total Primary Fuel Use'!E10-('BFPIaE-production'!G10-'BFPIaE-exports'!G10)),0)</f>
-        <v>181767404574062.75</v>
+        <v>161787404574062.75</v>
       </c>
       <c r="H10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!F10-('BFPIaE-production'!H10-'BFPIaE-exports'!H10))&gt;0,('BAU Total Primary Fuel Use'!F10-('BFPIaE-production'!H10-'BFPIaE-exports'!H10)),0)</f>
-        <v>252197404574062.75</v>
+        <v>244347404574062.75</v>
       </c>
       <c r="I10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!G10-('BFPIaE-production'!I10-'BFPIaE-exports'!I10))&gt;0,('BAU Total Primary Fuel Use'!G10-('BFPIaE-production'!I10-'BFPIaE-exports'!I10)),0)</f>
-        <v>301097404574062.75</v>
+        <v>310607404574062.75</v>
       </c>
       <c r="J10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!H10-('BFPIaE-production'!J10-'BFPIaE-exports'!J10))&gt;0,('BAU Total Primary Fuel Use'!H10-('BFPIaE-production'!J10-'BFPIaE-exports'!J10)),0)</f>
-        <v>337467404574062.75</v>
+        <v>363777404574062.75</v>
       </c>
       <c r="K10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!I10-('BFPIaE-production'!K10-'BFPIaE-exports'!K10))&gt;0,('BAU Total Primary Fuel Use'!I10-('BFPIaE-production'!K10-'BFPIaE-exports'!K10)),0)</f>
-        <v>368697404574062.75</v>
+        <v>425357404574062.75</v>
       </c>
       <c r="L10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!J10-('BFPIaE-production'!L10-'BFPIaE-exports'!L10))&gt;0,('BAU Total Primary Fuel Use'!J10-('BFPIaE-production'!L10-'BFPIaE-exports'!L10)),0)</f>
-        <v>393747404574062.75</v>
+        <v>479837404574062.75</v>
       </c>
       <c r="M10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!K10-('BFPIaE-production'!M10-'BFPIaE-exports'!M10))&gt;0,('BAU Total Primary Fuel Use'!K10-('BFPIaE-production'!M10-'BFPIaE-exports'!M10)),0)</f>
-        <v>413707404574062.75</v>
+        <v>536987404574062.75</v>
       </c>
       <c r="N10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!L10-('BFPIaE-production'!N10-'BFPIaE-exports'!N10))&gt;0,('BAU Total Primary Fuel Use'!L10-('BFPIaE-production'!N10-'BFPIaE-exports'!N10)),0)</f>
-        <v>429327404574062.75</v>
+        <v>587297404574062.75</v>
       </c>
       <c r="O10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!M10-('BFPIaE-production'!O10-'BFPIaE-exports'!O10))&gt;0,('BAU Total Primary Fuel Use'!M10-('BFPIaE-production'!O10-'BFPIaE-exports'!O10)),0)</f>
-        <v>441127404574062.75</v>
+        <v>630867404574062.75</v>
       </c>
       <c r="P10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!N10-('BFPIaE-production'!P10-'BFPIaE-exports'!P10))&gt;0,('BAU Total Primary Fuel Use'!N10-('BFPIaE-production'!P10-'BFPIaE-exports'!P10)),0)</f>
-        <v>459457404574062.75</v>
+        <v>667797404574062.75</v>
       </c>
       <c r="Q10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!O10-('BFPIaE-production'!Q10-'BFPIaE-exports'!Q10))&gt;0,('BAU Total Primary Fuel Use'!O10-('BFPIaE-production'!Q10-'BFPIaE-exports'!Q10)),0)</f>
-        <v>473047404574062.75</v>
+        <v>698117404574062.75</v>
       </c>
       <c r="R10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!P10-('BFPIaE-production'!R10-'BFPIaE-exports'!R10))&gt;0,('BAU Total Primary Fuel Use'!P10-('BFPIaE-production'!R10-'BFPIaE-exports'!R10)),0)</f>
-        <v>483267404574062.75</v>
+        <v>723357404574062.75</v>
       </c>
       <c r="S10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!Q10-('BFPIaE-production'!S10-'BFPIaE-exports'!S10))&gt;0,('BAU Total Primary Fuel Use'!Q10-('BFPIaE-production'!S10-'BFPIaE-exports'!S10)),0)</f>
-        <v>490767404574062.75</v>
+        <v>742667404574062.75</v>
       </c>
       <c r="T10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!R10-('BFPIaE-production'!T10-'BFPIaE-exports'!T10))&gt;0,('BAU Total Primary Fuel Use'!R10-('BFPIaE-production'!T10-'BFPIaE-exports'!T10)),0)</f>
-        <v>495697404574062.75</v>
+        <v>757997404574062.75</v>
       </c>
       <c r="U10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!S10-('BFPIaE-production'!U10-'BFPIaE-exports'!U10))&gt;0,('BAU Total Primary Fuel Use'!S10-('BFPIaE-production'!U10-'BFPIaE-exports'!U10)),0)</f>
-        <v>514127404574062.75</v>
+        <v>770577404574062.75</v>
       </c>
       <c r="V10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!T10-('BFPIaE-production'!V10-'BFPIaE-exports'!V10))&gt;0,('BAU Total Primary Fuel Use'!T10-('BFPIaE-production'!V10-'BFPIaE-exports'!V10)),0)</f>
-        <v>530487404574062.75</v>
+        <v>785627404574062.75</v>
       </c>
       <c r="W10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!U10-('BFPIaE-production'!W10-'BFPIaE-exports'!W10))&gt;0,('BAU Total Primary Fuel Use'!U10-('BFPIaE-production'!W10-'BFPIaE-exports'!W10)),0)</f>
-        <v>545437404574062.75</v>
+        <v>804337404574062.75</v>
       </c>
       <c r="X10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!V10-('BFPIaE-production'!X10-'BFPIaE-exports'!X10))&gt;0,('BAU Total Primary Fuel Use'!V10-('BFPIaE-production'!X10-'BFPIaE-exports'!X10)),0)</f>
-        <v>560007404574062.75</v>
+        <v>817437404574062.75</v>
       </c>
       <c r="Y10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!W10-('BFPIaE-production'!Y10-'BFPIaE-exports'!Y10))&gt;0,('BAU Total Primary Fuel Use'!W10-('BFPIaE-production'!Y10-'BFPIaE-exports'!Y10)),0)</f>
-        <v>575267404574062.75</v>
+        <v>830677404574062.75</v>
       </c>
       <c r="Z10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!X10-('BFPIaE-production'!Z10-'BFPIaE-exports'!Z10))&gt;0,('BAU Total Primary Fuel Use'!X10-('BFPIaE-production'!Z10-'BFPIaE-exports'!Z10)),0)</f>
-        <v>606547404574062.75</v>
+        <v>843997404574062.75</v>
       </c>
       <c r="AA10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!Y10-('BFPIaE-production'!AA10-'BFPIaE-exports'!AA10))&gt;0,('BAU Total Primary Fuel Use'!Y10-('BFPIaE-production'!AA10-'BFPIaE-exports'!AA10)),0)</f>
-        <v>638707404574062.75</v>
+        <v>857577404574062.75</v>
       </c>
       <c r="AB10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!Z10-('BFPIaE-production'!AB10-'BFPIaE-exports'!AB10))&gt;0,('BAU Total Primary Fuel Use'!Z10-('BFPIaE-production'!AB10-'BFPIaE-exports'!AB10)),0)</f>
-        <v>672437404574062.75</v>
+        <v>871707404574062.75</v>
       </c>
       <c r="AC10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!AA10-('BFPIaE-production'!AC10-'BFPIaE-exports'!AC10))&gt;0,('BAU Total Primary Fuel Use'!AA10-('BFPIaE-production'!AC10-'BFPIaE-exports'!AC10)),0)</f>
-        <v>708117404574062.75</v>
+        <v>887477404574062.75</v>
       </c>
       <c r="AD10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!AB10-('BFPIaE-production'!AD10-'BFPIaE-exports'!AD10))&gt;0,('BAU Total Primary Fuel Use'!AB10-('BFPIaE-production'!AD10-'BFPIaE-exports'!AD10)),0)</f>
-        <v>745947404574062.75</v>
+        <v>905057404574062.75</v>
       </c>
       <c r="AE10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!AC10-('BFPIaE-production'!AE10-'BFPIaE-exports'!AE10))&gt;0,('BAU Total Primary Fuel Use'!AC10-('BFPIaE-production'!AE10-'BFPIaE-exports'!AE10)),0)</f>
-        <v>806487404574062.75</v>
+        <v>923697404574062.75</v>
       </c>
       <c r="AF10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!AD10-('BFPIaE-production'!AF10-'BFPIaE-exports'!AF10))&gt;0,('BAU Total Primary Fuel Use'!AD10-('BFPIaE-production'!AF10-'BFPIaE-exports'!AF10)),0)</f>
-        <v>867767404574062.75</v>
+        <v>942117404574062.75</v>
       </c>
       <c r="AG10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!AE10-('BFPIaE-production'!AG10-'BFPIaE-exports'!AG10))&gt;0,('BAU Total Primary Fuel Use'!AE10-('BFPIaE-production'!AG10-'BFPIaE-exports'!AG10)),0)</f>
-        <v>930407404574062.75</v>
+        <v>962387404574062.75</v>
       </c>
       <c r="AH10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!AF10-('BFPIaE-production'!AH10-'BFPIaE-exports'!AH10))&gt;0,('BAU Total Primary Fuel Use'!AF10-('BFPIaE-production'!AH10-'BFPIaE-exports'!AH10)),0)</f>
-        <v>994637404574062.75</v>
+        <v>984387404574062.75</v>
       </c>
       <c r="AI10" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!AG10-('BFPIaE-production'!AI10-'BFPIaE-exports'!AI10))&gt;0,('BAU Total Primary Fuel Use'!AG10-('BFPIaE-production'!AI10-'BFPIaE-exports'!AI10)),0)</f>
-        <v>1060257404574062.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+        <v>1008007404574062.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>39</v>
       </c>
@@ -18329,134 +18332,134 @@
       </c>
       <c r="D11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!B11-('BFPIaE-production'!D11-'BFPIaE-exports'!D11))&gt;0,('BAU Total Primary Fuel Use'!B11-('BFPIaE-production'!D11-'BFPIaE-exports'!D11)),0)</f>
-        <v>972940751802188.5</v>
+        <v>992850751802188.5</v>
       </c>
       <c r="E11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!C11-('BFPIaE-production'!E11-'BFPIaE-exports'!E11))&gt;0,('BAU Total Primary Fuel Use'!C11-('BFPIaE-production'!E11-'BFPIaE-exports'!E11)),0)</f>
-        <v>149270751802188.5</v>
+        <v>708710751802188.5</v>
       </c>
       <c r="F11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!D11-('BFPIaE-production'!F11-'BFPIaE-exports'!F11))&gt;0,('BAU Total Primary Fuel Use'!D11-('BFPIaE-production'!F11-'BFPIaE-exports'!F11)),0)</f>
-        <v>888800751802188.5</v>
+        <v>1228670751802188.5</v>
       </c>
       <c r="G11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!E11-('BFPIaE-production'!G11-'BFPIaE-exports'!G11))&gt;0,('BAU Total Primary Fuel Use'!E11-('BFPIaE-production'!G11-'BFPIaE-exports'!G11)),0)</f>
-        <v>1364510751802188.5</v>
+        <v>1606070751802188.5</v>
       </c>
       <c r="H11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!F11-('BFPIaE-production'!H11-'BFPIaE-exports'!H11))&gt;0,('BAU Total Primary Fuel Use'!F11-('BFPIaE-production'!H11-'BFPIaE-exports'!H11)),0)</f>
-        <v>1712680751802188.5</v>
+        <v>1989600751802188.5</v>
       </c>
       <c r="I11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!G11-('BFPIaE-production'!I11-'BFPIaE-exports'!I11))&gt;0,('BAU Total Primary Fuel Use'!G11-('BFPIaE-production'!I11-'BFPIaE-exports'!I11)),0)</f>
-        <v>1988230751802188.5</v>
+        <v>2328830751802188.5</v>
       </c>
       <c r="J11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!H11-('BFPIaE-production'!J11-'BFPIaE-exports'!J11))&gt;0,('BAU Total Primary Fuel Use'!H11-('BFPIaE-production'!J11-'BFPIaE-exports'!J11)),0)</f>
-        <v>2224640751802188.5</v>
+        <v>2636110751802188.5</v>
       </c>
       <c r="K11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!I11-('BFPIaE-production'!K11-'BFPIaE-exports'!K11))&gt;0,('BAU Total Primary Fuel Use'!I11-('BFPIaE-production'!K11-'BFPIaE-exports'!K11)),0)</f>
-        <v>2506960751802188.5</v>
+        <v>2915050751802188.5</v>
       </c>
       <c r="L11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!J11-('BFPIaE-production'!L11-'BFPIaE-exports'!L11))&gt;0,('BAU Total Primary Fuel Use'!J11-('BFPIaE-production'!L11-'BFPIaE-exports'!L11)),0)</f>
-        <v>2775390751802188.5</v>
+        <v>3179990751802188.5</v>
       </c>
       <c r="M11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!K11-('BFPIaE-production'!M11-'BFPIaE-exports'!M11))&gt;0,('BAU Total Primary Fuel Use'!K11-('BFPIaE-production'!M11-'BFPIaE-exports'!M11)),0)</f>
-        <v>3039050751802188.5</v>
+        <v>3500230751802188.5</v>
       </c>
       <c r="N11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!L11-('BFPIaE-production'!N11-'BFPIaE-exports'!N11))&gt;0,('BAU Total Primary Fuel Use'!L11-('BFPIaE-production'!N11-'BFPIaE-exports'!N11)),0)</f>
-        <v>3295920751802188.5</v>
+        <v>3822610751802188.5</v>
       </c>
       <c r="O11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!M11-('BFPIaE-production'!O11-'BFPIaE-exports'!O11))&gt;0,('BAU Total Primary Fuel Use'!M11-('BFPIaE-production'!O11-'BFPIaE-exports'!O11)),0)</f>
-        <v>3573390751802188.5</v>
+        <v>4139070751802188.5</v>
       </c>
       <c r="P11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!N11-('BFPIaE-production'!P11-'BFPIaE-exports'!P11))&gt;0,('BAU Total Primary Fuel Use'!N11-('BFPIaE-production'!P11-'BFPIaE-exports'!P11)),0)</f>
-        <v>3921760751802188.5</v>
+        <v>4444930751802188.5</v>
       </c>
       <c r="Q11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!O11-('BFPIaE-production'!Q11-'BFPIaE-exports'!Q11))&gt;0,('BAU Total Primary Fuel Use'!O11-('BFPIaE-production'!Q11-'BFPIaE-exports'!Q11)),0)</f>
-        <v>4279600751802188.5</v>
+        <v>4739690751802188</v>
       </c>
       <c r="R11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!P11-('BFPIaE-production'!R11-'BFPIaE-exports'!R11))&gt;0,('BAU Total Primary Fuel Use'!P11-('BFPIaE-production'!R11-'BFPIaE-exports'!R11)),0)</f>
-        <v>4629850751802188</v>
+        <v>5044740751802188</v>
       </c>
       <c r="S11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!Q11-('BFPIaE-production'!S11-'BFPIaE-exports'!S11))&gt;0,('BAU Total Primary Fuel Use'!Q11-('BFPIaE-production'!S11-'BFPIaE-exports'!S11)),0)</f>
-        <v>4975320751802188</v>
+        <v>5341820751802188</v>
       </c>
       <c r="T11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!R11-('BFPIaE-production'!T11-'BFPIaE-exports'!T11))&gt;0,('BAU Total Primary Fuel Use'!R11-('BFPIaE-production'!T11-'BFPIaE-exports'!T11)),0)</f>
-        <v>5316480751802188</v>
+        <v>5633390751802188</v>
       </c>
       <c r="U11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!S11-('BFPIaE-production'!U11-'BFPIaE-exports'!U11))&gt;0,('BAU Total Primary Fuel Use'!S11-('BFPIaE-production'!U11-'BFPIaE-exports'!U11)),0)</f>
-        <v>5722670751802188</v>
+        <v>5920970751802188</v>
       </c>
       <c r="V11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!T11-('BFPIaE-production'!V11-'BFPIaE-exports'!V11))&gt;0,('BAU Total Primary Fuel Use'!T11-('BFPIaE-production'!V11-'BFPIaE-exports'!V11)),0)</f>
-        <v>6125680751802188</v>
+        <v>6202900751802188</v>
       </c>
       <c r="W11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!U11-('BFPIaE-production'!W11-'BFPIaE-exports'!W11))&gt;0,('BAU Total Primary Fuel Use'!U11-('BFPIaE-production'!W11-'BFPIaE-exports'!W11)),0)</f>
-        <v>6527110751802188</v>
+        <v>6504590751802188</v>
       </c>
       <c r="X11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!V11-('BFPIaE-production'!X11-'BFPIaE-exports'!X11))&gt;0,('BAU Total Primary Fuel Use'!V11-('BFPIaE-production'!X11-'BFPIaE-exports'!X11)),0)</f>
-        <v>6927910751802188</v>
+        <v>6780610751802188</v>
       </c>
       <c r="Y11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!W11-('BFPIaE-production'!Y11-'BFPIaE-exports'!Y11))&gt;0,('BAU Total Primary Fuel Use'!W11-('BFPIaE-production'!Y11-'BFPIaE-exports'!Y11)),0)</f>
-        <v>7330010751802188</v>
+        <v>7054210751802188</v>
       </c>
       <c r="Z11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!X11-('BFPIaE-production'!Z11-'BFPIaE-exports'!Z11))&gt;0,('BAU Total Primary Fuel Use'!X11-('BFPIaE-production'!Z11-'BFPIaE-exports'!Z11)),0)</f>
-        <v>7811310751802188</v>
+        <v>7327210751802188</v>
       </c>
       <c r="AA11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!Y11-('BFPIaE-production'!AA11-'BFPIaE-exports'!AA11))&gt;0,('BAU Total Primary Fuel Use'!Y11-('BFPIaE-production'!AA11-'BFPIaE-exports'!AA11)),0)</f>
-        <v>8294010751802188</v>
+        <v>7598610751802188</v>
       </c>
       <c r="AB11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!Z11-('BFPIaE-production'!AB11-'BFPIaE-exports'!AB11))&gt;0,('BAU Total Primary Fuel Use'!Z11-('BFPIaE-production'!AB11-'BFPIaE-exports'!AB11)),0)</f>
-        <v>8769310751802188</v>
+        <v>7808210751802188</v>
       </c>
       <c r="AC11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!AA11-('BFPIaE-production'!AC11-'BFPIaE-exports'!AC11))&gt;0,('BAU Total Primary Fuel Use'!AA11-('BFPIaE-production'!AC11-'BFPIaE-exports'!AC11)),0)</f>
-        <v>9247210751802188</v>
+        <v>8017610751802188</v>
       </c>
       <c r="AD11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!AB11-('BFPIaE-production'!AD11-'BFPIaE-exports'!AD11))&gt;0,('BAU Total Primary Fuel Use'!AB11-('BFPIaE-production'!AD11-'BFPIaE-exports'!AD11)),0)</f>
-        <v>9727210751802188</v>
+        <v>8228710751802188</v>
       </c>
       <c r="AE11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!AC11-('BFPIaE-production'!AE11-'BFPIaE-exports'!AE11))&gt;0,('BAU Total Primary Fuel Use'!AC11-('BFPIaE-production'!AE11-'BFPIaE-exports'!AE11)),0)</f>
-        <v>1.0301010751802188E+16</v>
+        <v>8440210751802188</v>
       </c>
       <c r="AF11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!AD11-('BFPIaE-production'!AF11-'BFPIaE-exports'!AF11))&gt;0,('BAU Total Primary Fuel Use'!AD11-('BFPIaE-production'!AF11-'BFPIaE-exports'!AF11)),0)</f>
-        <v>1.0877310751802188E+16</v>
+        <v>8653210751802188</v>
       </c>
       <c r="AG11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!AE11-('BFPIaE-production'!AG11-'BFPIaE-exports'!AG11))&gt;0,('BAU Total Primary Fuel Use'!AE11-('BFPIaE-production'!AG11-'BFPIaE-exports'!AG11)),0)</f>
-        <v>1.1456010751802188E+16</v>
+        <v>8866810751802188</v>
       </c>
       <c r="AH11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!AF11-('BFPIaE-production'!AH11-'BFPIaE-exports'!AH11))&gt;0,('BAU Total Primary Fuel Use'!AF11-('BFPIaE-production'!AH11-'BFPIaE-exports'!AH11)),0)</f>
-        <v>1.2036510751802188E+16</v>
+        <v>9080510751802188</v>
       </c>
       <c r="AI11" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!AG11-('BFPIaE-production'!AI11-'BFPIaE-exports'!AI11))&gt;0,('BAU Total Primary Fuel Use'!AG11-('BFPIaE-production'!AI11-'BFPIaE-exports'!AI11)),0)</f>
-        <v>1.2618610751802188E+16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+        <v>9292810751802188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>40</v>
       </c>
@@ -18596,7 +18599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>41</v>
       </c>
@@ -18736,7 +18739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>30</v>
       </c>
@@ -18842,42 +18845,42 @@
       </c>
       <c r="AA14">
         <f>'Petroleum Products'!Y31</f>
-        <v>663774429781.5</v>
+        <v>658315774429781.5</v>
       </c>
       <c r="AB14">
         <f>'Petroleum Products'!Z31</f>
-        <v>44874774429781.5</v>
+        <v>710175774429781.5</v>
       </c>
       <c r="AC14">
         <f>'Petroleum Products'!AA31</f>
-        <v>88899774429781.5</v>
+        <v>761665774429781.5</v>
       </c>
       <c r="AD14">
         <f>'Petroleum Products'!AB31</f>
-        <v>132672774429781.5</v>
+        <v>813245774429781.5</v>
       </c>
       <c r="AE14">
         <f>'Petroleum Products'!AC31</f>
-        <v>185451774429781.5</v>
+        <v>864315774429781.5</v>
       </c>
       <c r="AF14">
         <f>'Petroleum Products'!AD31</f>
-        <v>238134774429781.5</v>
+        <v>915225774429781.5</v>
       </c>
       <c r="AG14">
         <f>'Petroleum Products'!AE31</f>
-        <v>290792774429781.5</v>
+        <v>966055774429781.5</v>
       </c>
       <c r="AH14">
         <f>'Petroleum Products'!AF31</f>
-        <v>343285774429781.5</v>
+        <v>1016995774429781.5</v>
       </c>
       <c r="AI14">
         <f>'Petroleum Products'!AG31</f>
-        <v>395365774429781.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+        <v>1067915774429781.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>42</v>
       </c>
@@ -19017,7 +19020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>43</v>
       </c>
@@ -19157,7 +19160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>44</v>
       </c>
@@ -19298,7 +19301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>31</v>
       </c>
@@ -19439,7 +19442,7 @@
         <v>3.5117401196108456E+16</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>45</v>
       </c>
@@ -19453,134 +19456,134 @@
       </c>
       <c r="D19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!B19-('BFPIaE-production'!D19-'BFPIaE-exports'!D19))&gt;0,('BAU Total Primary Fuel Use'!B19-('BFPIaE-production'!D19-'BFPIaE-exports'!D19)),0)</f>
-        <v>55062586280000</v>
+        <v>42563586280000</v>
       </c>
       <c r="E19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!C19-('BFPIaE-production'!E19-'BFPIaE-exports'!E19))&gt;0,('BAU Total Primary Fuel Use'!C19-('BFPIaE-production'!E19-'BFPIaE-exports'!E19)),0)</f>
-        <v>21522586280000</v>
+        <v>34878586280000</v>
       </c>
       <c r="F19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!D19-('BFPIaE-production'!F19-'BFPIaE-exports'!F19))&gt;0,('BAU Total Primary Fuel Use'!D19-('BFPIaE-production'!F19-'BFPIaE-exports'!F19)),0)</f>
-        <v>63990586280000</v>
+        <v>59035586280000</v>
       </c>
       <c r="G19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!E19-('BFPIaE-production'!G19-'BFPIaE-exports'!G19))&gt;0,('BAU Total Primary Fuel Use'!E19-('BFPIaE-production'!G19-'BFPIaE-exports'!G19)),0)</f>
-        <v>94726586280000</v>
+        <v>78304586280000</v>
       </c>
       <c r="H19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!F19-('BFPIaE-production'!H19-'BFPIaE-exports'!H19))&gt;0,('BAU Total Primary Fuel Use'!F19-('BFPIaE-production'!H19-'BFPIaE-exports'!H19)),0)</f>
-        <v>122251586280000</v>
+        <v>98764586280000</v>
       </c>
       <c r="I19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!G19-('BFPIaE-production'!I19-'BFPIaE-exports'!I19))&gt;0,('BAU Total Primary Fuel Use'!G19-('BFPIaE-production'!I19-'BFPIaE-exports'!I19)),0)</f>
-        <v>146376586280000</v>
+        <v>117913586280000</v>
       </c>
       <c r="J19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!H19-('BFPIaE-production'!J19-'BFPIaE-exports'!J19))&gt;0,('BAU Total Primary Fuel Use'!H19-('BFPIaE-production'!J19-'BFPIaE-exports'!J19)),0)</f>
-        <v>168710586280000</v>
+        <v>136365586280000</v>
       </c>
       <c r="K19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!I19-('BFPIaE-production'!K19-'BFPIaE-exports'!K19))&gt;0,('BAU Total Primary Fuel Use'!I19-('BFPIaE-production'!K19-'BFPIaE-exports'!K19)),0)</f>
-        <v>190975586280000</v>
+        <v>154446586280000</v>
       </c>
       <c r="L19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!J19-('BFPIaE-production'!L19-'BFPIaE-exports'!L19))&gt;0,('BAU Total Primary Fuel Use'!J19-('BFPIaE-production'!L19-'BFPIaE-exports'!L19)),0)</f>
-        <v>212517586280000</v>
+        <v>172332586280000</v>
       </c>
       <c r="M19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!K19-('BFPIaE-production'!M19-'BFPIaE-exports'!M19))&gt;0,('BAU Total Primary Fuel Use'!K19-('BFPIaE-production'!M19-'BFPIaE-exports'!M19)),0)</f>
-        <v>234121586280000</v>
+        <v>192766586280000</v>
       </c>
       <c r="N19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!L19-('BFPIaE-production'!N19-'BFPIaE-exports'!N19))&gt;0,('BAU Total Primary Fuel Use'!L19-('BFPIaE-production'!N19-'BFPIaE-exports'!N19)),0)</f>
-        <v>255349586280000</v>
+        <v>213146586280000</v>
       </c>
       <c r="O19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!M19-('BFPIaE-production'!O19-'BFPIaE-exports'!O19))&gt;0,('BAU Total Primary Fuel Use'!M19-('BFPIaE-production'!O19-'BFPIaE-exports'!O19)),0)</f>
-        <v>276416586280000</v>
+        <v>233497586280000</v>
       </c>
       <c r="P19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!N19-('BFPIaE-production'!P19-'BFPIaE-exports'!P19))&gt;0,('BAU Total Primary Fuel Use'!N19-('BFPIaE-production'!P19-'BFPIaE-exports'!P19)),0)</f>
-        <v>297911586280000</v>
+        <v>253833586280000</v>
       </c>
       <c r="Q19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!O19-('BFPIaE-production'!Q19-'BFPIaE-exports'!Q19))&gt;0,('BAU Total Primary Fuel Use'!O19-('BFPIaE-production'!Q19-'BFPIaE-exports'!Q19)),0)</f>
-        <v>319283586280000</v>
+        <v>274168586280000</v>
       </c>
       <c r="R19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!P19-('BFPIaE-production'!R19-'BFPIaE-exports'!R19))&gt;0,('BAU Total Primary Fuel Use'!P19-('BFPIaE-production'!R19-'BFPIaE-exports'!R19)),0)</f>
-        <v>333213586280000</v>
+        <v>300348586280000</v>
       </c>
       <c r="S19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!Q19-('BFPIaE-production'!S19-'BFPIaE-exports'!S19))&gt;0,('BAU Total Primary Fuel Use'!Q19-('BFPIaE-production'!S19-'BFPIaE-exports'!S19)),0)</f>
-        <v>347032586280000</v>
+        <v>326527586280000</v>
       </c>
       <c r="T19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!R19-('BFPIaE-production'!T19-'BFPIaE-exports'!T19))&gt;0,('BAU Total Primary Fuel Use'!R19-('BFPIaE-production'!T19-'BFPIaE-exports'!T19)),0)</f>
-        <v>360822586280000</v>
+        <v>352706586280000</v>
       </c>
       <c r="U19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!S19-('BFPIaE-production'!U19-'BFPIaE-exports'!U19))&gt;0,('BAU Total Primary Fuel Use'!S19-('BFPIaE-production'!U19-'BFPIaE-exports'!U19)),0)</f>
-        <v>374598586280000</v>
+        <v>378885586280000</v>
       </c>
       <c r="V19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!T19-('BFPIaE-production'!V19-'BFPIaE-exports'!V19))&gt;0,('BAU Total Primary Fuel Use'!T19-('BFPIaE-production'!V19-'BFPIaE-exports'!V19)),0)</f>
-        <v>388292586280000</v>
+        <v>405064586280000</v>
       </c>
       <c r="W19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!U19-('BFPIaE-production'!W19-'BFPIaE-exports'!W19))&gt;0,('BAU Total Primary Fuel Use'!U19-('BFPIaE-production'!W19-'BFPIaE-exports'!W19)),0)</f>
-        <v>403979586280000</v>
+        <v>436342586280000</v>
       </c>
       <c r="X19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!V19-('BFPIaE-production'!X19-'BFPIaE-exports'!X19))&gt;0,('BAU Total Primary Fuel Use'!V19-('BFPIaE-production'!X19-'BFPIaE-exports'!X19)),0)</f>
-        <v>419580586280000</v>
+        <v>467621586280000</v>
       </c>
       <c r="Y19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!W19-('BFPIaE-production'!Y19-'BFPIaE-exports'!Y19))&gt;0,('BAU Total Primary Fuel Use'!W19-('BFPIaE-production'!Y19-'BFPIaE-exports'!Y19)),0)</f>
-        <v>435106586280000</v>
+        <v>498899586280000</v>
       </c>
       <c r="Z19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!X19-('BFPIaE-production'!Z19-'BFPIaE-exports'!Z19))&gt;0,('BAU Total Primary Fuel Use'!X19-('BFPIaE-production'!Z19-'BFPIaE-exports'!Z19)),0)</f>
-        <v>450307586280000</v>
+        <v>530177586280000</v>
       </c>
       <c r="AA19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!Y19-('BFPIaE-production'!AA19-'BFPIaE-exports'!AA19))&gt;0,('BAU Total Primary Fuel Use'!Y19-('BFPIaE-production'!AA19-'BFPIaE-exports'!AA19)),0)</f>
-        <v>465506586280000</v>
+        <v>561457586280000</v>
       </c>
       <c r="AB19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!Z19-('BFPIaE-production'!AB19-'BFPIaE-exports'!AB19))&gt;0,('BAU Total Primary Fuel Use'!Z19-('BFPIaE-production'!AB19-'BFPIaE-exports'!AB19)),0)</f>
-        <v>478148586280000</v>
+        <v>586641586280000</v>
       </c>
       <c r="AC19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!AA19-('BFPIaE-production'!AC19-'BFPIaE-exports'!AC19))&gt;0,('BAU Total Primary Fuel Use'!AA19-('BFPIaE-production'!AC19-'BFPIaE-exports'!AC19)),0)</f>
-        <v>490793586280000</v>
+        <v>611827586280000</v>
       </c>
       <c r="AD19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!AB19-('BFPIaE-production'!AD19-'BFPIaE-exports'!AD19))&gt;0,('BAU Total Primary Fuel Use'!AB19-('BFPIaE-production'!AD19-'BFPIaE-exports'!AD19)),0)</f>
-        <v>503422586280000</v>
+        <v>637012586280000</v>
       </c>
       <c r="AE19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!AC19-('BFPIaE-production'!AE19-'BFPIaE-exports'!AE19))&gt;0,('BAU Total Primary Fuel Use'!AC19-('BFPIaE-production'!AE19-'BFPIaE-exports'!AE19)),0)</f>
-        <v>515442586280000</v>
+        <v>662196586280000</v>
       </c>
       <c r="AF19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!AD19-('BFPIaE-production'!AF19-'BFPIaE-exports'!AF19))&gt;0,('BAU Total Primary Fuel Use'!AD19-('BFPIaE-production'!AF19-'BFPIaE-exports'!AF19)),0)</f>
-        <v>527459586280000</v>
+        <v>687382586280000</v>
       </c>
       <c r="AG19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!AE19-('BFPIaE-production'!AG19-'BFPIaE-exports'!AG19))&gt;0,('BAU Total Primary Fuel Use'!AE19-('BFPIaE-production'!AG19-'BFPIaE-exports'!AG19)),0)</f>
-        <v>539490586280000</v>
+        <v>712573586280000</v>
       </c>
       <c r="AH19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!AF19-('BFPIaE-production'!AH19-'BFPIaE-exports'!AH19))&gt;0,('BAU Total Primary Fuel Use'!AF19-('BFPIaE-production'!AH19-'BFPIaE-exports'!AH19)),0)</f>
-        <v>551518586280000</v>
+        <v>737753586280000</v>
       </c>
       <c r="AI19" s="12">
         <f>IF(('BAU Total Primary Fuel Use'!AG19-('BFPIaE-production'!AI19-'BFPIaE-exports'!AI19))&gt;0,('BAU Total Primary Fuel Use'!AG19-('BFPIaE-production'!AI19-'BFPIaE-exports'!AI19)),0)</f>
-        <v>563509586280000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+        <v>762943586280000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>32</v>
       </c>
@@ -19594,134 +19597,134 @@
       </c>
       <c r="D20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!B20-('BFPIaE-production'!D20-'BFPIaE-exports'!D20))&gt;0,('BAU Total Primary Fuel Use'!B20-('BFPIaE-production'!D20-'BFPIaE-exports'!D20)),0)</f>
-        <v>3052534094509000</v>
+        <v>1228684094509000</v>
       </c>
       <c r="E20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!C20-('BFPIaE-production'!E20-'BFPIaE-exports'!E20))&gt;0,('BAU Total Primary Fuel Use'!C20-('BFPIaE-production'!E20-'BFPIaE-exports'!E20)),0)</f>
-        <v>2987164094509000</v>
+        <v>1292904094509000</v>
       </c>
       <c r="F20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!D20-('BFPIaE-production'!F20-'BFPIaE-exports'!F20))&gt;0,('BAU Total Primary Fuel Use'!D20-('BFPIaE-production'!F20-'BFPIaE-exports'!F20)),0)</f>
-        <v>3213694094509000</v>
+        <v>1383184094509000</v>
       </c>
       <c r="G20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!E20-('BFPIaE-production'!G20-'BFPIaE-exports'!G20))&gt;0,('BAU Total Primary Fuel Use'!E20-('BFPIaE-production'!G20-'BFPIaE-exports'!G20)),0)</f>
-        <v>3393964094509000</v>
+        <v>1469484094509000</v>
       </c>
       <c r="H20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!F20-('BFPIaE-production'!H20-'BFPIaE-exports'!H20))&gt;0,('BAU Total Primary Fuel Use'!F20-('BFPIaE-production'!H20-'BFPIaE-exports'!H20)),0)</f>
-        <v>3560144094509000</v>
+        <v>1558114094509000</v>
       </c>
       <c r="I20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!G20-('BFPIaE-production'!I20-'BFPIaE-exports'!I20))&gt;0,('BAU Total Primary Fuel Use'!G20-('BFPIaE-production'!I20-'BFPIaE-exports'!I20)),0)</f>
-        <v>3713974094509000</v>
+        <v>1645554094509000</v>
       </c>
       <c r="J20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!H20-('BFPIaE-production'!J20-'BFPIaE-exports'!J20))&gt;0,('BAU Total Primary Fuel Use'!H20-('BFPIaE-production'!J20-'BFPIaE-exports'!J20)),0)</f>
-        <v>3861454094509000</v>
+        <v>1732454094509000</v>
       </c>
       <c r="K20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!I20-('BFPIaE-production'!K20-'BFPIaE-exports'!K20))&gt;0,('BAU Total Primary Fuel Use'!I20-('BFPIaE-production'!K20-'BFPIaE-exports'!K20)),0)</f>
-        <v>4005564094509000</v>
+        <v>1818984094509000</v>
       </c>
       <c r="L20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!J20-('BFPIaE-production'!L20-'BFPIaE-exports'!L20))&gt;0,('BAU Total Primary Fuel Use'!J20-('BFPIaE-production'!L20-'BFPIaE-exports'!L20)),0)</f>
-        <v>4147764094509000</v>
+        <v>1905204094509000</v>
       </c>
       <c r="M20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!K20-('BFPIaE-production'!M20-'BFPIaE-exports'!M20))&gt;0,('BAU Total Primary Fuel Use'!K20-('BFPIaE-production'!M20-'BFPIaE-exports'!M20)),0)</f>
-        <v>4291264094509000</v>
+        <v>1996174094509000</v>
       </c>
       <c r="N20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!L20-('BFPIaE-production'!N20-'BFPIaE-exports'!N20))&gt;0,('BAU Total Primary Fuel Use'!L20-('BFPIaE-production'!N20-'BFPIaE-exports'!N20)),0)</f>
-        <v>4434124094509000</v>
+        <v>2086954094509000</v>
       </c>
       <c r="O20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!M20-('BFPIaE-production'!O20-'BFPIaE-exports'!O20))&gt;0,('BAU Total Primary Fuel Use'!M20-('BFPIaE-production'!O20-'BFPIaE-exports'!O20)),0)</f>
-        <v>4576734094509000</v>
+        <v>2177674094509000</v>
       </c>
       <c r="P20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!N20-('BFPIaE-production'!P20-'BFPIaE-exports'!P20))&gt;0,('BAU Total Primary Fuel Use'!N20-('BFPIaE-production'!P20-'BFPIaE-exports'!P20)),0)</f>
-        <v>4719344094509000</v>
+        <v>2268434094509000</v>
       </c>
       <c r="Q20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!O20-('BFPIaE-production'!Q20-'BFPIaE-exports'!Q20))&gt;0,('BAU Total Primary Fuel Use'!O20-('BFPIaE-production'!Q20-'BFPIaE-exports'!Q20)),0)</f>
-        <v>4861754094509000</v>
+        <v>2359044094509000</v>
       </c>
       <c r="R20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!P20-('BFPIaE-production'!R20-'BFPIaE-exports'!R20))&gt;0,('BAU Total Primary Fuel Use'!P20-('BFPIaE-production'!R20-'BFPIaE-exports'!R20)),0)</f>
-        <v>5024274094509000</v>
+        <v>2454354094509000</v>
       </c>
       <c r="S20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!Q20-('BFPIaE-production'!S20-'BFPIaE-exports'!S20))&gt;0,('BAU Total Primary Fuel Use'!Q20-('BFPIaE-production'!S20-'BFPIaE-exports'!S20)),0)</f>
-        <v>5186724094509000</v>
+        <v>2549614094509000</v>
       </c>
       <c r="T20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!R20-('BFPIaE-production'!T20-'BFPIaE-exports'!T20))&gt;0,('BAU Total Primary Fuel Use'!R20-('BFPIaE-production'!T20-'BFPIaE-exports'!T20)),0)</f>
-        <v>5349184094509000</v>
+        <v>2644834094509000</v>
       </c>
       <c r="U20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!S20-('BFPIaE-production'!U20-'BFPIaE-exports'!U20))&gt;0,('BAU Total Primary Fuel Use'!S20-('BFPIaE-production'!U20-'BFPIaE-exports'!U20)),0)</f>
-        <v>5512084094509000</v>
+        <v>2740034094509000</v>
       </c>
       <c r="V20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!T20-('BFPIaE-production'!V20-'BFPIaE-exports'!V20))&gt;0,('BAU Total Primary Fuel Use'!T20-('BFPIaE-production'!V20-'BFPIaE-exports'!V20)),0)</f>
-        <v>5674874094509000</v>
+        <v>2835234094509000</v>
       </c>
       <c r="W20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!U20-('BFPIaE-production'!W20-'BFPIaE-exports'!W20))&gt;0,('BAU Total Primary Fuel Use'!U20-('BFPIaE-production'!W20-'BFPIaE-exports'!W20)),0)</f>
-        <v>5866444094509000</v>
+        <v>2921164094509000</v>
       </c>
       <c r="X20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!V20-('BFPIaE-production'!X20-'BFPIaE-exports'!X20))&gt;0,('BAU Total Primary Fuel Use'!V20-('BFPIaE-production'!X20-'BFPIaE-exports'!X20)),0)</f>
-        <v>6057914094509000</v>
+        <v>3007054094509000</v>
       </c>
       <c r="Y20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!W20-('BFPIaE-production'!Y20-'BFPIaE-exports'!Y20))&gt;0,('BAU Total Primary Fuel Use'!W20-('BFPIaE-production'!Y20-'BFPIaE-exports'!Y20)),0)</f>
-        <v>6249194094509000</v>
+        <v>3092804094509000</v>
       </c>
       <c r="Z20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!X20-('BFPIaE-production'!Z20-'BFPIaE-exports'!Z20))&gt;0,('BAU Total Primary Fuel Use'!X20-('BFPIaE-production'!Z20-'BFPIaE-exports'!Z20)),0)</f>
-        <v>6440964094509000</v>
+        <v>3178614094509000</v>
       </c>
       <c r="AA20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!Y20-('BFPIaE-production'!AA20-'BFPIaE-exports'!AA20))&gt;0,('BAU Total Primary Fuel Use'!Y20-('BFPIaE-production'!AA20-'BFPIaE-exports'!AA20)),0)</f>
-        <v>6632654094509000</v>
+        <v>3264394094509000</v>
       </c>
       <c r="AB20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!Z20-('BFPIaE-production'!AB20-'BFPIaE-exports'!AB20))&gt;0,('BAU Total Primary Fuel Use'!Z20-('BFPIaE-production'!AB20-'BFPIaE-exports'!AB20)),0)</f>
-        <v>6776034094509000</v>
+        <v>3317724094509000</v>
       </c>
       <c r="AC20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!AA20-('BFPIaE-production'!AC20-'BFPIaE-exports'!AC20))&gt;0,('BAU Total Primary Fuel Use'!AA20-('BFPIaE-production'!AC20-'BFPIaE-exports'!AC20)),0)</f>
-        <v>6919354094509000</v>
+        <v>3371014094509000</v>
       </c>
       <c r="AD20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!AB20-('BFPIaE-production'!AD20-'BFPIaE-exports'!AD20))&gt;0,('BAU Total Primary Fuel Use'!AB20-('BFPIaE-production'!AD20-'BFPIaE-exports'!AD20)),0)</f>
-        <v>7062624094509000</v>
+        <v>3424284094509000</v>
       </c>
       <c r="AE20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!AC20-('BFPIaE-production'!AE20-'BFPIaE-exports'!AE20))&gt;0,('BAU Total Primary Fuel Use'!AC20-('BFPIaE-production'!AE20-'BFPIaE-exports'!AE20)),0)</f>
-        <v>7206394094509000</v>
+        <v>3477524094509000</v>
       </c>
       <c r="AF20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!AD20-('BFPIaE-production'!AF20-'BFPIaE-exports'!AF20))&gt;0,('BAU Total Primary Fuel Use'!AD20-('BFPIaE-production'!AF20-'BFPIaE-exports'!AF20)),0)</f>
-        <v>7350114094509000</v>
+        <v>3530724094509000</v>
       </c>
       <c r="AG20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!AE20-('BFPIaE-production'!AG20-'BFPIaE-exports'!AG20))&gt;0,('BAU Total Primary Fuel Use'!AE20-('BFPIaE-production'!AG20-'BFPIaE-exports'!AG20)),0)</f>
-        <v>7493754094509000</v>
+        <v>3583904094509000</v>
       </c>
       <c r="AH20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!AF20-('BFPIaE-production'!AH20-'BFPIaE-exports'!AH20))&gt;0,('BAU Total Primary Fuel Use'!AF20-('BFPIaE-production'!AH20-'BFPIaE-exports'!AH20)),0)</f>
-        <v>7637334094509000</v>
+        <v>3637064094509000</v>
       </c>
       <c r="AI20" s="31">
         <f>IF(('BAU Total Primary Fuel Use'!AG20-('BFPIaE-production'!AI20-'BFPIaE-exports'!AI20))&gt;0,('BAU Total Primary Fuel Use'!AG20-('BFPIaE-production'!AI20-'BFPIaE-exports'!AI20)),0)</f>
-        <v>7780824094509000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+        <v>3690194094509000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
@@ -19861,7 +19864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
@@ -20001,7 +20004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
     </row>
   </sheetData>
@@ -20021,14 +20024,14 @@
       <selection activeCell="AE27" sqref="AE27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.26953125" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
     <col min="2" max="2" width="12" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="35" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>198</v>
       </c>
@@ -20135,7 +20138,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
@@ -20242,7 +20245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>34</v>
       </c>
@@ -20383,7 +20386,7 @@
         <v>15057155884348.047</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
@@ -20524,7 +20527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>35</v>
       </c>
@@ -20664,7 +20667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>36</v>
       </c>
@@ -20771,7 +20774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
@@ -20878,7 +20881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>38</v>
       </c>
@@ -20985,7 +20988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>28</v>
       </c>
@@ -21125,7 +21128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>29</v>
       </c>
@@ -21266,7 +21269,7 @@
         <v>619624120038866</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>39</v>
       </c>
@@ -21407,7 +21410,7 @@
         <v>1313794267340850.5</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>40</v>
       </c>
@@ -21514,7 +21517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>41</v>
       </c>
@@ -21654,109 +21657,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="31">
         <f>C14</f>
-        <v>417312225570218.5</v>
+        <v>233345225570218.5</v>
       </c>
       <c r="C14" s="31">
         <f>D14</f>
-        <v>417312225570218.5</v>
+        <v>233345225570218.5</v>
       </c>
       <c r="D14" s="31">
         <f>'Petroleum Products'!B32</f>
-        <v>417312225570218.5</v>
+        <v>233345225570218.5</v>
       </c>
       <c r="E14" s="31">
         <f>'Petroleum Products'!C32</f>
-        <v>479955225570218.5</v>
+        <v>283228225570218.5</v>
       </c>
       <c r="F14" s="31">
         <f>'Petroleum Products'!D32</f>
-        <v>482175225570218.5</v>
+        <v>258228225570218.5</v>
       </c>
       <c r="G14" s="31">
         <f>'Petroleum Products'!E32</f>
-        <v>492471225570218.5</v>
+        <v>244255225570218.5</v>
       </c>
       <c r="H14" s="31">
         <f>'Petroleum Products'!F32</f>
-        <v>476330225570218.5</v>
+        <v>196148225570218.5</v>
       </c>
       <c r="I14" s="31">
         <f>'Petroleum Products'!G32</f>
-        <v>462978225570218.5</v>
+        <v>152106225570218.5</v>
       </c>
       <c r="J14" s="31">
         <f>'Petroleum Products'!H32</f>
-        <v>451019225570218.5</v>
+        <v>110825225570218.5</v>
       </c>
       <c r="K14" s="31">
         <f>'Petroleum Products'!I32</f>
-        <v>433034225570218.5</v>
+        <v>71005225570218.5</v>
       </c>
       <c r="L14" s="31">
         <f>'Petroleum Products'!J32</f>
-        <v>415810225570218.5</v>
+        <v>32901225570218.5</v>
       </c>
       <c r="M14" s="31">
         <f>'Petroleum Products'!K32</f>
-        <v>399214225570218.5</v>
+        <v>-12856774429781.5</v>
       </c>
       <c r="N14" s="31">
         <f>'Petroleum Products'!L32</f>
-        <v>383130225570218.5</v>
+        <v>-56824774429781.5</v>
       </c>
       <c r="O14" s="31">
         <f>'Petroleum Products'!M32</f>
-        <v>367121225570218.5</v>
+        <v>-99375774429781.5</v>
       </c>
       <c r="P14" s="31">
         <f>'Petroleum Products'!N32</f>
-        <v>346554225570218.5</v>
+        <v>-141461774429781.5</v>
       </c>
       <c r="Q14" s="31">
         <f>'Petroleum Products'!O32</f>
-        <v>326227225570218.5</v>
+        <v>-182975774429781.5</v>
       </c>
       <c r="R14" s="31">
         <f>'Petroleum Products'!P32</f>
-        <v>306106225570218.5</v>
+        <v>-228686774429781.5</v>
       </c>
       <c r="S14" s="31">
         <f>'Petroleum Products'!Q32</f>
-        <v>286166225570218.5</v>
+        <v>-273917774429781.5</v>
       </c>
       <c r="T14" s="31">
         <f>'Petroleum Products'!R32</f>
-        <v>266254225570218.5</v>
+        <v>-318729774429781.5</v>
       </c>
       <c r="U14" s="31">
         <f>'Petroleum Products'!S32</f>
-        <v>229978225570218.5</v>
+        <v>-363525774429781.5</v>
       </c>
       <c r="V14" s="31">
         <f>'Petroleum Products'!T32</f>
-        <v>194016225570218.5</v>
+        <v>-407695774429781.5</v>
       </c>
       <c r="W14" s="31">
         <f>'Petroleum Products'!U32</f>
-        <v>158523225570218.5</v>
+        <v>-458025774429781.5</v>
       </c>
       <c r="X14" s="31">
         <f>'Petroleum Products'!V32</f>
-        <v>123448225570218.5</v>
+        <v>-509005774429781.5</v>
       </c>
       <c r="Y14" s="31">
         <f>'Petroleum Products'!W32</f>
-        <v>88784225570218.5</v>
+        <v>-559385774429781.5</v>
       </c>
       <c r="Z14" s="31">
         <f>'Petroleum Products'!X32</f>
-        <v>43903225570218.5</v>
+        <v>-609025774429781.5</v>
       </c>
       <c r="AA14" s="31">
         <f>'Petroleum Products'!Y32</f>
@@ -21795,7 +21798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>42</v>
       </c>
@@ -21902,7 +21905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>43</v>
       </c>
@@ -22009,7 +22012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>44</v>
       </c>
@@ -22150,7 +22153,7 @@
         <v>58666666666.666664</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>31</v>
       </c>
@@ -22291,7 +22294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>45</v>
       </c>
@@ -22432,7 +22435,7 @@
         <v>105596954960000</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>32</v>
       </c>
@@ -22573,7 +22576,7 @@
         <v>16087533489000</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
@@ -22680,7 +22683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
@@ -22787,7 +22790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
     </row>
   </sheetData>
@@ -22807,18 +22810,18 @@
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" customWidth="1"/>
-    <col min="3" max="3" width="26.6328125" customWidth="1"/>
-    <col min="6" max="6" width="21.08984375" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>199</v>
       </c>
@@ -22831,7 +22834,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>200</v>
       </c>
@@ -22852,7 +22855,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>202</v>
       </c>
@@ -22873,7 +22876,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="38">
         <v>2010</v>
       </c>
@@ -22896,7 +22899,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="38">
         <v>2011</v>
       </c>
@@ -22919,7 +22922,7 @@
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="38">
         <v>2012</v>
       </c>
@@ -22942,7 +22945,7 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="38">
         <v>2013</v>
       </c>
@@ -22965,7 +22968,7 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="38">
         <v>2014</v>
       </c>
@@ -22988,7 +22991,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="38">
         <v>2015</v>
       </c>
@@ -23011,7 +23014,7 @@
         <v>7.37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="38">
         <v>2016</v>
       </c>
@@ -23034,7 +23037,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>2017</v>
       </c>
@@ -23057,7 +23060,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>2018</v>
       </c>
@@ -23071,7 +23074,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>205</v>
       </c>
@@ -23080,7 +23083,7 @@
       </c>
       <c r="C13" s="38"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>2010</v>
       </c>
@@ -23089,7 +23092,7 @@
       </c>
       <c r="C14" s="38"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>2011</v>
       </c>
@@ -23098,7 +23101,7 @@
       </c>
       <c r="C15" s="38"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>2012</v>
       </c>
@@ -23107,7 +23110,7 @@
       </c>
       <c r="C16" s="38"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>2013</v>
       </c>
@@ -23116,7 +23119,7 @@
       </c>
       <c r="C17" s="38"/>
     </row>
-    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>2014</v>
       </c>
@@ -23125,7 +23128,7 @@
       </c>
       <c r="C18" s="38"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>2015</v>
       </c>
@@ -23134,7 +23137,7 @@
       </c>
       <c r="C19" s="38"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>2016</v>
       </c>
@@ -23143,7 +23146,7 @@
       </c>
       <c r="C20" s="38"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>2017</v>
       </c>
@@ -23152,7 +23155,7 @@
       </c>
       <c r="C21" s="38"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>2018</v>
       </c>
@@ -23161,14 +23164,14 @@
       </c>
       <c r="C22" s="38"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>206</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
         <v>207</v>
       </c>
@@ -23177,7 +23180,7 @@
       </c>
       <c r="C24" s="38"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
         <v>208</v>
       </c>
@@ -23186,7 +23189,7 @@
       </c>
       <c r="C25" s="38"/>
     </row>
-    <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
         <v>209</v>
       </c>
@@ -23195,14 +23198,14 @@
       </c>
       <c r="C26" s="38"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>211</v>
       </c>
@@ -23214,7 +23217,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>213</v>
       </c>
@@ -23226,7 +23229,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>214</v>
       </c>
@@ -23238,7 +23241,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="43">
         <v>3.9656699999999998</v>
       </c>
@@ -23246,7 +23249,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" s="15">
         <f>B31*B32</f>
         <v>12670.315649999999</v>
@@ -23255,7 +23258,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="31">
         <f>B33*1000</f>
         <v>12670315.649999999</v>
@@ -23264,14 +23267,14 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>475</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>5670000</v>
       </c>
@@ -23279,7 +23282,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" s="15">
         <f>B37/B24</f>
         <v>35663.225930624649</v>
@@ -23288,14 +23291,14 @@
         <v>218</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>10700</v>
       </c>
@@ -23303,7 +23306,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>8.5299999999999994</v>
       </c>
@@ -23311,7 +23314,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="31">
         <f>B41*1000/B42</f>
         <v>1254396.248534584</v>
@@ -23320,7 +23323,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" s="31">
         <f>B43*B25</f>
         <v>4974521.5709261429</v>
@@ -23329,7 +23332,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" s="31">
         <f>B44/B24</f>
         <v>31288.798356385338</v>
@@ -23338,14 +23341,14 @@
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>5.8170000000000002</v>
       </c>
@@ -23353,7 +23356,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49">
         <f>B48/B24</f>
         <v>3.6587828084381581E-2</v>
@@ -23362,7 +23365,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" s="31">
         <f>B49*10^6</f>
         <v>36587.828084381581</v>
@@ -23371,17 +23374,17 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="31"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B52" s="44"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
       <c r="B53" s="38">
         <v>11300</v>
@@ -23390,7 +23393,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="38"/>
       <c r="B54" s="38">
         <f>B53*1000</f>
@@ -23400,7 +23403,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="38"/>
       <c r="B55" s="45">
         <f>B54*B25</f>
@@ -23410,14 +23413,14 @@
         <v>216</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="38"/>
       <c r="B58" s="38">
         <v>36</v>
@@ -23426,7 +23429,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="38"/>
       <c r="B59" s="38">
         <f>B58*10^6</f>
@@ -23436,14 +23439,14 @@
         <v>229</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" s="17">
         <f>'Heat content of coal'!B9</f>
         <v>3616.0720537220332</v>
@@ -23452,7 +23455,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63">
         <f>B25*B62</f>
         <v>14340.148461283854</v>
@@ -23461,7 +23464,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64">
         <f>B63*1000</f>
         <v>14340148.461283853</v>
@@ -23470,14 +23473,14 @@
         <v>216</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>5.8</v>
       </c>
@@ -23485,7 +23488,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68">
         <f>B67*10^6</f>
         <v>5800000</v>
@@ -23494,14 +23497,14 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>12.93</v>
       </c>
@@ -23509,7 +23512,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>3.2589999999999999</v>
       </c>
@@ -23517,7 +23520,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>6.2899999999999996E-3</v>
       </c>
@@ -23525,14 +23528,14 @@
         <v>331</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>366</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>3750</v>
       </c>
@@ -23540,7 +23543,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B77" s="43">
         <v>3.9656699999999998</v>
       </c>
@@ -23548,7 +23551,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B78">
         <f>B76*B77</f>
         <v>14871.262499999999</v>
@@ -23557,7 +23560,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B79">
         <f>B78*1000</f>
         <v>14871262.499999998</v>
@@ -23566,14 +23569,14 @@
         <v>216</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B82" s="43">
         <f>1/3</f>
         <v>0.33333333333333331</v>
@@ -23582,7 +23585,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>40</v>
       </c>
@@ -23590,7 +23593,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B84" s="17">
         <f>B82*B83</f>
         <v>13.333333333333332</v>
@@ -23599,7 +23602,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B85">
         <f>B84*10^6</f>
         <v>13333333.333333332</v>
@@ -23608,14 +23611,14 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>483</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B88" s="88">
         <v>1000</v>
       </c>
@@ -23623,7 +23626,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B89" s="88">
         <v>2.2050000000000001</v>
       </c>
@@ -23631,7 +23634,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B90" s="88">
         <f>B88*B89</f>
         <v>2205</v>
@@ -23640,7 +23643,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>180000000</v>
       </c>
@@ -23648,7 +23651,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B92">
         <f>B91*B90</f>
         <v>396900000000</v>
@@ -23670,35 +23673,35 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="93"/>
       <c r="B1" s="95" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="C1" s="95"/>
       <c r="D1" s="4" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="93"/>
       <c r="B2" s="93" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="C2" s="93" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="B3" s="93">
         <v>942.63</v>
@@ -23707,32 +23710,32 @@
         <v>14262</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="B6">
         <f>2.39 * 10^11</f>
         <v>239000000000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="B7" s="31">
         <f>1 * 10^9</f>
         <v>1000000000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="85" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="B9" s="94">
         <f>(C3*B6)/(B3*B7)</f>
@@ -23756,18 +23759,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AG22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>198</v>
+        <v>551</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -23866,9 +23869,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -23967,211 +23970,211 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="85" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="B3" s="31">
-        <v>1.48792E+16</v>
+        <v>1.59324E+16</v>
       </c>
       <c r="C3" s="31">
-        <v>1.44178E+16</v>
+        <v>1.59671E+16</v>
       </c>
       <c r="D3" s="31">
-        <v>1.56556E+16</v>
+        <v>1.68387E+16</v>
       </c>
       <c r="E3" s="31">
-        <v>1.65617E+16</v>
+        <v>1.74617E+16</v>
       </c>
       <c r="F3" s="31">
-        <v>1.76477E+16</v>
+        <v>1.81194E+16</v>
       </c>
       <c r="G3" s="31">
-        <v>1.84952E+16</v>
+        <v>1.86995E+16</v>
       </c>
       <c r="H3" s="31">
-        <v>1.9246E+16</v>
+        <v>1.92167E+16</v>
       </c>
       <c r="I3" s="31">
-        <v>1.98262E+16</v>
+        <v>1.96175E+16</v>
       </c>
       <c r="J3" s="31">
-        <v>2.02327E+16</v>
+        <v>1.99983E+16</v>
       </c>
       <c r="K3" s="31">
-        <v>2.09015E+16</v>
+        <v>2.05823E+16</v>
       </c>
       <c r="L3" s="31">
-        <v>2.15738E+16</v>
+        <v>2.12413E+16</v>
       </c>
       <c r="M3" s="31">
-        <v>2.22312E+16</v>
+        <v>2.19646E+16</v>
       </c>
       <c r="N3" s="31">
-        <v>2.29509E+16</v>
+        <v>2.26539E+16</v>
       </c>
       <c r="O3" s="31">
-        <v>2.36603E+16</v>
+        <v>2.34081E+16</v>
       </c>
       <c r="P3" s="31">
-        <v>2.44633E+16</v>
+        <v>2.42235E+16</v>
       </c>
       <c r="Q3" s="31">
-        <v>2.50461E+16</v>
+        <v>2.48298E+16</v>
       </c>
       <c r="R3" s="31">
-        <v>2.56288E+16</v>
+        <v>2.54514E+16</v>
       </c>
       <c r="S3" s="31">
-        <v>2.62089E+16</v>
+        <v>2.60324E+16</v>
       </c>
       <c r="T3" s="31">
-        <v>2.67877E+16</v>
+        <v>2.66069E+16</v>
       </c>
       <c r="U3" s="31">
-        <v>2.73272E+16</v>
+        <v>2.71546E+16</v>
       </c>
       <c r="V3" s="31">
-        <v>2.77782E+16</v>
+        <v>2.76649E+16</v>
       </c>
       <c r="W3" s="31">
-        <v>2.84398E+16</v>
+        <v>2.81745E+16</v>
       </c>
       <c r="X3" s="31">
-        <v>2.88912E+16</v>
+        <v>2.86899E+16</v>
       </c>
       <c r="Y3" s="31">
-        <v>2.94102E+16</v>
+        <v>2.92078E+16</v>
       </c>
       <c r="Z3" s="31">
-        <v>2.98584E+16</v>
+        <v>2.96514E+16</v>
       </c>
       <c r="AA3" s="31">
-        <v>3.02415E+16</v>
+        <v>3.00303E+16</v>
       </c>
       <c r="AB3" s="31">
-        <v>3.06601E+16</v>
+        <v>3.04368E+16</v>
       </c>
       <c r="AC3" s="31">
-        <v>3.10668E+16</v>
+        <v>3.08427E+16</v>
       </c>
       <c r="AD3" s="31">
-        <v>3.13388E+16</v>
+        <v>3.12115E+16</v>
       </c>
       <c r="AE3" s="31">
-        <v>3.19958E+16</v>
+        <v>3.16397E+16</v>
       </c>
       <c r="AF3" s="31">
-        <v>3.22766E+16</v>
+        <v>3.20222E+16</v>
       </c>
       <c r="AG3" s="31">
-        <v>3.26766E+16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+        <v>3.24173E+16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="B4" s="31">
-        <v>2750850000000000</v>
+        <v>1607240000000000</v>
       </c>
       <c r="C4" s="31">
-        <v>2570950000000000</v>
+        <v>1574120000000000</v>
       </c>
       <c r="D4" s="31">
-        <v>2667460000000000</v>
+        <v>1650340000000000</v>
       </c>
       <c r="E4" s="31">
-        <v>2735430000000000</v>
+        <v>1714120000000000</v>
       </c>
       <c r="F4" s="31">
-        <v>2780450000000000</v>
+        <v>1788740000000000</v>
       </c>
       <c r="G4" s="31">
-        <v>2798970000000000</v>
+        <v>1858350000000000</v>
       </c>
       <c r="H4" s="31">
-        <v>2807630000000000</v>
+        <v>1924530000000000</v>
       </c>
       <c r="I4" s="31">
-        <v>2924330000000000</v>
+        <v>1988810000000000</v>
       </c>
       <c r="J4" s="31">
-        <v>2943260000000000</v>
+        <v>2051520000000000</v>
       </c>
       <c r="K4" s="31">
-        <v>2960800000000000</v>
+        <v>2185070000000000</v>
       </c>
       <c r="L4" s="31">
-        <v>3076580000000000</v>
+        <v>2377150000000000</v>
       </c>
       <c r="M4" s="31">
-        <v>3234090000000000</v>
+        <v>2571200000000000</v>
       </c>
       <c r="N4" s="31">
-        <v>4412550000000000</v>
+        <v>2786680000000000</v>
       </c>
       <c r="O4" s="31">
-        <v>4592490000000000</v>
+        <v>3003640000000000</v>
       </c>
       <c r="P4" s="31">
-        <v>4782320000000000</v>
+        <v>3235530000000000</v>
       </c>
       <c r="Q4" s="31">
-        <v>4962020000000000</v>
+        <v>3452930000000000</v>
       </c>
       <c r="R4" s="31">
-        <v>5137940000000000</v>
+        <v>3665020000000000</v>
       </c>
       <c r="S4" s="31">
-        <v>5312840000000000</v>
+        <v>3876900000000000</v>
       </c>
       <c r="T4" s="31">
-        <v>5583500000000000</v>
+        <v>4088600000000000</v>
       </c>
       <c r="U4" s="31">
-        <v>5755430000000000</v>
+        <v>4297560000000000</v>
       </c>
       <c r="V4" s="31">
-        <v>6914320000000000</v>
+        <v>4506350000000000</v>
       </c>
       <c r="W4" s="31">
-        <v>7074970000000000</v>
+        <v>4715340000000000</v>
       </c>
       <c r="X4" s="31">
-        <v>7228450000000000</v>
+        <v>4923690000000000</v>
       </c>
       <c r="Y4" s="31">
-        <v>7373360000000000</v>
+        <v>5130550000000000</v>
       </c>
       <c r="Z4" s="31">
-        <v>7468700000000000</v>
+        <v>5295830000000000</v>
       </c>
       <c r="AA4" s="31">
-        <v>7577420000000000</v>
+        <v>5480690000000000</v>
       </c>
       <c r="AB4" s="31">
-        <v>8682140000000000</v>
+        <v>5654910000000000</v>
       </c>
       <c r="AC4" s="31">
-        <v>8760430000000000</v>
+        <v>5819280000000000</v>
       </c>
       <c r="AD4" s="31">
-        <v>8854680000000000</v>
+        <v>6004170000000000</v>
       </c>
       <c r="AE4" s="31">
-        <v>9036450000000000</v>
+        <v>6167650000000000</v>
       </c>
       <c r="AF4" s="31">
-        <v>9107480000000000</v>
+        <v>6343740000000000</v>
       </c>
       <c r="AG4" s="31">
-        <v>9179250000000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+        <v>6518020000000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="B5" s="31">
         <v>374046000000000</v>
@@ -24180,99 +24183,99 @@
         <v>402143000000000</v>
       </c>
       <c r="D5" s="31">
-        <v>431265000000000</v>
+        <v>459874000000000</v>
       </c>
       <c r="E5" s="31">
-        <v>461412000000000</v>
+        <v>519655000000000</v>
       </c>
       <c r="F5" s="31">
-        <v>581186000000000</v>
+        <v>669961000000000</v>
       </c>
       <c r="G5" s="31">
-        <v>705189000000000</v>
+        <v>795500000000000</v>
       </c>
       <c r="H5" s="31">
-        <v>833290000000000</v>
+        <v>925139000000000</v>
       </c>
       <c r="I5" s="31">
-        <v>965491000000000</v>
+        <v>1058880000000000</v>
       </c>
       <c r="J5" s="31">
-        <v>1070150000000000</v>
+        <v>1165070000000000</v>
       </c>
       <c r="K5" s="31">
-        <v>1081420000000000</v>
+        <v>1210040000000000</v>
       </c>
       <c r="L5" s="31">
-        <v>1091760000000000</v>
+        <v>1254870000000000</v>
       </c>
       <c r="M5" s="31">
-        <v>1103030000000000</v>
+        <v>1301840000000000</v>
       </c>
       <c r="N5" s="31">
-        <v>1114300000000000</v>
+        <v>1383490000000000</v>
       </c>
       <c r="O5" s="31">
-        <v>1159740000000000</v>
+        <v>1467180000000000</v>
       </c>
       <c r="P5" s="31">
-        <v>1159740000000000</v>
+        <v>1501340000000000</v>
       </c>
       <c r="Q5" s="31">
-        <v>1159740000000000</v>
+        <v>1535500000000000</v>
       </c>
       <c r="R5" s="31">
-        <v>1159740000000000</v>
+        <v>1535500000000000</v>
       </c>
       <c r="S5" s="31">
-        <v>1159740000000000</v>
+        <v>1535500000000000</v>
       </c>
       <c r="T5" s="31">
-        <v>1159740000000000</v>
+        <v>1535500000000000</v>
       </c>
       <c r="U5" s="31">
-        <v>1159740000000000</v>
+        <v>1535500000000000</v>
       </c>
       <c r="V5" s="31">
-        <v>1159740000000000</v>
+        <v>1535500000000000</v>
       </c>
       <c r="W5" s="31">
-        <v>1159740000000000</v>
+        <v>1535500000000000</v>
       </c>
       <c r="X5" s="31">
-        <v>1159740000000000</v>
+        <v>1535500000000000</v>
       </c>
       <c r="Y5" s="31">
-        <v>1159740000000000</v>
+        <v>1535500000000000</v>
       </c>
       <c r="Z5" s="31">
-        <v>1159740000000000</v>
+        <v>1535500000000000</v>
       </c>
       <c r="AA5" s="31">
-        <v>1159740000000000</v>
+        <v>1535500000000000</v>
       </c>
       <c r="AB5" s="31">
-        <v>1159740000000000</v>
+        <v>1535500000000000</v>
       </c>
       <c r="AC5" s="31">
-        <v>1159740000000000</v>
+        <v>1535500000000000</v>
       </c>
       <c r="AD5" s="31">
-        <v>1159740000000000</v>
+        <v>1535500000000000</v>
       </c>
       <c r="AE5" s="31">
-        <v>1159740000000000</v>
+        <v>1535500000000000</v>
       </c>
       <c r="AF5" s="31">
-        <v>1159740000000000</v>
+        <v>1535500000000000</v>
       </c>
       <c r="AG5" s="31">
-        <v>1159740000000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+        <v>1535500000000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -24371,9 +24374,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>538</v>
+        <v>557</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -24472,9 +24475,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>539</v>
+        <v>558</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -24573,615 +24576,615 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>540</v>
+        <v>559</v>
       </c>
       <c r="B9" s="31">
         <v>6419690000000000</v>
       </c>
       <c r="C9" s="31">
-        <v>6303150000000000</v>
+        <v>6335190000000000</v>
       </c>
       <c r="D9" s="31">
-        <v>6288560000000000</v>
+        <v>6309020000000000</v>
       </c>
       <c r="E9" s="31">
-        <v>6255840000000000</v>
+        <v>6268200000000000</v>
       </c>
       <c r="F9" s="31">
-        <v>6216030000000000</v>
+        <v>6223410000000000</v>
       </c>
       <c r="G9" s="31">
-        <v>6162880000000000</v>
+        <v>6167150000000000</v>
       </c>
       <c r="H9" s="31">
-        <v>6115750000000000</v>
+        <v>6118180000000000</v>
       </c>
       <c r="I9" s="31">
-        <v>6056840000000000</v>
+        <v>6058190000000000</v>
       </c>
       <c r="J9" s="31">
-        <v>5996860000000000</v>
+        <v>5997590000000000</v>
       </c>
       <c r="K9" s="31">
-        <v>6094240000000000</v>
+        <v>6094630000000000</v>
       </c>
       <c r="L9" s="31">
-        <v>6190270000000000</v>
+        <v>6190450000000000</v>
       </c>
       <c r="M9" s="31">
-        <v>6287080000000000</v>
+        <v>6287170000000000</v>
       </c>
       <c r="N9" s="31">
-        <v>6382790000000000</v>
+        <v>6382820000000000</v>
       </c>
       <c r="O9" s="31">
-        <v>6479510000000000</v>
+        <v>6479470000000000</v>
       </c>
       <c r="P9" s="31">
-        <v>6466930000000000</v>
+        <v>6466880000000000</v>
       </c>
       <c r="Q9" s="31">
-        <v>6445350000000000</v>
+        <v>6445300000000000</v>
       </c>
       <c r="R9" s="31">
-        <v>6432770000000000</v>
+        <v>6432720000000000</v>
       </c>
       <c r="S9" s="31">
-        <v>6421190000000000</v>
+        <v>6421130000000000</v>
       </c>
       <c r="T9" s="31">
-        <v>6408710000000000</v>
+        <v>6408650000000000</v>
       </c>
       <c r="U9" s="31">
-        <v>6520470000000000</v>
+        <v>6520400000000000</v>
       </c>
       <c r="V9" s="31">
-        <v>6632210000000000</v>
+        <v>6632140000000000</v>
       </c>
       <c r="W9" s="31">
-        <v>6754050000000000</v>
+        <v>6753980000000000</v>
       </c>
       <c r="X9" s="31">
-        <v>6865800000000000</v>
+        <v>6865720000000000</v>
       </c>
       <c r="Y9" s="31">
-        <v>6977540000000000</v>
+        <v>6977460000000000</v>
       </c>
       <c r="Z9" s="31">
-        <v>7033230000000000</v>
+        <v>7033150000000000</v>
       </c>
       <c r="AA9" s="31">
-        <v>7098920000000000</v>
+        <v>7098840000000000</v>
       </c>
       <c r="AB9" s="31">
-        <v>7154700000000000</v>
+        <v>7154620000000000</v>
       </c>
       <c r="AC9" s="31">
-        <v>7210390000000000</v>
+        <v>7210300000000000</v>
       </c>
       <c r="AD9" s="31">
-        <v>7276080000000000</v>
+        <v>7275990000000000</v>
       </c>
       <c r="AE9" s="31">
-        <v>7336900000000000</v>
+        <v>7336800000000000</v>
       </c>
       <c r="AF9" s="31">
-        <v>7397840000000000</v>
+        <v>7397730000000000</v>
       </c>
       <c r="AG9" s="31">
-        <v>7468660000000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+        <v>7468550000000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="85" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="B10" s="31">
-        <v>1189050000000000</v>
+        <v>1080260000000000</v>
       </c>
       <c r="C10" s="31">
-        <v>934045000000000</v>
+        <v>991661000000000</v>
       </c>
       <c r="D10" s="31">
-        <v>1119980000000000</v>
+        <v>1109760000000000</v>
       </c>
       <c r="E10" s="31">
-        <v>1230250000000000</v>
+        <v>1210270000000000</v>
       </c>
       <c r="F10" s="31">
-        <v>1300680000000000</v>
+        <v>1292830000000000</v>
       </c>
       <c r="G10" s="31">
-        <v>1349580000000000</v>
+        <v>1359090000000000</v>
       </c>
       <c r="H10" s="31">
-        <v>1385950000000000</v>
+        <v>1412260000000000</v>
       </c>
       <c r="I10" s="31">
-        <v>1417180000000000</v>
+        <v>1473840000000000</v>
       </c>
       <c r="J10" s="31">
-        <v>1442230000000000</v>
+        <v>1528320000000000</v>
       </c>
       <c r="K10" s="31">
-        <v>1462190000000000</v>
+        <v>1585470000000000</v>
       </c>
       <c r="L10" s="31">
-        <v>1477810000000000</v>
+        <v>1635780000000000</v>
       </c>
       <c r="M10" s="31">
-        <v>1489610000000000</v>
+        <v>1679350000000000</v>
       </c>
       <c r="N10" s="31">
-        <v>1507940000000000</v>
+        <v>1716280000000000</v>
       </c>
       <c r="O10" s="31">
-        <v>1521530000000000</v>
+        <v>1746600000000000</v>
       </c>
       <c r="P10" s="31">
-        <v>1531750000000000</v>
+        <v>1771840000000000</v>
       </c>
       <c r="Q10" s="31">
-        <v>1539250000000000</v>
+        <v>1791150000000000</v>
       </c>
       <c r="R10" s="31">
-        <v>1544180000000000</v>
+        <v>1806480000000000</v>
       </c>
       <c r="S10" s="31">
-        <v>1562610000000000</v>
+        <v>1819060000000000</v>
       </c>
       <c r="T10" s="31">
-        <v>1578970000000000</v>
+        <v>1834110000000000</v>
       </c>
       <c r="U10" s="31">
-        <v>1593920000000000</v>
+        <v>1852820000000000</v>
       </c>
       <c r="V10" s="31">
-        <v>1608490000000000</v>
+        <v>1865920000000000</v>
       </c>
       <c r="W10" s="31">
-        <v>1623750000000000</v>
+        <v>1879160000000000</v>
       </c>
       <c r="X10" s="31">
-        <v>1655030000000000</v>
+        <v>1892480000000000</v>
       </c>
       <c r="Y10" s="31">
-        <v>1687190000000000</v>
+        <v>1906060000000000</v>
       </c>
       <c r="Z10" s="31">
-        <v>1720920000000000</v>
+        <v>1920190000000000</v>
       </c>
       <c r="AA10" s="31">
-        <v>1756600000000000</v>
+        <v>1935960000000000</v>
       </c>
       <c r="AB10" s="31">
-        <v>1794430000000000</v>
+        <v>1953540000000000</v>
       </c>
       <c r="AC10" s="31">
-        <v>1854970000000000</v>
+        <v>1972180000000000</v>
       </c>
       <c r="AD10" s="31">
-        <v>1916250000000000</v>
+        <v>1990600000000000</v>
       </c>
       <c r="AE10" s="31">
-        <v>1978890000000000</v>
+        <v>2010870000000000</v>
       </c>
       <c r="AF10" s="31">
-        <v>2043120000000000</v>
+        <v>2032870000000000</v>
       </c>
       <c r="AG10" s="31">
-        <v>2108740000000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+        <v>2056490000000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="85" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="B11" s="31">
-        <v>4461030000000000</v>
+        <v>4480940000000000</v>
       </c>
       <c r="C11" s="31">
-        <v>3637360000000000</v>
+        <v>4196800000000000</v>
       </c>
       <c r="D11" s="31">
-        <v>4376890000000000</v>
+        <v>4716760000000000</v>
       </c>
       <c r="E11" s="31">
-        <v>4852600000000000</v>
+        <v>5094160000000000</v>
       </c>
       <c r="F11" s="31">
-        <v>5200770000000000</v>
+        <v>5477690000000000</v>
       </c>
       <c r="G11" s="31">
-        <v>5476320000000000</v>
+        <v>5816920000000000</v>
       </c>
       <c r="H11" s="31">
-        <v>5712730000000000</v>
+        <v>6124200000000000</v>
       </c>
       <c r="I11" s="31">
-        <v>5995050000000000</v>
+        <v>6403140000000000</v>
       </c>
       <c r="J11" s="31">
-        <v>6263480000000000</v>
+        <v>6668080000000000</v>
       </c>
       <c r="K11" s="31">
-        <v>6527140000000000</v>
+        <v>6988320000000000</v>
       </c>
       <c r="L11" s="31">
-        <v>6784010000000000</v>
+        <v>7310700000000000</v>
       </c>
       <c r="M11" s="31">
-        <v>7061480000000000</v>
+        <v>7627160000000000</v>
       </c>
       <c r="N11" s="31">
-        <v>7409850000000000</v>
+        <v>7933020000000000</v>
       </c>
       <c r="O11" s="31">
-        <v>7767690000000000</v>
+        <v>8227780000000000</v>
       </c>
       <c r="P11" s="31">
-        <v>8117940000000000</v>
+        <v>8532830000000000</v>
       </c>
       <c r="Q11" s="31">
-        <v>8463410000000000</v>
+        <v>8829910000000000</v>
       </c>
       <c r="R11" s="31">
-        <v>8804570000000000</v>
+        <v>9121480000000000</v>
       </c>
       <c r="S11" s="31">
-        <v>9210760000000000</v>
+        <v>9409060000000000</v>
       </c>
       <c r="T11" s="31">
-        <v>9613770000000000</v>
+        <v>9690990000000000</v>
       </c>
       <c r="U11" s="31">
-        <v>1.00152E+16</v>
+        <v>9992680000000000</v>
       </c>
       <c r="V11" s="31">
-        <v>1.0416E+16</v>
+        <v>1.02687E+16</v>
       </c>
       <c r="W11" s="31">
-        <v>1.08181E+16</v>
+        <v>1.05423E+16</v>
       </c>
       <c r="X11" s="31">
-        <v>1.12994E+16</v>
+        <v>1.08153E+16</v>
       </c>
       <c r="Y11" s="31">
-        <v>1.17821E+16</v>
+        <v>1.10867E+16</v>
       </c>
       <c r="Z11" s="31">
-        <v>1.22574E+16</v>
+        <v>1.12963E+16</v>
       </c>
       <c r="AA11" s="31">
-        <v>1.27353E+16</v>
+        <v>1.15057E+16</v>
       </c>
       <c r="AB11" s="31">
-        <v>1.32153E+16</v>
+        <v>1.17168E+16</v>
       </c>
       <c r="AC11" s="31">
-        <v>1.37891E+16</v>
+        <v>1.19283E+16</v>
       </c>
       <c r="AD11" s="31">
-        <v>1.43654E+16</v>
+        <v>1.21413E+16</v>
       </c>
       <c r="AE11" s="31">
-        <v>1.49441E+16</v>
+        <v>1.23549E+16</v>
       </c>
       <c r="AF11" s="31">
-        <v>1.55246E+16</v>
+        <v>1.25686E+16</v>
       </c>
       <c r="AG11" s="31">
-        <v>1.61067E+16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+        <v>1.27809E+16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="B12" s="31">
-        <v>37280600000000</v>
+        <v>114484000000000</v>
       </c>
       <c r="C12" s="31">
-        <v>32775200000000</v>
+        <v>105102000000000</v>
       </c>
       <c r="D12" s="31">
-        <v>43514600000000</v>
+        <v>149609000000000</v>
       </c>
       <c r="E12" s="31">
-        <v>52329000000000</v>
+        <v>167847000000000</v>
       </c>
       <c r="F12" s="31">
-        <v>60291100000000</v>
+        <v>194122000000000</v>
       </c>
       <c r="G12" s="31">
-        <v>67748100000000</v>
+        <v>220196000000000</v>
       </c>
       <c r="H12" s="31">
-        <v>74943600000000</v>
+        <v>247417000000000</v>
       </c>
       <c r="I12" s="31">
-        <v>82005500000000</v>
+        <v>256590000000000</v>
       </c>
       <c r="J12" s="31">
-        <v>89124700000000</v>
+        <v>263991000000000</v>
       </c>
       <c r="K12" s="31">
-        <v>96149500000000</v>
+        <v>272555000000000</v>
       </c>
       <c r="L12" s="31">
-        <v>103073000000000</v>
+        <v>279750000000000</v>
       </c>
       <c r="M12" s="31">
-        <v>109886000000000</v>
+        <v>284688000000000</v>
       </c>
       <c r="N12" s="31">
-        <v>111238000000000</v>
+        <v>287378000000000</v>
       </c>
       <c r="O12" s="31">
-        <v>112240000000000</v>
+        <v>288973000000000</v>
       </c>
       <c r="P12" s="31">
-        <v>112994000000000</v>
+        <v>289484000000000</v>
       </c>
       <c r="Q12" s="31">
-        <v>113547000000000</v>
+        <v>288966000000000</v>
       </c>
       <c r="R12" s="31">
-        <v>113911000000000</v>
+        <v>286936000000000</v>
       </c>
       <c r="S12" s="31">
-        <v>115270000000000</v>
+        <v>284000000000000</v>
       </c>
       <c r="T12" s="31">
-        <v>116477000000000</v>
+        <v>281719000000000</v>
       </c>
       <c r="U12" s="31">
-        <v>117580000000000</v>
+        <v>280290000000000</v>
       </c>
       <c r="V12" s="31">
-        <v>118655000000000</v>
+        <v>282272000000000</v>
       </c>
       <c r="W12" s="31">
-        <v>119780000000000</v>
+        <v>284275000000000</v>
       </c>
       <c r="X12" s="31">
-        <v>122088000000000</v>
+        <v>286291000000000</v>
       </c>
       <c r="Y12" s="31">
-        <v>124460000000000</v>
+        <v>288344000000000</v>
       </c>
       <c r="Z12" s="31">
-        <v>126948000000000</v>
+        <v>290482000000000</v>
       </c>
       <c r="AA12" s="31">
-        <v>129581000000000</v>
+        <v>292868000000000</v>
       </c>
       <c r="AB12" s="31">
-        <v>132371000000000</v>
+        <v>295527000000000</v>
       </c>
       <c r="AC12" s="31">
-        <v>136837000000000</v>
+        <v>298347000000000</v>
       </c>
       <c r="AD12" s="31">
-        <v>141357000000000</v>
+        <v>301134000000000</v>
       </c>
       <c r="AE12" s="31">
-        <v>145979000000000</v>
+        <v>304200000000000</v>
       </c>
       <c r="AF12" s="31">
-        <v>150717000000000</v>
+        <v>307528000000000</v>
       </c>
       <c r="AG12" s="31">
-        <v>155557000000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+        <v>311101000000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="B13" s="31">
-        <v>197343000000000</v>
+        <v>146806000000000</v>
       </c>
       <c r="C13" s="31">
-        <v>155892000000000</v>
+        <v>134641000000000</v>
       </c>
       <c r="D13" s="31">
-        <v>191140000000000</v>
+        <v>137888000000000</v>
       </c>
       <c r="E13" s="31">
-        <v>213362000000000</v>
+        <v>144196000000000</v>
       </c>
       <c r="F13" s="31">
-        <v>228952000000000</v>
+        <v>144416000000000</v>
       </c>
       <c r="G13" s="31">
-        <v>240954000000000</v>
+        <v>138953000000000</v>
       </c>
       <c r="H13" s="31">
-        <v>251019000000000</v>
+        <v>133610000000000</v>
       </c>
       <c r="I13" s="31">
-        <v>263564000000000</v>
+        <v>133742000000000</v>
       </c>
       <c r="J13" s="31">
-        <v>275410000000000</v>
+        <v>131279000000000</v>
       </c>
       <c r="K13" s="31">
-        <v>286800000000000</v>
+        <v>132854000000000</v>
       </c>
       <c r="L13" s="31">
-        <v>297835000000000</v>
+        <v>133578000000000</v>
       </c>
       <c r="M13" s="31">
-        <v>309972000000000</v>
+        <v>129235000000000</v>
       </c>
       <c r="N13" s="31">
-        <v>325836000000000</v>
+        <v>119411000000000</v>
       </c>
       <c r="O13" s="31">
-        <v>342212000000000</v>
+        <v>108794000000000</v>
       </c>
       <c r="P13" s="31">
-        <v>358248000000000</v>
+        <v>96230500000000</v>
       </c>
       <c r="Q13" s="31">
-        <v>374040000000000</v>
+        <v>82577300000000</v>
       </c>
       <c r="R13" s="31">
-        <v>389604000000000</v>
+        <v>64026900000000</v>
       </c>
       <c r="S13" s="31">
-        <v>408597000000000</v>
+        <v>42262300000000</v>
       </c>
       <c r="T13" s="31">
-        <v>427420000000000</v>
+        <v>20814800000000</v>
       </c>
       <c r="U13" s="31">
-        <v>446156000000000</v>
+        <v>0</v>
       </c>
       <c r="V13" s="31">
-        <v>464861000000000</v>
+        <v>0</v>
       </c>
       <c r="W13" s="31">
-        <v>483628000000000</v>
+        <v>0</v>
       </c>
       <c r="X13" s="31">
-        <v>506582000000000</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="31">
-        <v>529604000000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="31">
-        <v>552754000000000</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="31">
-        <v>576033000000000</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="31">
-        <v>599432000000000</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="31">
-        <v>627769000000000</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="31">
-        <v>656246000000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="31">
-        <v>684838000000000</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="31">
-        <v>713537000000000</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="31">
-        <v>742314000000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="85" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="B14" s="31">
-        <v>253052000000000</v>
+        <v>437019000000000</v>
       </c>
       <c r="C14" s="31">
-        <v>190409000000000</v>
+        <v>387136000000000</v>
       </c>
       <c r="D14" s="31">
-        <v>188189000000000</v>
+        <v>412136000000000</v>
       </c>
       <c r="E14" s="31">
-        <v>177893000000000</v>
+        <v>426109000000000</v>
       </c>
       <c r="F14" s="31">
-        <v>194034000000000</v>
+        <v>474216000000000</v>
       </c>
       <c r="G14" s="31">
-        <v>207386000000000</v>
+        <v>518258000000000</v>
       </c>
       <c r="H14" s="31">
-        <v>219345000000000</v>
+        <v>559539000000000</v>
       </c>
       <c r="I14" s="31">
-        <v>237330000000000</v>
+        <v>599359000000000</v>
       </c>
       <c r="J14" s="31">
-        <v>254554000000000</v>
+        <v>637463000000000</v>
       </c>
       <c r="K14" s="31">
-        <v>271150000000000</v>
+        <v>683221000000000</v>
       </c>
       <c r="L14" s="31">
-        <v>287234000000000</v>
+        <v>727189000000000</v>
       </c>
       <c r="M14" s="31">
-        <v>303243000000000</v>
+        <v>769740000000000</v>
       </c>
       <c r="N14" s="31">
-        <v>323810000000000</v>
+        <v>811826000000000</v>
       </c>
       <c r="O14" s="31">
-        <v>344137000000000</v>
+        <v>853340000000000</v>
       </c>
       <c r="P14" s="31">
-        <v>364258000000000</v>
+        <v>899051000000000</v>
       </c>
       <c r="Q14" s="31">
-        <v>384198000000000</v>
+        <v>944282000000000</v>
       </c>
       <c r="R14" s="31">
-        <v>404110000000000</v>
+        <v>989094000000000</v>
       </c>
       <c r="S14" s="31">
-        <v>440386000000000</v>
+        <v>1033890000000000</v>
       </c>
       <c r="T14" s="31">
-        <v>476348000000000</v>
+        <v>1078060000000000</v>
       </c>
       <c r="U14" s="31">
-        <v>511841000000000</v>
+        <v>1128390000000000</v>
       </c>
       <c r="V14" s="31">
-        <v>546916000000000</v>
+        <v>1179370000000000</v>
       </c>
       <c r="W14" s="31">
-        <v>581580000000000</v>
+        <v>1229750000000000</v>
       </c>
       <c r="X14" s="31">
-        <v>626461000000000</v>
+        <v>1279390000000000</v>
       </c>
       <c r="Y14" s="31">
-        <v>671028000000000</v>
+        <v>1328680000000000</v>
       </c>
       <c r="Z14" s="31">
-        <v>715239000000000</v>
+        <v>1380540000000000</v>
       </c>
       <c r="AA14" s="31">
-        <v>759264000000000</v>
+        <v>1432030000000000</v>
       </c>
       <c r="AB14" s="31">
-        <v>803037000000000</v>
+        <v>1483610000000000</v>
       </c>
       <c r="AC14" s="31">
-        <v>855816000000000</v>
+        <v>1534680000000000</v>
       </c>
       <c r="AD14" s="31">
-        <v>908499000000000</v>
+        <v>1585590000000000</v>
       </c>
       <c r="AE14" s="31">
-        <v>961157000000000</v>
+        <v>1636420000000000</v>
       </c>
       <c r="AF14" s="31">
-        <v>1013650000000000</v>
+        <v>1687360000000000</v>
       </c>
       <c r="AG14" s="31">
-        <v>1065730000000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+        <v>1738280000000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -25280,9 +25283,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -25381,514 +25384,514 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="85" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="B17" s="31">
-        <v>2371100000000</v>
+        <v>10687200000000</v>
       </c>
       <c r="C17" s="31">
-        <v>2029710000000</v>
+        <v>10193900000000</v>
       </c>
       <c r="D17" s="31">
-        <v>2191930000000</v>
+        <v>10136600000000</v>
       </c>
       <c r="E17" s="31">
-        <v>2249770000000</v>
+        <v>9806580000000</v>
       </c>
       <c r="F17" s="31">
-        <v>2454420000000</v>
+        <v>9501040000000</v>
       </c>
       <c r="G17" s="31">
-        <v>2352070000000</v>
+        <v>9339380000000</v>
       </c>
       <c r="H17" s="31">
-        <v>2285590000000</v>
+        <v>9217660000000</v>
       </c>
       <c r="I17" s="31">
-        <v>2243040000000</v>
+        <v>9149050000000</v>
       </c>
       <c r="J17" s="31">
-        <v>2244140000000</v>
+        <v>9156890000000</v>
       </c>
       <c r="K17" s="31">
-        <v>2256330000000</v>
+        <v>9040530000000</v>
       </c>
       <c r="L17" s="31">
-        <v>2311370000000</v>
+        <v>9152540000000</v>
       </c>
       <c r="M17" s="31">
-        <v>2367390000000</v>
+        <v>9397480000000</v>
       </c>
       <c r="N17" s="31">
-        <v>2477620000000</v>
+        <v>9577300000000</v>
       </c>
       <c r="O17" s="31">
-        <v>2580470000000</v>
+        <v>9896430000000</v>
       </c>
       <c r="P17" s="31">
-        <v>2724860000000</v>
+        <v>10256500000000</v>
       </c>
       <c r="Q17" s="31">
-        <v>2729490000000</v>
+        <v>10253500000000</v>
       </c>
       <c r="R17" s="31">
-        <v>2741910000000</v>
+        <v>10281700000000</v>
       </c>
       <c r="S17" s="31">
-        <v>2745470000000</v>
+        <v>10287900000000</v>
       </c>
       <c r="T17" s="31">
-        <v>2741900000000</v>
+        <v>10298800000000</v>
       </c>
       <c r="U17" s="31">
-        <v>2752050000000</v>
+        <v>10344100000000</v>
       </c>
       <c r="V17" s="31">
-        <v>2707490000000</v>
+        <v>10309600000000</v>
       </c>
       <c r="W17" s="31">
-        <v>2804270000000</v>
+        <v>10292200000000</v>
       </c>
       <c r="X17" s="31">
-        <v>2790120000000</v>
+        <v>10371000000000</v>
       </c>
       <c r="Y17" s="31">
-        <v>2748490000000</v>
+        <v>10281500000000</v>
       </c>
       <c r="Z17" s="31">
-        <v>2780520000000</v>
+        <v>10345000000000</v>
       </c>
       <c r="AA17" s="31">
-        <v>2766840000000</v>
+        <v>10309900000000</v>
       </c>
       <c r="AB17" s="31">
-        <v>2772040000000</v>
+        <v>10316600000000</v>
       </c>
       <c r="AC17" s="31">
-        <v>2775090000000</v>
+        <v>10323400000000</v>
       </c>
       <c r="AD17" s="31">
-        <v>2685590000000</v>
+        <v>10279500000000</v>
       </c>
       <c r="AE17" s="31">
-        <v>2864810000000</v>
+        <v>10307400000000</v>
       </c>
       <c r="AF17" s="31">
-        <v>2776050000000</v>
+        <v>10279700000000</v>
       </c>
       <c r="AG17" s="31">
-        <v>2775440000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+        <v>10273500000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="B18" s="31">
-        <v>1.23549E+16</v>
+        <v>1.25637E+16</v>
       </c>
       <c r="C18" s="31">
-        <v>1.18882E+16</v>
+        <v>1.25757E+16</v>
       </c>
       <c r="D18" s="31">
-        <v>1.30743E+16</v>
+        <v>1.35492E+16</v>
       </c>
       <c r="E18" s="31">
-        <v>1.40085E+16</v>
+        <v>1.43761E+16</v>
       </c>
       <c r="F18" s="31">
-        <v>1.50893E+16</v>
+        <v>1.54204E+16</v>
       </c>
       <c r="G18" s="31">
-        <v>1.61032E+16</v>
+        <v>1.64258E+16</v>
       </c>
       <c r="H18" s="31">
-        <v>1.7081E+16</v>
+        <v>1.74102E+16</v>
       </c>
       <c r="I18" s="31">
-        <v>1.80396E+16</v>
+        <v>1.83835E+16</v>
       </c>
       <c r="J18" s="31">
-        <v>1.89879E+16</v>
+        <v>1.93508E+16</v>
       </c>
       <c r="K18" s="31">
-        <v>2.02488E+16</v>
+        <v>2.06284E+16</v>
       </c>
       <c r="L18" s="31">
-        <v>2.15069E+16</v>
+        <v>2.19044E+16</v>
       </c>
       <c r="M18" s="31">
-        <v>2.27636E+16</v>
+        <v>2.31795E+16</v>
       </c>
       <c r="N18" s="31">
-        <v>2.40194E+16</v>
+        <v>2.44541E+16</v>
       </c>
       <c r="O18" s="31">
-        <v>2.52753E+16</v>
+        <v>2.57288E+16</v>
       </c>
       <c r="P18" s="31">
-        <v>2.66186E+16</v>
+        <v>2.70896E+16</v>
       </c>
       <c r="Q18" s="31">
-        <v>2.79619E+16</v>
+        <v>2.84503E+16</v>
       </c>
       <c r="R18" s="31">
-        <v>2.93052E+16</v>
+        <v>2.98111E+16</v>
       </c>
       <c r="S18" s="31">
-        <v>3.06485E+16</v>
+        <v>3.11719E+16</v>
       </c>
       <c r="T18" s="31">
-        <v>3.19919E+16</v>
+        <v>3.25327E+16</v>
       </c>
       <c r="U18" s="31">
-        <v>3.2964E+16</v>
+        <v>3.35355E+16</v>
       </c>
       <c r="V18" s="31">
-        <v>3.39361E+16</v>
+        <v>3.45383E+16</v>
       </c>
       <c r="W18" s="31">
-        <v>3.49082E+16</v>
+        <v>3.55411E+16</v>
       </c>
       <c r="X18" s="31">
-        <v>3.58804E+16</v>
+        <v>3.65439E+16</v>
       </c>
       <c r="Y18" s="31">
-        <v>3.68525E+16</v>
+        <v>3.75468E+16</v>
       </c>
       <c r="Z18" s="31">
-        <v>3.74888E+16</v>
+        <v>3.819E+16</v>
       </c>
       <c r="AA18" s="31">
-        <v>3.81251E+16</v>
+        <v>3.88333E+16</v>
       </c>
       <c r="AB18" s="31">
-        <v>3.87614E+16</v>
+        <v>3.94766E+16</v>
       </c>
       <c r="AC18" s="31">
-        <v>3.93977E+16</v>
+        <v>4.01198E+16</v>
       </c>
       <c r="AD18" s="31">
-        <v>4.0034E+16</v>
+        <v>4.07631E+16</v>
       </c>
       <c r="AE18" s="31">
-        <v>4.06703E+16</v>
+        <v>4.14063E+16</v>
       </c>
       <c r="AF18" s="31">
-        <v>4.13066E+16</v>
+        <v>4.20496E+16</v>
       </c>
       <c r="AG18" s="31">
-        <v>4.19429E+16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+        <v>4.26929E+16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="85" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="B19" s="31">
-        <v>351429000000000</v>
+        <v>338930000000000</v>
       </c>
       <c r="C19" s="31">
-        <v>317889000000000</v>
+        <v>331245000000000</v>
       </c>
       <c r="D19" s="31">
-        <v>360357000000000</v>
+        <v>355402000000000</v>
       </c>
       <c r="E19" s="31">
-        <v>391093000000000</v>
+        <v>374671000000000</v>
       </c>
       <c r="F19" s="31">
-        <v>418618000000000</v>
+        <v>395131000000000</v>
       </c>
       <c r="G19" s="31">
-        <v>442743000000000</v>
+        <v>414280000000000</v>
       </c>
       <c r="H19" s="31">
-        <v>465077000000000</v>
+        <v>432732000000000</v>
       </c>
       <c r="I19" s="31">
-        <v>487342000000000</v>
+        <v>450813000000000</v>
       </c>
       <c r="J19" s="31">
-        <v>508884000000000</v>
+        <v>468699000000000</v>
       </c>
       <c r="K19" s="31">
-        <v>530488000000000</v>
+        <v>489133000000000</v>
       </c>
       <c r="L19" s="31">
-        <v>551716000000000</v>
+        <v>509513000000000</v>
       </c>
       <c r="M19" s="31">
-        <v>572783000000000</v>
+        <v>529864000000000</v>
       </c>
       <c r="N19" s="31">
-        <v>594278000000000</v>
+        <v>550200000000000</v>
       </c>
       <c r="O19" s="31">
-        <v>615650000000000</v>
+        <v>570535000000000</v>
       </c>
       <c r="P19" s="31">
-        <v>629580000000000</v>
+        <v>596715000000000</v>
       </c>
       <c r="Q19" s="31">
-        <v>643399000000000</v>
+        <v>622894000000000</v>
       </c>
       <c r="R19" s="31">
-        <v>657189000000000</v>
+        <v>649073000000000</v>
       </c>
       <c r="S19" s="31">
-        <v>670965000000000</v>
+        <v>675252000000000</v>
       </c>
       <c r="T19" s="31">
-        <v>684659000000000</v>
+        <v>701431000000000</v>
       </c>
       <c r="U19" s="31">
-        <v>700346000000000</v>
+        <v>732709000000000</v>
       </c>
       <c r="V19" s="31">
-        <v>715947000000000</v>
+        <v>763988000000000</v>
       </c>
       <c r="W19" s="31">
-        <v>731473000000000</v>
+        <v>795266000000000</v>
       </c>
       <c r="X19" s="31">
-        <v>746674000000000</v>
+        <v>826544000000000</v>
       </c>
       <c r="Y19" s="31">
-        <v>761873000000000</v>
+        <v>857824000000000</v>
       </c>
       <c r="Z19" s="31">
-        <v>774515000000000</v>
+        <v>883008000000000</v>
       </c>
       <c r="AA19" s="31">
-        <v>787160000000000</v>
+        <v>908194000000000</v>
       </c>
       <c r="AB19" s="31">
-        <v>799789000000000</v>
+        <v>933379000000000</v>
       </c>
       <c r="AC19" s="31">
-        <v>811809000000000</v>
+        <v>958563000000000</v>
       </c>
       <c r="AD19" s="31">
-        <v>823826000000000</v>
+        <v>983749000000000</v>
       </c>
       <c r="AE19" s="31">
-        <v>835857000000000</v>
+        <v>1008940000000000</v>
       </c>
       <c r="AF19" s="31">
-        <v>847885000000000</v>
+        <v>1034120000000000</v>
       </c>
       <c r="AG19" s="31">
-        <v>859876000000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+        <v>1059310000000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="85" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="B20" s="31">
-        <v>3591220000000000</v>
+        <v>1767370000000000</v>
       </c>
       <c r="C20" s="31">
-        <v>3525850000000000</v>
+        <v>1831590000000000</v>
       </c>
       <c r="D20" s="31">
-        <v>3752380000000000</v>
+        <v>1921870000000000</v>
       </c>
       <c r="E20" s="31">
-        <v>3932650000000000</v>
+        <v>2008170000000000</v>
       </c>
       <c r="F20" s="31">
-        <v>4098830000000000</v>
+        <v>2096800000000000</v>
       </c>
       <c r="G20" s="31">
-        <v>4252660000000000</v>
+        <v>2184240000000000</v>
       </c>
       <c r="H20" s="31">
-        <v>4400140000000000</v>
+        <v>2271140000000000</v>
       </c>
       <c r="I20" s="31">
-        <v>4544250000000000</v>
+        <v>2357670000000000</v>
       </c>
       <c r="J20" s="31">
-        <v>4686450000000000</v>
+        <v>2443890000000000</v>
       </c>
       <c r="K20" s="31">
-        <v>4829950000000000</v>
+        <v>2534860000000000</v>
       </c>
       <c r="L20" s="31">
-        <v>4972810000000000</v>
+        <v>2625640000000000</v>
       </c>
       <c r="M20" s="31">
-        <v>5115420000000000</v>
+        <v>2716360000000000</v>
       </c>
       <c r="N20" s="31">
-        <v>5258030000000000</v>
+        <v>2807120000000000</v>
       </c>
       <c r="O20" s="31">
-        <v>5400440000000000</v>
+        <v>2897730000000000</v>
       </c>
       <c r="P20" s="31">
-        <v>5562960000000000</v>
+        <v>2993040000000000</v>
       </c>
       <c r="Q20" s="31">
-        <v>5725410000000000</v>
+        <v>3088300000000000</v>
       </c>
       <c r="R20" s="31">
-        <v>5887870000000000</v>
+        <v>3183520000000000</v>
       </c>
       <c r="S20" s="31">
-        <v>6050770000000000</v>
+        <v>3278720000000000</v>
       </c>
       <c r="T20" s="31">
-        <v>6213560000000000</v>
+        <v>3373920000000000</v>
       </c>
       <c r="U20" s="31">
-        <v>6405130000000000</v>
+        <v>3459850000000000</v>
       </c>
       <c r="V20" s="31">
-        <v>6596600000000000</v>
+        <v>3545740000000000</v>
       </c>
       <c r="W20" s="31">
-        <v>6787880000000000</v>
+        <v>3631490000000000</v>
       </c>
       <c r="X20" s="31">
-        <v>6979650000000000</v>
+        <v>3717300000000000</v>
       </c>
       <c r="Y20" s="31">
-        <v>7171340000000000</v>
+        <v>3803080000000000</v>
       </c>
       <c r="Z20" s="31">
-        <v>7314720000000000</v>
+        <v>3856410000000000</v>
       </c>
       <c r="AA20" s="31">
-        <v>7458040000000000</v>
+        <v>3909700000000000</v>
       </c>
       <c r="AB20" s="31">
-        <v>7601310000000000</v>
+        <v>3962970000000000</v>
       </c>
       <c r="AC20" s="31">
-        <v>7745080000000000</v>
+        <v>4016210000000000</v>
       </c>
       <c r="AD20" s="31">
-        <v>7888800000000000</v>
+        <v>4069410000000000</v>
       </c>
       <c r="AE20" s="31">
-        <v>8032440000000000</v>
+        <v>4122590000000000</v>
       </c>
       <c r="AF20" s="31">
-        <v>8176020000000000</v>
+        <v>4175750000000000</v>
       </c>
       <c r="AG20" s="31">
-        <v>8319510000000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+        <v>4228880000000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="B21" s="31">
-        <v>106064000000</v>
+        <v>460065000000</v>
       </c>
       <c r="C21" s="31">
-        <v>93721600000</v>
+        <v>436854000000</v>
       </c>
       <c r="D21" s="31">
-        <v>93313700000</v>
+        <v>402012000000</v>
       </c>
       <c r="E21" s="31">
-        <v>88145300000</v>
+        <v>352558000000</v>
       </c>
       <c r="F21" s="31">
-        <v>90803600000</v>
+        <v>318082000000</v>
       </c>
       <c r="G21" s="31">
-        <v>84688600000</v>
+        <v>302391000000</v>
       </c>
       <c r="H21" s="31">
-        <v>77856600000</v>
+        <v>280599000000</v>
       </c>
       <c r="I21" s="31">
-        <v>78629400000</v>
+        <v>285178000000</v>
       </c>
       <c r="J21" s="31">
-        <v>80899700000</v>
+        <v>293458000000</v>
       </c>
       <c r="K21" s="31">
-        <v>79081900000</v>
+        <v>280100000000</v>
       </c>
       <c r="L21" s="31">
-        <v>80958600000</v>
+        <v>285343000000</v>
       </c>
       <c r="M21" s="31">
-        <v>82874900000</v>
+        <v>297070000000</v>
       </c>
       <c r="N21" s="31">
-        <v>84257400000</v>
+        <v>297653000000</v>
       </c>
       <c r="O21" s="31">
-        <v>87716200000</v>
+        <v>313496000000</v>
       </c>
       <c r="P21" s="31">
-        <v>95256700000</v>
+        <v>341392000000</v>
       </c>
       <c r="Q21" s="31">
-        <v>95418700000</v>
+        <v>341231000000</v>
       </c>
       <c r="R21" s="31">
-        <v>93190900000</v>
+        <v>333588000000</v>
       </c>
       <c r="S21" s="31">
-        <v>93312200000</v>
+        <v>333919000000</v>
       </c>
       <c r="T21" s="31">
-        <v>95853800000</v>
+        <v>343716000000</v>
       </c>
       <c r="U21" s="31">
-        <v>96209700000</v>
+        <v>346222000000</v>
       </c>
       <c r="V21" s="31">
-        <v>92018700000</v>
+        <v>335087000000</v>
       </c>
       <c r="W21" s="31">
-        <v>95321100000</v>
+        <v>334152000000</v>
       </c>
       <c r="X21" s="31">
-        <v>94837000000</v>
+        <v>338403000000</v>
       </c>
       <c r="Y21" s="31">
-        <v>93415100000</v>
+        <v>333577000000</v>
       </c>
       <c r="Z21" s="31">
-        <v>94508600000</v>
+        <v>336996000000</v>
       </c>
       <c r="AA21" s="31">
-        <v>94041300000</v>
+        <v>335100000000</v>
       </c>
       <c r="AB21" s="31">
-        <v>94219100000</v>
+        <v>335461000000</v>
       </c>
       <c r="AC21" s="31">
-        <v>94323200000</v>
+        <v>335831000000</v>
       </c>
       <c r="AD21" s="31">
-        <v>91274500000</v>
+        <v>333470000000</v>
       </c>
       <c r="AE21" s="31">
-        <v>97397300000</v>
+        <v>334967000000</v>
       </c>
       <c r="AF21" s="31">
-        <v>94355900000</v>
+        <v>333478000000</v>
       </c>
       <c r="AG21" s="31">
-        <v>94335000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+        <v>333146000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -26000,13 +26003,13 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
@@ -26014,7 +26017,7 @@
     <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>270</v>
       </c>
@@ -26028,7 +26031,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>187</v>
       </c>
@@ -26063,7 +26066,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>231</v>
       </c>
@@ -26098,7 +26101,7 @@
         <v>681.48955457326065</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>267</v>
       </c>
@@ -26141,7 +26144,7 @@
         <v>6.1440264772157069E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>268</v>
       </c>
@@ -26184,7 +26187,7 @@
         <v>1.2288052954431413E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>269</v>
       </c>
@@ -26203,7 +26206,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -26240,7 +26243,7 @@
         <v>6160.0469475287728</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>447</v>
       </c>
@@ -26269,7 +26272,7 @@
         <v>8.6140670137598713E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>272</v>
       </c>
@@ -26301,7 +26304,7 @@
         <v>1.7228134027519743E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>273</v>
       </c>
@@ -26309,7 +26312,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>275</v>
       </c>
@@ -26317,7 +26320,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
         <v>449</v>
       </c>
@@ -26457,7 +26460,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>452</v>
       </c>
@@ -26598,7 +26601,7 @@
         <v>2140824427537546.8</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>461</v>
       </c>
@@ -26739,7 +26742,7 @@
         <v>3.5117401196108456E+16</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
     </row>
   </sheetData>
@@ -26756,13 +26759,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
@@ -26771,7 +26774,7 @@
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>276</v>
       </c>
@@ -26785,7 +26788,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>187</v>
       </c>
@@ -26820,7 +26823,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>278</v>
       </c>
@@ -26855,7 +26858,7 @@
         <v>1202.5874060242666</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>279</v>
       </c>
@@ -26898,7 +26901,7 @@
         <v>0.23814248422219494</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
         <v>280</v>
       </c>
@@ -26941,7 +26944,7 @@
         <v>4.762849684443899E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>169</v>
       </c>
@@ -26960,7 +26963,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G7">
         <v>466.15766709765376</v>
       </c>
@@ -26983,7 +26986,7 @@
         <v>839.55514940809985</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>272</v>
       </c>
@@ -27015,7 +27018,7 @@
         <v>-4.4164449284264037E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>281</v>
       </c>
@@ -27047,7 +27050,7 @@
         <v>-8.8328898568528075E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>282</v>
       </c>
@@ -27055,12 +27058,12 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="F11" s="53" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
         <v>449</v>
       </c>
@@ -27200,7 +27203,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>452</v>
       </c>
@@ -27341,7 +27344,7 @@
         <v>4185211567405324</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>461</v>
       </c>
@@ -27495,20 +27498,20 @@
       <selection activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.08984375" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>300</v>
       </c>
@@ -27522,7 +27525,7 @@
       <c r="K1" s="51"/>
       <c r="L1" s="54"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>187</v>
       </c>
@@ -27548,7 +27551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>290</v>
       </c>
@@ -27574,7 +27577,7 @@
         <v>14035</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>267</v>
       </c>
@@ -27606,7 +27609,7 @@
         <v>14035000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
         <v>169</v>
       </c>
@@ -27638,7 +27641,7 @@
         <v>19803385000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>0</v>
       </c>
@@ -27658,7 +27661,7 @@
         <v>619624120038866</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
         <v>301</v>
       </c>
@@ -27674,7 +27677,7 @@
       <c r="K8" s="51"/>
       <c r="L8" s="54"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>187</v>
       </c>
@@ -27702,7 +27705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
         <v>290</v>
       </c>
@@ -27730,7 +27733,7 @@
         <v>29676</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>267</v>
       </c>
@@ -27764,7 +27767,7 @@
         <v>29676000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="55" t="s">
         <v>332</v>
       </c>
@@ -27797,7 +27800,7 @@
         <v>35907960000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -27831,11 +27834,11 @@
         <v>1313794267340850.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
         <v>302</v>
       </c>
@@ -27848,7 +27851,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>187</v>
       </c>
@@ -27867,7 +27870,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="55" t="s">
         <v>290</v>
       </c>
@@ -27884,7 +27887,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>267</v>
       </c>
@@ -27913,7 +27916,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="55" t="s">
         <v>268</v>
       </c>
@@ -27945,7 +27948,7 @@
         <v>6.7451599347432651E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>269</v>
       </c>
@@ -27977,7 +27980,7 @@
         <v>0.13833916247672218</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>169</v>
       </c>
@@ -28009,7 +28012,7 @@
         <v>4.4274552734519634E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>285</v>
       </c>
@@ -28029,7 +28032,7 @@
         <v>0.25979518811534769</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>286</v>
       </c>
@@ -28049,7 +28052,7 @@
         <v>0.55084593673866733</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
         <v>10</v>
       </c>
@@ -28065,7 +28068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
         <v>523</v>
       </c>
@@ -28082,12 +28085,12 @@
         <v>2385048485823980</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>2019</v>
       </c>
@@ -28185,9 +28188,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="B30">
         <f>$B$13</f>
@@ -28318,9 +28321,9 @@
         <v>670364225570218.5</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -28393,136 +28396,136 @@
       </c>
       <c r="Y31" s="31">
         <f>'BAU Total Primary Fuel Use'!Y14-'Petroleum Products'!Y30</f>
-        <v>663774429781.5</v>
+        <v>658315774429781.5</v>
       </c>
       <c r="Z31" s="31">
         <f>'BAU Total Primary Fuel Use'!Z14-'Petroleum Products'!Z30</f>
-        <v>44874774429781.5</v>
+        <v>710175774429781.5</v>
       </c>
       <c r="AA31" s="31">
         <f>'BAU Total Primary Fuel Use'!AA14-'Petroleum Products'!AA30</f>
-        <v>88899774429781.5</v>
+        <v>761665774429781.5</v>
       </c>
       <c r="AB31" s="31">
         <f>'BAU Total Primary Fuel Use'!AB14-'Petroleum Products'!AB30</f>
-        <v>132672774429781.5</v>
+        <v>813245774429781.5</v>
       </c>
       <c r="AC31" s="31">
         <f>'BAU Total Primary Fuel Use'!AC14-'Petroleum Products'!AC30</f>
-        <v>185451774429781.5</v>
+        <v>864315774429781.5</v>
       </c>
       <c r="AD31" s="31">
         <f>'BAU Total Primary Fuel Use'!AD14-'Petroleum Products'!AD30</f>
-        <v>238134774429781.5</v>
+        <v>915225774429781.5</v>
       </c>
       <c r="AE31" s="31">
         <f>'BAU Total Primary Fuel Use'!AE14-'Petroleum Products'!AE30</f>
-        <v>290792774429781.5</v>
+        <v>966055774429781.5</v>
       </c>
       <c r="AF31" s="31">
         <f>'BAU Total Primary Fuel Use'!AF14-'Petroleum Products'!AF30</f>
-        <v>343285774429781.5</v>
+        <v>1016995774429781.5</v>
       </c>
       <c r="AG31" s="31">
         <f>'BAU Total Primary Fuel Use'!AG14-'Petroleum Products'!AG30</f>
-        <v>395365774429781.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+        <v>1067915774429781.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="B32" s="31">
         <f>B30-'BAU Total Primary Fuel Use'!B14</f>
-        <v>417312225570218.5</v>
+        <v>233345225570218.5</v>
       </c>
       <c r="C32" s="31">
         <f>C30-'BAU Total Primary Fuel Use'!C14</f>
-        <v>479955225570218.5</v>
+        <v>283228225570218.5</v>
       </c>
       <c r="D32" s="31">
         <f>D30-'BAU Total Primary Fuel Use'!D14</f>
-        <v>482175225570218.5</v>
+        <v>258228225570218.5</v>
       </c>
       <c r="E32" s="31">
         <f>E30-'BAU Total Primary Fuel Use'!E14</f>
-        <v>492471225570218.5</v>
+        <v>244255225570218.5</v>
       </c>
       <c r="F32" s="31">
         <f>F30-'BAU Total Primary Fuel Use'!F14</f>
-        <v>476330225570218.5</v>
+        <v>196148225570218.5</v>
       </c>
       <c r="G32" s="31">
         <f>G30-'BAU Total Primary Fuel Use'!G14</f>
-        <v>462978225570218.5</v>
+        <v>152106225570218.5</v>
       </c>
       <c r="H32" s="31">
         <f>H30-'BAU Total Primary Fuel Use'!H14</f>
-        <v>451019225570218.5</v>
+        <v>110825225570218.5</v>
       </c>
       <c r="I32" s="31">
         <f>I30-'BAU Total Primary Fuel Use'!I14</f>
-        <v>433034225570218.5</v>
+        <v>71005225570218.5</v>
       </c>
       <c r="J32" s="31">
         <f>J30-'BAU Total Primary Fuel Use'!J14</f>
-        <v>415810225570218.5</v>
+        <v>32901225570218.5</v>
       </c>
       <c r="K32" s="31">
         <f>K30-'BAU Total Primary Fuel Use'!K14</f>
-        <v>399214225570218.5</v>
+        <v>-12856774429781.5</v>
       </c>
       <c r="L32" s="31">
         <f>L30-'BAU Total Primary Fuel Use'!L14</f>
-        <v>383130225570218.5</v>
+        <v>-56824774429781.5</v>
       </c>
       <c r="M32" s="31">
         <f>M30-'BAU Total Primary Fuel Use'!M14</f>
-        <v>367121225570218.5</v>
+        <v>-99375774429781.5</v>
       </c>
       <c r="N32" s="31">
         <f>N30-'BAU Total Primary Fuel Use'!N14</f>
-        <v>346554225570218.5</v>
+        <v>-141461774429781.5</v>
       </c>
       <c r="O32" s="31">
         <f>O30-'BAU Total Primary Fuel Use'!O14</f>
-        <v>326227225570218.5</v>
+        <v>-182975774429781.5</v>
       </c>
       <c r="P32" s="31">
         <f>P30-'BAU Total Primary Fuel Use'!P14</f>
-        <v>306106225570218.5</v>
+        <v>-228686774429781.5</v>
       </c>
       <c r="Q32" s="31">
         <f>Q30-'BAU Total Primary Fuel Use'!Q14</f>
-        <v>286166225570218.5</v>
+        <v>-273917774429781.5</v>
       </c>
       <c r="R32" s="31">
         <f>R30-'BAU Total Primary Fuel Use'!R14</f>
-        <v>266254225570218.5</v>
+        <v>-318729774429781.5</v>
       </c>
       <c r="S32" s="31">
         <f>S30-'BAU Total Primary Fuel Use'!S14</f>
-        <v>229978225570218.5</v>
+        <v>-363525774429781.5</v>
       </c>
       <c r="T32" s="31">
         <f>T30-'BAU Total Primary Fuel Use'!T14</f>
-        <v>194016225570218.5</v>
+        <v>-407695774429781.5</v>
       </c>
       <c r="U32" s="31">
         <f>U30-'BAU Total Primary Fuel Use'!U14</f>
-        <v>158523225570218.5</v>
+        <v>-458025774429781.5</v>
       </c>
       <c r="V32" s="31">
         <f>V30-'BAU Total Primary Fuel Use'!V14</f>
-        <v>123448225570218.5</v>
+        <v>-509005774429781.5</v>
       </c>
       <c r="W32" s="31">
         <f>W30-'BAU Total Primary Fuel Use'!W14</f>
-        <v>88784225570218.5</v>
+        <v>-559385774429781.5</v>
       </c>
       <c r="X32" s="31">
         <f>X30-'BAU Total Primary Fuel Use'!X14</f>
-        <v>43903225570218.5</v>
+        <v>-609025774429781.5</v>
       </c>
       <c r="Y32" s="31">
         <v>0</v>
@@ -28552,7 +28555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
       <c r="D34" s="31"/>
@@ -28600,25 +28603,25 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.08984375" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" customWidth="1"/>
-    <col min="18" max="18" width="9.36328125" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" customWidth="1"/>
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>291</v>
       </c>
@@ -28632,7 +28635,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>187</v>
       </c>
@@ -28667,7 +28670,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>296</v>
       </c>
@@ -28703,7 +28706,7 @@
         <v>5380.05</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>267</v>
       </c>
@@ -28747,7 +28750,7 @@
         <v>-2.6913372582001712E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
         <v>169</v>
       </c>
@@ -28791,7 +28794,7 @@
         <v>-5.3826745164003422E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6">
         <v>0</v>
       </c>
@@ -28802,7 +28805,7 @@
       <c r="J6" s="56"/>
       <c r="K6" s="56"/>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H7">
         <v>1075.4762345933309</v>
       </c>
@@ -28825,7 +28828,7 @@
         <v>7765.1919130140896</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>292</v>
       </c>
@@ -28857,7 +28860,7 @@
         <v>0.24083379263953766</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>294</v>
       </c>
@@ -28889,7 +28892,7 @@
         <v>4.8166758527907534E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>295</v>
       </c>
@@ -28897,7 +28900,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
         <v>293</v>
       </c>
@@ -28908,7 +28911,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
         <v>187</v>
       </c>
@@ -28922,7 +28925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>296</v>
       </c>
@@ -29074,7 +29077,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>267</v>
       </c>
@@ -29230,7 +29233,7 @@
         <v>1.7078846857670062E+16</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="55" t="s">
         <v>169</v>
       </c>
@@ -29386,17 +29389,17 @@
         <v>3.5046624246655484E+16</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="D16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="F17" s="51" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>292</v>
       </c>
@@ -29540,7 +29543,7 @@
         <v>1013351831414501.4</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>297</v>
       </c>
@@ -29684,7 +29687,7 @@
         <v>1347975729154.998</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>298</v>
       </c>
@@ -29703,14 +29706,14 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.6328125" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
@@ -29719,7 +29722,7 @@
     <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>305</v>
       </c>
@@ -29732,7 +29735,7 @@
       <c r="H1" s="51"/>
       <c r="I1" s="51"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>187</v>
       </c>
@@ -29755,7 +29758,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>306</v>
       </c>
@@ -29778,7 +29781,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>326</v>
       </c>
@@ -29796,7 +29799,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
         <v>324</v>
       </c>
@@ -29814,7 +29817,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>169</v>
       </c>
@@ -29829,7 +29832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>319</v>
       </c>
@@ -29840,7 +29843,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>310</v>
       </c>
@@ -29854,12 +29857,12 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="53"/>
       <c r="G10" t="s">
         <v>322</v>
@@ -29872,7 +29875,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
       <c r="I11">
         <f>Biofuels!I10*'Conversion Factors'!B73</f>
@@ -29882,7 +29885,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I12">
         <f>I11*'Conversion Factors'!B72</f>
         <v>44278077.600000001</v>
@@ -29891,7 +29894,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I13" s="90">
         <f>I12*10^6</f>
         <v>44278077600000</v>
@@ -29900,7 +29903,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
         <v>323</v>
       </c>
@@ -29912,7 +29915,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I15">
         <f>I14*'Conversion Factors'!B73</f>
         <v>3396600</v>
@@ -29921,7 +29924,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I16">
         <f>I15*'Conversion Factors'!B72</f>
         <v>11069519.4</v>
@@ -29930,7 +29933,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="I17" s="90">
         <f>I16*10^6</f>
         <v>11069519400000</v>
@@ -29939,12 +29942,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G18" s="53" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>2017</v>
       </c>
@@ -29970,7 +29973,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="81" t="s">
         <v>503</v>
       </c>
@@ -29996,7 +29999,7 @@
         <v>10.494265886000001</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="81" t="s">
         <v>504</v>
       </c>
@@ -30022,7 +30025,7 @@
         <v>141.81257947309263</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>505</v>
       </c>
@@ -30055,7 +30058,7 @@
         <v>152.30684535909262</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>447</v>
       </c>
@@ -30084,7 +30087,7 @@
         <v>0.3243911567795128</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>448</v>
       </c>
@@ -30113,17 +30116,17 @@
         <v>6.4878231355902566E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="51" t="s">
         <v>449</v>
       </c>
@@ -30263,7 +30266,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>508</v>
       </c>
@@ -30404,7 +30407,7 @@
         <v>782993152491217.38</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>509</v>
       </c>

--- a/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
+++ b/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\fuels\BFPIaE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26146235-B81E-415C-B657-FD80215503E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BF9A13-C0FB-49D3-BDB5-EB19282F97BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <definedName name="preferences.energyunits">[2]Preferences!$C$3</definedName>
     <definedName name="Preferences.PowerUnits">[2]Preferences!$C$5</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1855,14 +1855,14 @@
     <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="174" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="#,##0.0_);\(#,##0.0\);&quot;-&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="#,##0.0_);\(#,##0.0\);&quot;-&quot;_);@"/>
-    <numFmt numFmtId="183" formatCode="0%;\ \(0%\);\ \-"/>
-    <numFmt numFmtId="192" formatCode="&quot;$&quot;#,##0\ ;\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="193" formatCode="0.00_)"/>
-    <numFmt numFmtId="194" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="210" formatCode="0.0_ ;\-0.0\ "/>
+    <numFmt numFmtId="173" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="174" formatCode="#,##0.0_);\(#,##0.0\);&quot;-&quot;;@"/>
+    <numFmt numFmtId="175" formatCode="#,##0.0_);\(#,##0.0\);&quot;-&quot;_);@"/>
+    <numFmt numFmtId="176" formatCode="0%;\ \(0%\);\ \-"/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0\ ;\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_)"/>
+    <numFmt numFmtId="179" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="180" formatCode="0.0_ ;\-0.0\ "/>
   </numFmts>
   <fonts count="91">
     <font>
@@ -3409,15 +3409,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="183" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="183" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3770,7 +3770,7 @@
     <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
@@ -3833,7 +3833,7 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="192" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="56" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -3871,10 +3871,10 @@
     <xf numFmtId="10" fontId="6" fillId="64" borderId="21" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="6" fillId="64" borderId="21" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="6" fillId="64" borderId="21" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="193" fontId="62" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="178" fontId="62" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="63" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="63" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="64" fillId="0" borderId="34">
       <alignment horizontal="right"/>
     </xf>
@@ -3911,7 +3911,7 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="194" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyBorder="0">
@@ -3974,13 +3974,13 @@
     <xf numFmtId="0" fontId="88" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
@@ -3992,7 +3992,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="171" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4005,7 +4005,7 @@
     <xf numFmtId="1" fontId="90" fillId="42" borderId="33">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="210" fontId="27" fillId="42" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="180" fontId="27" fillId="42" borderId="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4110,7 +4110,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4266,16 +4266,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="22" fillId="8" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="26" fillId="6" borderId="0" xfId="24" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="8" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="6" borderId="0" xfId="24" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="639">
     <cellStyle name="20% - Accent1 2" xfId="187" xr:uid="{160FCEB9-CDBA-4190-9D8D-5901C18EB9A0}"/>
@@ -5684,10 +5685,10 @@
       <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="76.28515625" customWidth="1"/>
-    <col min="4" max="4" width="78.85546875" customWidth="1"/>
+    <col min="2" max="2" width="76.26953125" customWidth="1"/>
+    <col min="4" max="4" width="78.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6646,15 +6647,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15.75" thickBot="1">
+    <row r="1" spans="1:43" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>357</v>
       </c>
@@ -6955,7 +6956,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="15.75" thickBot="1">
+    <row r="3" spans="1:43" ht="15" thickBot="1">
       <c r="A3" s="63" t="s">
         <v>231</v>
       </c>
@@ -8153,7 +8154,7 @@
         <v>1588548260249999.8</v>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="26.25">
+    <row r="11" spans="1:43" ht="26.5">
       <c r="A11" s="53" t="s">
         <v>358</v>
       </c>
@@ -8349,12 +8350,12 @@
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -8389,7 +8390,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="30">
+    <row r="2" spans="1:35" ht="29">
       <c r="B2">
         <v>2011</v>
       </c>
@@ -9150,20 +9151,20 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="12" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" customWidth="1"/>
+    <col min="27" max="27" width="12.453125" customWidth="1"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35" ht="29">
       <c r="A1" s="61" t="s">
         <v>482</v>
       </c>
@@ -9757,11 +9758,11 @@
       <selection pane="bottomRight" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="7" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="20.81640625" style="7" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7265625" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1">
@@ -16393,44 +16394,44 @@
     </row>
     <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1"/>
     <row r="78" spans="1:37" ht="15" customHeight="1">
-      <c r="B78" s="96" t="s">
+      <c r="B78" s="98" t="s">
         <v>164</v>
       </c>
-      <c r="C78" s="96"/>
-      <c r="D78" s="96"/>
-      <c r="E78" s="96"/>
-      <c r="F78" s="96"/>
-      <c r="G78" s="96"/>
-      <c r="H78" s="96"/>
-      <c r="I78" s="96"/>
-      <c r="J78" s="96"/>
-      <c r="K78" s="96"/>
-      <c r="L78" s="96"/>
-      <c r="M78" s="96"/>
-      <c r="N78" s="96"/>
-      <c r="O78" s="96"/>
-      <c r="P78" s="96"/>
-      <c r="Q78" s="96"/>
-      <c r="R78" s="96"/>
-      <c r="S78" s="96"/>
-      <c r="T78" s="96"/>
-      <c r="U78" s="96"/>
-      <c r="V78" s="96"/>
-      <c r="W78" s="96"/>
-      <c r="X78" s="96"/>
-      <c r="Y78" s="96"/>
-      <c r="Z78" s="96"/>
-      <c r="AA78" s="96"/>
-      <c r="AB78" s="96"/>
-      <c r="AC78" s="96"/>
-      <c r="AD78" s="96"/>
-      <c r="AE78" s="96"/>
-      <c r="AF78" s="96"/>
-      <c r="AG78" s="96"/>
-      <c r="AH78" s="96"/>
-      <c r="AI78" s="96"/>
-      <c r="AJ78" s="96"/>
-      <c r="AK78" s="96"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="98"/>
+      <c r="E78" s="98"/>
+      <c r="F78" s="98"/>
+      <c r="G78" s="98"/>
+      <c r="H78" s="98"/>
+      <c r="I78" s="98"/>
+      <c r="J78" s="98"/>
+      <c r="K78" s="98"/>
+      <c r="L78" s="98"/>
+      <c r="M78" s="98"/>
+      <c r="N78" s="98"/>
+      <c r="O78" s="98"/>
+      <c r="P78" s="98"/>
+      <c r="Q78" s="98"/>
+      <c r="R78" s="98"/>
+      <c r="S78" s="98"/>
+      <c r="T78" s="98"/>
+      <c r="U78" s="98"/>
+      <c r="V78" s="98"/>
+      <c r="W78" s="98"/>
+      <c r="X78" s="98"/>
+      <c r="Y78" s="98"/>
+      <c r="Z78" s="98"/>
+      <c r="AA78" s="98"/>
+      <c r="AB78" s="98"/>
+      <c r="AC78" s="98"/>
+      <c r="AD78" s="98"/>
+      <c r="AE78" s="98"/>
+      <c r="AF78" s="98"/>
+      <c r="AG78" s="98"/>
+      <c r="AH78" s="98"/>
+      <c r="AI78" s="98"/>
+      <c r="AJ78" s="98"/>
+      <c r="AK78" s="98"/>
     </row>
     <row r="79" spans="1:37" ht="15" customHeight="1">
       <c r="B79" s="11" t="s">
@@ -16484,12 +16485,12 @@
   <dimension ref="A1:AI23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.26953125" customWidth="1"/>
     <col min="2" max="35" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16852,141 +16853,141 @@
       <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="99">
         <f>'Natural Gas'!B14</f>
-        <v>1175328000</v>
+        <v>1175328000000000</v>
       </c>
       <c r="C4" s="12">
         <f>'Natural Gas'!C14</f>
-        <v>1214506491.7213566</v>
+        <v>1214506491721356.5</v>
       </c>
       <c r="D4" s="12">
         <f>'Natural Gas'!D14</f>
-        <v>1254990962.8914802</v>
+        <v>1254990962891480</v>
       </c>
       <c r="E4" s="12">
         <f>'Natural Gas'!E14</f>
-        <v>1296824947.1495094</v>
+        <v>1296824947149509.3</v>
       </c>
       <c r="F4" s="12">
         <f>'Natural Gas'!F14</f>
-        <v>1340053429.2889171</v>
+        <v>1340053429288916.8</v>
       </c>
       <c r="G4" s="12">
         <f>'Natural Gas'!G14</f>
-        <v>1384722893.6304212</v>
+        <v>1384722893630420.8</v>
       </c>
       <c r="H4" s="12">
         <f>'Natural Gas'!H14</f>
-        <v>1449342887.8482506</v>
+        <v>1449342887848250.3</v>
       </c>
       <c r="I4" s="12">
         <f>'Natural Gas'!I14</f>
-        <v>1516978462.7804024</v>
+        <v>1516978462780402</v>
       </c>
       <c r="J4" s="12">
         <f>'Natural Gas'!J14</f>
-        <v>1587770344.6394777</v>
+        <v>1587770344639477.3</v>
       </c>
       <c r="K4" s="12">
         <f>'Natural Gas'!K14</f>
-        <v>1661865826.8199208</v>
+        <v>1661865826819920.3</v>
       </c>
       <c r="L4" s="12">
         <f>'Natural Gas'!L14</f>
-        <v>1739419076.3645723</v>
+        <v>1739419076364571.8</v>
       </c>
       <c r="M4" s="12">
         <f>'Natural Gas'!M14</f>
-        <v>1816809204.9845138</v>
+        <v>1816809204984513.3</v>
       </c>
       <c r="N4" s="12">
         <f>'Natural Gas'!N14</f>
-        <v>1897642570.5386672</v>
+        <v>1897642570538666.5</v>
       </c>
       <c r="O4" s="12">
         <f>'Natural Gas'!O14</f>
-        <v>1982072369.3170054</v>
+        <v>1982072369317004.8</v>
       </c>
       <c r="P4" s="12">
         <f>'Natural Gas'!P14</f>
-        <v>2070258613.6095941</v>
+        <v>2070258613609593.5</v>
       </c>
       <c r="Q4" s="12">
         <f>'Natural Gas'!Q14</f>
-        <v>2162368434.9636559</v>
+        <v>2162368434963655.5</v>
       </c>
       <c r="R4" s="12">
         <f>'Natural Gas'!R14</f>
-        <v>2254335327.7793608</v>
+        <v>2254335327779360.5</v>
       </c>
       <c r="S4" s="12">
         <f>'Natural Gas'!S14</f>
-        <v>2350213630.5275354</v>
+        <v>2350213630527535</v>
       </c>
       <c r="T4" s="12">
         <f>'Natural Gas'!T14</f>
-        <v>2450169697.9385767</v>
+        <v>2450169697938576</v>
       </c>
       <c r="U4" s="12">
         <f>'Natural Gas'!U14</f>
-        <v>2554376959.9144449</v>
+        <v>2554376959914444</v>
       </c>
       <c r="V4" s="12">
         <f>'Natural Gas'!V14</f>
-        <v>2663016222.4401703</v>
+        <v>2663016222440169</v>
       </c>
       <c r="W4" s="12">
         <f>'Natural Gas'!W14</f>
-        <v>2782500363.6382184</v>
+        <v>2782500363638217</v>
       </c>
       <c r="X4" s="12">
         <f>'Natural Gas'!X14</f>
-        <v>2907345516.1127028</v>
+        <v>2907345516112701.5</v>
       </c>
       <c r="Y4" s="12">
         <f>'Natural Gas'!Y14</f>
-        <v>3037792217.5753059</v>
+        <v>3037792217575304.5</v>
       </c>
       <c r="Z4" s="12">
         <f>'Natural Gas'!Z14</f>
-        <v>3174091798.1773744</v>
+        <v>3174091798177372.5</v>
       </c>
       <c r="AA4" s="12">
         <f>'Natural Gas'!AA14</f>
-        <v>3316506864.7448153</v>
+        <v>3316506864744813</v>
       </c>
       <c r="AB4" s="12">
         <f>'Natural Gas'!AB14</f>
-        <v>3474467101.4868736</v>
+        <v>3474467101486871.5</v>
       </c>
       <c r="AC4" s="12">
         <f>'Natural Gas'!AC14</f>
-        <v>3639950746.866148</v>
+        <v>3639950746866146</v>
       </c>
       <c r="AD4" s="12">
         <f>'Natural Gas'!AD14</f>
-        <v>3813316129.5271754</v>
+        <v>3813316129527173.5</v>
       </c>
       <c r="AE4" s="12">
         <f>'Natural Gas'!AE14</f>
-        <v>3994938644.7692084</v>
+        <v>3994938644769206.5</v>
       </c>
       <c r="AF4" s="12">
         <f>'Natural Gas'!AF14</f>
-        <v>4185211567.4053259</v>
+        <v>4185211567405324</v>
       </c>
       <c r="AG4" s="12">
         <f>'Natural Gas'!AG14</f>
-        <v>4185211567.4053259</v>
+        <v>4185211567405324</v>
       </c>
       <c r="AH4" s="12">
         <f>'Natural Gas'!AH14</f>
-        <v>4185211567.4053259</v>
+        <v>4185211567405324</v>
       </c>
       <c r="AI4" s="12">
         <f>'Natural Gas'!AI14</f>
-        <v>4185211567.4053259</v>
+        <v>4185211567405324</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -19343,9 +19344,9 @@
       <selection activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.26953125" customWidth="1"/>
     <col min="2" max="2" width="12" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="35" width="13" customWidth="1"/>
   </cols>
@@ -19744,139 +19745,139 @@
       </c>
       <c r="B4" s="12">
         <f>'Natural Gas'!B15</f>
-        <v>944568000</v>
+        <v>944568000000000</v>
       </c>
       <c r="C4" s="12">
         <f>'Natural Gas'!C15</f>
-        <v>978485825.88333893</v>
+        <v>978485825883339</v>
       </c>
       <c r="D4" s="12">
         <f>'Natural Gas'!D15</f>
-        <v>1013621583.0460061</v>
+        <v>1013621583046006.1</v>
       </c>
       <c r="E4" s="12">
         <f>'Natural Gas'!E15</f>
-        <v>1050019005.323014</v>
+        <v>1050019005323014</v>
       </c>
       <c r="F4" s="12">
         <f>'Natural Gas'!F15</f>
-        <v>1087723396.9568009</v>
+        <v>1087723396956800.9</v>
       </c>
       <c r="G4" s="12">
         <f>'Natural Gas'!G15</f>
-        <v>1126781688.9878826</v>
+        <v>1126781688987882.5</v>
       </c>
       <c r="H4" s="12">
         <f>'Natural Gas'!H15</f>
-        <v>1138906138.2336495</v>
+        <v>1138906138233649.5</v>
       </c>
       <c r="I4" s="12">
         <f>'Natural Gas'!I15</f>
-        <v>1151161049.5475791</v>
+        <v>1151161049547579</v>
       </c>
       <c r="J4" s="12">
         <f>'Natural Gas'!J15</f>
-        <v>1163547826.7337439</v>
+        <v>1163547826733743.8</v>
       </c>
       <c r="K4" s="12">
         <f>'Natural Gas'!K15</f>
-        <v>1176067888.7014952</v>
+        <v>1176067888701495</v>
       </c>
       <c r="L4" s="12">
         <f>'Natural Gas'!L15</f>
-        <v>1188722669.6279988</v>
+        <v>1188722669627998.8</v>
       </c>
       <c r="M4" s="12">
         <f>'Natural Gas'!M15</f>
-        <v>1205496447.1504569</v>
+        <v>1205496447150456.8</v>
       </c>
       <c r="N4" s="12">
         <f>'Natural Gas'!N15</f>
-        <v>1222506915.3826673</v>
+        <v>1222506915382667</v>
       </c>
       <c r="O4" s="12">
         <f>'Natural Gas'!O15</f>
-        <v>1239757414.2098768</v>
+        <v>1239757414209876.5</v>
       </c>
       <c r="P4" s="12">
         <f>'Natural Gas'!P15</f>
-        <v>1257251330.6456439</v>
+        <v>1257251330645643.8</v>
       </c>
       <c r="Q4" s="12">
         <f>'Natural Gas'!Q15</f>
-        <v>1274992099.4968545</v>
+        <v>1274992099496854.3</v>
       </c>
       <c r="R4" s="12">
         <f>'Natural Gas'!R15</f>
-        <v>1274379003.3355594</v>
+        <v>1274379003335559</v>
       </c>
       <c r="S4" s="12">
         <f>'Natural Gas'!S15</f>
-        <v>1273766201.9893482</v>
+        <v>1273766201989347.8</v>
       </c>
       <c r="T4" s="12">
         <f>'Natural Gas'!T15</f>
-        <v>1273153695.3164556</v>
+        <v>1273153695316455</v>
       </c>
       <c r="U4" s="12">
         <f>'Natural Gas'!U15</f>
-        <v>1272541483.175184</v>
+        <v>1272541483175183.5</v>
       </c>
       <c r="V4" s="12">
         <f>'Natural Gas'!V15</f>
-        <v>1271929565.4239042</v>
+        <v>1271929565423903.8</v>
       </c>
       <c r="W4" s="12">
         <f>'Natural Gas'!W15</f>
-        <v>1260606340.2859473</v>
+        <v>1260606340285946.8</v>
       </c>
       <c r="X4" s="12">
         <f>'Natural Gas'!X15</f>
-        <v>1249383919.0218921</v>
+        <v>1249383919021891.5</v>
       </c>
       <c r="Y4" s="12">
         <f>'Natural Gas'!Y15</f>
-        <v>1238261404.2353811</v>
+        <v>1238261404235380.5</v>
       </c>
       <c r="Z4" s="12">
         <f>'Natural Gas'!Z15</f>
-        <v>1227237906.5190377</v>
+        <v>1227237906519037.3</v>
       </c>
       <c r="AA4" s="12">
         <f>'Natural Gas'!AA15</f>
-        <v>1216312544.3833454</v>
+        <v>1216312544383344.8</v>
       </c>
       <c r="AB4" s="12">
         <f>'Natural Gas'!AB15</f>
-        <v>1167620883.0635505</v>
+        <v>1167620883063550</v>
       </c>
       <c r="AC4" s="12">
         <f>'Natural Gas'!AC15</f>
-        <v>1120878455.8390791</v>
+        <v>1120878455839078.6</v>
       </c>
       <c r="AD4" s="12">
         <f>'Natural Gas'!AD15</f>
-        <v>1076007230.5899463</v>
+        <v>1076007230589945.8</v>
       </c>
       <c r="AE4" s="12">
         <f>'Natural Gas'!AE15</f>
-        <v>1032932298.9932337</v>
+        <v>1032932298993233.3</v>
       </c>
       <c r="AF4" s="12">
         <f>'Natural Gas'!AF15</f>
-        <v>991581751.47063565</v>
+        <v>991581751470635.25</v>
       </c>
       <c r="AG4" s="12">
         <f>'Natural Gas'!AG15</f>
-        <v>991581751.47063565</v>
+        <v>991581751470635.25</v>
       </c>
       <c r="AH4" s="12">
         <f>'Natural Gas'!AH15</f>
-        <v>991581751.47063565</v>
+        <v>991581751470635.25</v>
       </c>
       <c r="AI4" s="12">
         <f>'Natural Gas'!AI15</f>
-        <v>991581751.47063565</v>
+        <v>991581751470635.25</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -22427,9 +22428,9 @@
       <selection activeCell="AE27" sqref="AE27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.26953125" customWidth="1"/>
     <col min="2" max="2" width="12" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="35" width="13" customWidth="1"/>
   </cols>
@@ -25213,15 +25214,15 @@
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -25592,7 +25593,7 @@
       </c>
       <c r="C25" s="38"/>
     </row>
-    <row r="26" spans="1:3" ht="30">
+    <row r="26" spans="1:3" ht="29">
       <c r="A26" s="42" t="s">
         <v>209</v>
       </c>
@@ -26076,19 +26077,19 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="93"/>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="97" t="s">
         <v>559</v>
       </c>
-      <c r="C1" s="95"/>
+      <c r="C1" s="97"/>
       <c r="D1" s="4" t="s">
         <v>560</v>
       </c>
@@ -26166,9 +26167,9 @@
       <selection activeCell="B18" sqref="B18:AG18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -28406,13 +28407,13 @@
       <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
@@ -29159,16 +29160,16 @@
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:M3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
@@ -29266,12 +29267,12 @@
         <v>279</v>
       </c>
       <c r="B4">
-        <f>B3/10^6</f>
-        <v>3.2648000000000003E-2</v>
+        <f>B3*10^6</f>
+        <v>32648000000</v>
       </c>
       <c r="C4">
-        <f>C3/10^6</f>
-        <v>2.6238000000000001E-2</v>
+        <f>C3*10^6</f>
+        <v>26238000000</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -29309,12 +29310,12 @@
         <v>280</v>
       </c>
       <c r="B5">
-        <f>B4*1000</f>
-        <v>32.648000000000003</v>
+        <f>B4/1000</f>
+        <v>32648000</v>
       </c>
       <c r="C5">
-        <f>C4*1000</f>
-        <v>26.238</v>
+        <f>C4/1000</f>
+        <v>26238000</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -29353,11 +29354,11 @@
       </c>
       <c r="B6">
         <f>B5*'Conversion Factors'!$B$59</f>
-        <v>1175328000</v>
+        <v>1175328000000000</v>
       </c>
       <c r="C6">
         <f>C5*'Conversion Factors'!$B$59</f>
-        <v>944568000</v>
+        <v>944568000000000</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -29612,139 +29613,139 @@
       </c>
       <c r="B14">
         <f>B6</f>
-        <v>1175328000</v>
+        <v>1175328000000000</v>
       </c>
       <c r="C14">
         <f>B14*(1+$H$5)</f>
-        <v>1214506491.7213566</v>
+        <v>1214506491721356.5</v>
       </c>
       <c r="D14">
         <f t="shared" ref="D14:G14" si="5">C14*(1+$H$5)</f>
-        <v>1254990962.8914802</v>
+        <v>1254990962891480</v>
       </c>
       <c r="E14">
         <f t="shared" si="5"/>
-        <v>1296824947.1495094</v>
+        <v>1296824947149509.3</v>
       </c>
       <c r="F14">
         <f t="shared" si="5"/>
-        <v>1340053429.2889171</v>
+        <v>1340053429288916.8</v>
       </c>
       <c r="G14">
         <f t="shared" si="5"/>
-        <v>1384722893.6304212</v>
+        <v>1384722893630420.8</v>
       </c>
       <c r="H14">
         <f>G14*(1+$I$5)</f>
-        <v>1449342887.8482506</v>
+        <v>1449342887848250.3</v>
       </c>
       <c r="I14">
         <f t="shared" ref="I14:L14" si="6">H14*(1+$I$5)</f>
-        <v>1516978462.7804024</v>
+        <v>1516978462780402</v>
       </c>
       <c r="J14">
         <f t="shared" si="6"/>
-        <v>1587770344.6394777</v>
+        <v>1587770344639477.3</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>1661865826.8199208</v>
+        <v>1661865826819920.3</v>
       </c>
       <c r="L14">
         <f t="shared" si="6"/>
-        <v>1739419076.3645723</v>
+        <v>1739419076364571.8</v>
       </c>
       <c r="M14">
         <f>L14*(1+$J$5)</f>
-        <v>1816809204.9845138</v>
+        <v>1816809204984513.3</v>
       </c>
       <c r="N14">
         <f t="shared" ref="N14:Q14" si="7">M14*(1+$J$5)</f>
-        <v>1897642570.5386672</v>
+        <v>1897642570538666.5</v>
       </c>
       <c r="O14">
         <f t="shared" si="7"/>
-        <v>1982072369.3170054</v>
+        <v>1982072369317004.8</v>
       </c>
       <c r="P14">
         <f t="shared" si="7"/>
-        <v>2070258613.6095941</v>
+        <v>2070258613609593.5</v>
       </c>
       <c r="Q14">
         <f t="shared" si="7"/>
-        <v>2162368434.9636559</v>
+        <v>2162368434963655.5</v>
       </c>
       <c r="R14">
         <f>Q14*(1+$K$5)</f>
-        <v>2254335327.7793608</v>
+        <v>2254335327779360.5</v>
       </c>
       <c r="S14">
         <f t="shared" ref="S14:V14" si="8">R14*(1+$K$5)</f>
-        <v>2350213630.5275354</v>
+        <v>2350213630527535</v>
       </c>
       <c r="T14">
         <f t="shared" si="8"/>
-        <v>2450169697.9385767</v>
+        <v>2450169697938576</v>
       </c>
       <c r="U14">
         <f t="shared" si="8"/>
-        <v>2554376959.9144449</v>
+        <v>2554376959914444</v>
       </c>
       <c r="V14">
         <f t="shared" si="8"/>
-        <v>2663016222.4401703</v>
+        <v>2663016222440169</v>
       </c>
       <c r="W14">
         <f>V14*(1+$L$5)</f>
-        <v>2782500363.6382184</v>
+        <v>2782500363638217</v>
       </c>
       <c r="X14">
         <f t="shared" ref="X14:AA14" si="9">W14*(1+$L$5)</f>
-        <v>2907345516.1127028</v>
+        <v>2907345516112701.5</v>
       </c>
       <c r="Y14">
         <f t="shared" si="9"/>
-        <v>3037792217.5753059</v>
+        <v>3037792217575304.5</v>
       </c>
       <c r="Z14">
         <f t="shared" si="9"/>
-        <v>3174091798.1773744</v>
+        <v>3174091798177372.5</v>
       </c>
       <c r="AA14">
         <f t="shared" si="9"/>
-        <v>3316506864.7448153</v>
+        <v>3316506864744813</v>
       </c>
       <c r="AB14">
         <f>AA14*(1+$M$5)</f>
-        <v>3474467101.4868736</v>
+        <v>3474467101486871.5</v>
       </c>
       <c r="AC14">
         <f t="shared" ref="AC14:AF14" si="10">AB14*(1+$M$5)</f>
-        <v>3639950746.866148</v>
+        <v>3639950746866146</v>
       </c>
       <c r="AD14">
         <f t="shared" si="10"/>
-        <v>3813316129.5271754</v>
+        <v>3813316129527173.5</v>
       </c>
       <c r="AE14">
         <f t="shared" si="10"/>
-        <v>3994938644.7692084</v>
+        <v>3994938644769206.5</v>
       </c>
       <c r="AF14">
         <f t="shared" si="10"/>
-        <v>4185211567.4053259</v>
+        <v>4185211567405324</v>
       </c>
       <c r="AG14">
         <f>AF14</f>
-        <v>4185211567.4053259</v>
+        <v>4185211567405324</v>
       </c>
       <c r="AH14">
         <f t="shared" ref="AH14:AI14" si="11">AG14</f>
-        <v>4185211567.4053259</v>
+        <v>4185211567405324</v>
       </c>
       <c r="AI14">
         <f t="shared" si="11"/>
-        <v>4185211567.4053259</v>
+        <v>4185211567405324</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -29753,139 +29754,139 @@
       </c>
       <c r="B15">
         <f>C6</f>
-        <v>944568000</v>
+        <v>944568000000000</v>
       </c>
       <c r="C15">
         <f>B15*(1+$H$9)</f>
-        <v>978485825.88333893</v>
+        <v>978485825883339</v>
       </c>
       <c r="D15">
         <f t="shared" ref="D15:G15" si="12">C15*(1+$H$9)</f>
-        <v>1013621583.0460061</v>
+        <v>1013621583046006.1</v>
       </c>
       <c r="E15">
         <f t="shared" si="12"/>
-        <v>1050019005.323014</v>
+        <v>1050019005323014</v>
       </c>
       <c r="F15">
         <f t="shared" si="12"/>
-        <v>1087723396.9568009</v>
+        <v>1087723396956800.9</v>
       </c>
       <c r="G15">
         <f t="shared" si="12"/>
-        <v>1126781688.9878826</v>
+        <v>1126781688987882.5</v>
       </c>
       <c r="H15">
         <f>G15*(1+$I$9)</f>
-        <v>1138906138.2336495</v>
+        <v>1138906138233649.5</v>
       </c>
       <c r="I15">
         <f t="shared" ref="I15:L15" si="13">H15*(1+$I$9)</f>
-        <v>1151161049.5475791</v>
+        <v>1151161049547579</v>
       </c>
       <c r="J15">
         <f t="shared" si="13"/>
-        <v>1163547826.7337439</v>
+        <v>1163547826733743.8</v>
       </c>
       <c r="K15">
         <f t="shared" si="13"/>
-        <v>1176067888.7014952</v>
+        <v>1176067888701495</v>
       </c>
       <c r="L15">
         <f t="shared" si="13"/>
-        <v>1188722669.6279988</v>
+        <v>1188722669627998.8</v>
       </c>
       <c r="M15">
         <f>L15*(1+$J$9)</f>
-        <v>1205496447.1504569</v>
+        <v>1205496447150456.8</v>
       </c>
       <c r="N15">
         <f t="shared" ref="N15:Q15" si="14">M15*(1+$J$9)</f>
-        <v>1222506915.3826673</v>
+        <v>1222506915382667</v>
       </c>
       <c r="O15">
         <f t="shared" si="14"/>
-        <v>1239757414.2098768</v>
+        <v>1239757414209876.5</v>
       </c>
       <c r="P15">
         <f t="shared" si="14"/>
-        <v>1257251330.6456439</v>
+        <v>1257251330645643.8</v>
       </c>
       <c r="Q15">
         <f t="shared" si="14"/>
-        <v>1274992099.4968545</v>
+        <v>1274992099496854.3</v>
       </c>
       <c r="R15">
         <f>Q15*(1+$K$9)</f>
-        <v>1274379003.3355594</v>
+        <v>1274379003335559</v>
       </c>
       <c r="S15">
         <f t="shared" ref="S15:V15" si="15">R15*(1+$K$9)</f>
-        <v>1273766201.9893482</v>
+        <v>1273766201989347.8</v>
       </c>
       <c r="T15">
         <f t="shared" si="15"/>
-        <v>1273153695.3164556</v>
+        <v>1273153695316455</v>
       </c>
       <c r="U15">
         <f t="shared" si="15"/>
-        <v>1272541483.175184</v>
+        <v>1272541483175183.5</v>
       </c>
       <c r="V15">
         <f t="shared" si="15"/>
-        <v>1271929565.4239042</v>
+        <v>1271929565423903.8</v>
       </c>
       <c r="W15">
         <f>V15*(1+$L$9)</f>
-        <v>1260606340.2859473</v>
+        <v>1260606340285946.8</v>
       </c>
       <c r="X15">
         <f t="shared" ref="X15:AA15" si="16">W15*(1+$L$9)</f>
-        <v>1249383919.0218921</v>
+        <v>1249383919021891.5</v>
       </c>
       <c r="Y15">
         <f t="shared" si="16"/>
-        <v>1238261404.2353811</v>
+        <v>1238261404235380.5</v>
       </c>
       <c r="Z15">
         <f t="shared" si="16"/>
-        <v>1227237906.5190377</v>
+        <v>1227237906519037.3</v>
       </c>
       <c r="AA15">
         <f t="shared" si="16"/>
-        <v>1216312544.3833454</v>
+        <v>1216312544383344.8</v>
       </c>
       <c r="AB15">
         <f>AA15*(1+$M$9)</f>
-        <v>1167620883.0635505</v>
+        <v>1167620883063550</v>
       </c>
       <c r="AC15">
         <f t="shared" ref="AC15:AF15" si="17">AB15*(1+$M$9)</f>
-        <v>1120878455.8390791</v>
+        <v>1120878455839078.6</v>
       </c>
       <c r="AD15">
         <f t="shared" si="17"/>
-        <v>1076007230.5899463</v>
+        <v>1076007230589945.8</v>
       </c>
       <c r="AE15">
         <f t="shared" si="17"/>
-        <v>1032932298.9932337</v>
+        <v>1032932298993233.3</v>
       </c>
       <c r="AF15">
         <f t="shared" si="17"/>
-        <v>991581751.47063565</v>
+        <v>991581751470635.25</v>
       </c>
       <c r="AG15">
         <f>AF15</f>
-        <v>991581751.47063565</v>
+        <v>991581751470635.25</v>
       </c>
       <c r="AH15">
         <f t="shared" ref="AH15:AI15" si="18">AG15</f>
-        <v>991581751.47063565</v>
+        <v>991581751470635.25</v>
       </c>
       <c r="AI15">
         <f t="shared" si="18"/>
-        <v>991581751.47063565</v>
+        <v>991581751470635.25</v>
       </c>
     </row>
   </sheetData>
@@ -29901,14 +29902,14 @@
       <selection activeCell="B31" sqref="B31:AG31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
@@ -31038,18 +31039,18 @@
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="4.1796875" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" customWidth="1"/>
+    <col min="18" max="18" width="9.453125" customWidth="1"/>
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
@@ -31119,25 +31120,25 @@
       <c r="D3">
         <v>1.05</v>
       </c>
-      <c r="H3" s="97">
+      <c r="H3" s="95">
         <v>3408.4500000000003</v>
       </c>
-      <c r="I3" s="97">
+      <c r="I3" s="95">
         <v>4203.6000000000004</v>
       </c>
-      <c r="J3" s="97">
+      <c r="J3" s="95">
         <v>4887.1500000000005</v>
       </c>
-      <c r="K3" s="97">
+      <c r="K3" s="95">
         <v>5356.8</v>
       </c>
-      <c r="L3" s="97">
+      <c r="L3" s="95">
         <v>5538.1500000000005</v>
       </c>
-      <c r="M3" s="97">
+      <c r="M3" s="95">
         <v>5528.85</v>
       </c>
-      <c r="N3" s="97">
+      <c r="N3" s="95">
         <v>5380.05</v>
       </c>
     </row>
@@ -31241,25 +31242,25 @@
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1">
-      <c r="H7" s="98">
+      <c r="H7" s="96">
         <v>-876.28625387650709</v>
       </c>
-      <c r="I7" s="98">
+      <c r="I7" s="96">
         <v>-1132.7566268697301</v>
       </c>
-      <c r="J7" s="98">
+      <c r="J7" s="96">
         <v>-1348.9801264516409</v>
       </c>
-      <c r="K7" s="98">
+      <c r="K7" s="96">
         <v>-1632.1478019750093</v>
       </c>
-      <c r="L7" s="98">
+      <c r="L7" s="96">
         <v>-2122.672138171396</v>
       </c>
-      <c r="M7" s="98">
+      <c r="M7" s="96">
         <v>-2755.5542138460569</v>
       </c>
-      <c r="N7" s="98">
+      <c r="N7" s="96">
         <v>-3300.298451450094</v>
       </c>
     </row>
@@ -32141,14 +32142,14 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1"/>
+    <col min="1" max="1" width="43.7265625" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
